--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Ivan\College\2018-2019\Indep Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA88E6F9-C2DC-4897-A24D-6C405A4FF20D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F984093E-6326-4437-807E-9CF21C2D3C81}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="13665" windowHeight="11625" firstSheet="3" activeTab="8" xr2:uid="{984E635D-4395-4027-B8D2-12147AC10169}"/>
+    <workbookView xWindow="3510" yWindow="1665" windowWidth="17085" windowHeight="14535" xr2:uid="{984E635D-4395-4027-B8D2-12147AC10169}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48D6B2F-0889-4D04-BD46-10F921B4A67A}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,10 +772,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-1</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -787,28 +787,28 @@
         <v>0</v>
       </c>
       <c r="F4" s="8">
-        <v>2.76</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G4" s="8">
-        <v>2.76</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="H4" s="8">
-        <v>2.76</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="I4" s="8">
-        <v>2.76</v>
-      </c>
-      <c r="J4" s="8">
-        <v>1.42</v>
+        <v>2.17</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
       </c>
       <c r="K4" s="8">
-        <v>1.42</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L4" s="8">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="M4" s="8">
-        <v>1.42</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -828,36 +828,36 @@
         <v>0</v>
       </c>
       <c r="F5" s="8">
-        <v>3.69</v>
+        <v>2.76</v>
       </c>
       <c r="G5" s="8">
-        <v>3.69</v>
+        <v>2.76</v>
       </c>
       <c r="H5" s="8">
-        <v>3.69</v>
+        <v>2.76</v>
       </c>
       <c r="I5" s="8">
-        <v>3.69</v>
+        <v>2.76</v>
       </c>
       <c r="J5" s="8">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
       <c r="K5" s="8">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
       <c r="L5" s="8">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
       <c r="M5" s="8">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
-        <v>-1</v>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -869,36 +869,36 @@
         <v>0</v>
       </c>
       <c r="F6" s="8">
-        <v>1.1399999999999999</v>
+        <v>1.66</v>
       </c>
       <c r="G6" s="8">
-        <v>2.2400000000000002</v>
+        <v>2.92</v>
       </c>
       <c r="H6" s="8">
-        <v>2.2799999999999998</v>
+        <v>3.06</v>
       </c>
       <c r="I6" s="8">
-        <v>2.17</v>
+        <v>2.62</v>
       </c>
       <c r="J6" s="17">
         <v>0</v>
       </c>
       <c r="K6" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.26</v>
       </c>
       <c r="L6" s="8">
-        <v>1.21</v>
+        <v>1.81</v>
       </c>
       <c r="M6" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -910,28 +910,28 @@
         <v>0</v>
       </c>
       <c r="F7" s="8">
-        <v>1.66</v>
+        <v>3.69</v>
       </c>
       <c r="G7" s="8">
-        <v>2.92</v>
+        <v>3.69</v>
       </c>
       <c r="H7" s="8">
-        <v>3.06</v>
+        <v>3.69</v>
       </c>
       <c r="I7" s="8">
-        <v>2.62</v>
-      </c>
-      <c r="J7" s="17">
-        <v>0</v>
+        <v>3.69</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1.85</v>
       </c>
       <c r="K7" s="8">
-        <v>1.26</v>
+        <v>1.85</v>
       </c>
       <c r="L7" s="8">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="M7" s="8">
-        <v>1.38</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1076,15 +1076,15 @@
         <v>1.0799999999999998</v>
       </c>
       <c r="G12" s="9">
-        <f t="shared" ref="F12:I17" si="0">G3-K3</f>
+        <f>G3-K3</f>
         <v>1.0799999999999998</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" si="0"/>
+        <f>H3-L3</f>
         <v>1.0799999999999998</v>
       </c>
       <c r="I12" s="10">
-        <f t="shared" si="0"/>
+        <f>I3-M3</f>
         <v>1.0799999999999998</v>
       </c>
       <c r="J12" s="15">
@@ -1114,10 +1114,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>0</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-1</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -1129,44 +1129,44 @@
         <v>0</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="0"/>
-        <v>1.3399999999999999</v>
+        <f>F4-J4</f>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G13" s="8">
-        <f t="shared" si="0"/>
-        <v>1.3399999999999999</v>
+        <f>G4-K4</f>
+        <v>1.1400000000000001</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="0"/>
-        <v>1.3399999999999999</v>
+        <f>H4-L4</f>
+        <v>1.0699999999999998</v>
       </c>
       <c r="I13" s="11">
-        <f t="shared" si="0"/>
-        <v>1.3399999999999999</v>
+        <f>I4-M4</f>
+        <v>1.0699999999999998</v>
       </c>
       <c r="J13" s="15">
-        <v>0.126</v>
+        <v>9.4799999999999995E-2</v>
       </c>
       <c r="K13" s="12">
-        <v>0.126</v>
+        <v>3.1600000000000003E-2</v>
       </c>
       <c r="L13" s="12">
-        <v>0.126</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="M13" s="16">
-        <v>0.126</v>
+        <v>3.39E-2</v>
       </c>
       <c r="N13" s="12">
-        <v>0.35799999999999998</v>
+        <v>3.6900000000000002E-2</v>
       </c>
       <c r="O13" s="12">
-        <v>0.35799999999999998</v>
+        <v>7.2099999999999997E-2</v>
       </c>
       <c r="P13" s="12">
-        <v>0.33600000000000002</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="Q13" s="12">
-        <v>0.33600000000000002</v>
+        <v>6.8900000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1186,52 +1186,52 @@
         <v>0</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8399999999999999</v>
+        <f>F5-J5</f>
+        <v>1.3399999999999999</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8399999999999999</v>
+        <f>G5-K5</f>
+        <v>1.3399999999999999</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8399999999999999</v>
+        <f>H5-L5</f>
+        <v>1.3399999999999999</v>
       </c>
       <c r="I14" s="11">
-        <f t="shared" si="0"/>
-        <v>1.8399999999999999</v>
+        <f>I5-M5</f>
+        <v>1.3399999999999999</v>
       </c>
       <c r="J14" s="15">
-        <v>0.22700000000000001</v>
+        <v>0.126</v>
       </c>
       <c r="K14" s="12">
-        <v>0.22700000000000001</v>
+        <v>0.126</v>
       </c>
       <c r="L14" s="12">
-        <v>0.22700000000000001</v>
+        <v>0.126</v>
       </c>
       <c r="M14" s="16">
-        <v>0.22700000000000001</v>
+        <v>0.126</v>
       </c>
       <c r="N14" s="12">
-        <v>0.84199999999999997</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="O14" s="12">
-        <v>0.84199999999999997</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="P14" s="12">
-        <v>0.83399999999999996</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="Q14" s="12">
-        <v>0.83399999999999996</v>
+        <v>0.33600000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="3">
-        <v>-1</v>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -1243,52 +1243,52 @@
         <v>0</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="0"/>
-        <v>1.1399999999999999</v>
+        <f>F6-J6</f>
+        <v>1.66</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="0"/>
-        <v>1.1400000000000001</v>
+        <f>G6-K6</f>
+        <v>1.66</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="0"/>
-        <v>1.0699999999999998</v>
+        <f>H6-L6</f>
+        <v>1.25</v>
       </c>
       <c r="I15" s="11">
-        <f t="shared" si="0"/>
-        <v>1.0699999999999998</v>
+        <f>I6-M6</f>
+        <v>1.2400000000000002</v>
       </c>
       <c r="J15" s="15">
-        <v>9.4799999999999995E-2</v>
+        <v>0.31</v>
       </c>
       <c r="K15" s="12">
-        <v>3.1600000000000003E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="L15" s="12">
-        <v>3.0599999999999999E-2</v>
+        <v>7.6600000000000001E-2</v>
       </c>
       <c r="M15" s="16">
-        <v>3.39E-2</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="N15" s="12">
-        <v>3.6900000000000002E-2</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="O15" s="12">
-        <v>7.2099999999999997E-2</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="P15" s="12">
-        <v>0.14499999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="Q15" s="12">
-        <v>6.8900000000000003E-2</v>
+        <v>0.24299999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1300,44 +1300,44 @@
         <v>0</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="0"/>
-        <v>1.66</v>
+        <f>F7-J7</f>
+        <v>1.8399999999999999</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="0"/>
-        <v>1.66</v>
+        <f>G7-K7</f>
+        <v>1.8399999999999999</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="0"/>
-        <v>1.25</v>
+        <f>H7-L7</f>
+        <v>1.8399999999999999</v>
       </c>
       <c r="I16" s="11">
-        <f t="shared" si="0"/>
-        <v>1.2400000000000002</v>
+        <f>I7-M7</f>
+        <v>1.8399999999999999</v>
       </c>
       <c r="J16" s="15">
-        <v>0.31</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="K16" s="12">
-        <v>8.7999999999999995E-2</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="L16" s="12">
-        <v>7.6600000000000001E-2</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="M16" s="16">
-        <v>0.11899999999999999</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="N16" s="12">
-        <v>0.13900000000000001</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="O16" s="12">
-        <v>0.27400000000000002</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="P16" s="12">
-        <v>0.66</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="Q16" s="12">
-        <v>0.24299999999999999</v>
+        <v>0.83399999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F17:I17" si="0">F8-J8</f>
         <v>2.66</v>
       </c>
       <c r="G17" s="8">
@@ -6421,12 +6421,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="N10:Q10"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:Q10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7163,7 +7163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228BB3AA-32EE-4B8C-8231-8B457DAC3F50}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J10" sqref="J10:M10"/>
     </sheetView>
   </sheetViews>
@@ -7875,12 +7875,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="N10:Q10"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:Q10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Ivan\College\2018-2019\Indep Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F984093E-6326-4437-807E-9CF21C2D3C81}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B3C536-8F4D-4DA5-AD29-2D5E9939D50B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1665" windowWidth="17085" windowHeight="14535" xr2:uid="{984E635D-4395-4027-B8D2-12147AC10169}"/>
+    <workbookView xWindow="19590" yWindow="4950" windowWidth="17085" windowHeight="14535" firstSheet="5" activeTab="9" xr2:uid="{984E635D-4395-4027-B8D2-12147AC10169}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="Table 4" sheetId="4" r:id="rId4"/>
     <sheet name="Table 5" sheetId="5" r:id="rId5"/>
     <sheet name="Table 6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="Appendix 1" sheetId="8" r:id="rId7"/>
     <sheet name="Table 7" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
+    <sheet name="Appendix 2" sheetId="9" r:id="rId9"/>
+    <sheet name="Table 8" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,18 +40,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="29">
   <si>
     <t>Parameters (utility fn)</t>
   </si>
   <si>
-    <t>Downstream eq</t>
-  </si>
-  <si>
     <t>Shares</t>
-  </si>
-  <si>
-    <t>profits</t>
   </si>
   <si>
     <t>Integration</t>
@@ -128,13 +123,10 @@
     <t>log(1000)</t>
   </si>
   <si>
-    <t>Downstream Equilibria</t>
-  </si>
-  <si>
     <t>Profits</t>
   </si>
   <si>
-    <t>Downstream Eq</t>
+    <t>Prices</t>
   </si>
 </sst>
 </file>
@@ -161,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -279,11 +271,30 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="double">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -320,9 +331,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -335,9 +343,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -663,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48D6B2F-0889-4D04-BD46-10F921B4A67A}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +685,7 @@
       <c r="D1" s="19"/>
       <c r="E1" s="20"/>
       <c r="F1" s="21" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -690,43 +697,43 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -798,7 +805,7 @@
       <c r="I4" s="8">
         <v>2.17</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="16">
         <v>0</v>
       </c>
       <c r="K4" s="8">
@@ -816,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -857,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -880,7 +887,7 @@
       <c r="I6" s="8">
         <v>2.62</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="16">
         <v>0</v>
       </c>
       <c r="K6" s="8">
@@ -898,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -939,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -962,7 +969,7 @@
       <c r="I8" s="8">
         <v>3.5</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="16">
         <v>0</v>
       </c>
       <c r="K8" s="8">
@@ -984,19 +991,19 @@
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
       <c r="F10" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="20"/>
       <c r="J10" s="21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="20"/>
       <c r="N10" s="19" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
@@ -1004,49 +1011,49 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="O11" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="P11" s="1">
         <v>1</v>
@@ -1072,22 +1079,22 @@
         <v>0</v>
       </c>
       <c r="F12" s="9">
-        <f>F3-J3</f>
+        <f t="shared" ref="F12:I16" si="0">F3-J3</f>
         <v>1.0799999999999998</v>
       </c>
       <c r="G12" s="9">
-        <f>G3-K3</f>
+        <f t="shared" si="0"/>
         <v>1.0799999999999998</v>
       </c>
       <c r="H12" s="9">
-        <f>H3-L3</f>
+        <f t="shared" si="0"/>
         <v>1.0799999999999998</v>
       </c>
       <c r="I12" s="10">
-        <f>I3-M3</f>
+        <f t="shared" si="0"/>
         <v>1.0799999999999998</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="14">
         <v>3.5400000000000001E-2</v>
       </c>
       <c r="K12" s="12">
@@ -1096,7 +1103,7 @@
       <c r="L12" s="12">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="15">
         <v>3.5400000000000001E-2</v>
       </c>
       <c r="N12" s="12">
@@ -1129,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="F13" s="8">
-        <f>F4-J4</f>
+        <f t="shared" si="0"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="G13" s="8">
-        <f>G4-K4</f>
+        <f t="shared" si="0"/>
         <v>1.1400000000000001</v>
       </c>
       <c r="H13" s="8">
-        <f>H4-L4</f>
+        <f t="shared" si="0"/>
         <v>1.0699999999999998</v>
       </c>
       <c r="I13" s="11">
-        <f>I4-M4</f>
+        <f t="shared" si="0"/>
         <v>1.0699999999999998</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="14">
         <v>9.4799999999999995E-2</v>
       </c>
       <c r="K13" s="12">
@@ -1153,7 +1160,7 @@
       <c r="L13" s="12">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="15">
         <v>3.39E-2</v>
       </c>
       <c r="N13" s="12">
@@ -1174,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1186,22 +1193,22 @@
         <v>0</v>
       </c>
       <c r="F14" s="8">
-        <f>F5-J5</f>
+        <f t="shared" si="0"/>
         <v>1.3399999999999999</v>
       </c>
       <c r="G14" s="8">
-        <f>G5-K5</f>
+        <f t="shared" si="0"/>
         <v>1.3399999999999999</v>
       </c>
       <c r="H14" s="8">
-        <f>H5-L5</f>
+        <f t="shared" si="0"/>
         <v>1.3399999999999999</v>
       </c>
       <c r="I14" s="11">
-        <f>I5-M5</f>
+        <f t="shared" si="0"/>
         <v>1.3399999999999999</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="14">
         <v>0.126</v>
       </c>
       <c r="K14" s="12">
@@ -1210,7 +1217,7 @@
       <c r="L14" s="12">
         <v>0.126</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="15">
         <v>0.126</v>
       </c>
       <c r="N14" s="12">
@@ -1231,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -1243,22 +1250,22 @@
         <v>0</v>
       </c>
       <c r="F15" s="8">
-        <f>F6-J6</f>
+        <f t="shared" si="0"/>
         <v>1.66</v>
       </c>
       <c r="G15" s="8">
-        <f>G6-K6</f>
+        <f t="shared" si="0"/>
         <v>1.66</v>
       </c>
       <c r="H15" s="8">
-        <f>H6-L6</f>
+        <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
       <c r="I15" s="11">
-        <f>I6-M6</f>
+        <f t="shared" si="0"/>
         <v>1.2400000000000002</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="14">
         <v>0.31</v>
       </c>
       <c r="K15" s="12">
@@ -1267,7 +1274,7 @@
       <c r="L15" s="12">
         <v>7.6600000000000001E-2</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="15">
         <v>0.11899999999999999</v>
       </c>
       <c r="N15" s="12">
@@ -1288,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1300,22 +1307,22 @@
         <v>0</v>
       </c>
       <c r="F16" s="8">
-        <f>F7-J7</f>
+        <f t="shared" si="0"/>
         <v>1.8399999999999999</v>
       </c>
       <c r="G16" s="8">
-        <f>G7-K7</f>
+        <f t="shared" si="0"/>
         <v>1.8399999999999999</v>
       </c>
       <c r="H16" s="8">
-        <f>H7-L7</f>
+        <f t="shared" si="0"/>
         <v>1.8399999999999999</v>
       </c>
       <c r="I16" s="11">
-        <f>I7-M7</f>
+        <f t="shared" si="0"/>
         <v>1.8399999999999999</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="14">
         <v>0.22700000000000001</v>
       </c>
       <c r="K16" s="12">
@@ -1324,7 +1331,7 @@
       <c r="L16" s="12">
         <v>0.22700000000000001</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="15">
         <v>0.22700000000000001</v>
       </c>
       <c r="N16" s="12">
@@ -1345,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -1357,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" ref="F17:I17" si="0">F8-J8</f>
+        <f t="shared" ref="F17:I17" si="1">F8-J8</f>
         <v>2.66</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.66</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.44</v>
       </c>
       <c r="I17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.44</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="14">
         <v>0.498</v>
       </c>
       <c r="K17" s="12">
@@ -1381,7 +1388,7 @@
       <c r="L17" s="12">
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="15">
         <v>0.215</v>
       </c>
       <c r="N17" s="12">
@@ -1410,12 +1417,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DD505B-8DE5-4D64-A03E-8DAA3FCFFFE4}">
-  <dimension ref="A1:Q22"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B665ED1-3209-4135-8CC2-C34D1132D3B0}">
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H24" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="A1:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,7 +1436,7 @@
       <c r="D1" s="19"/>
       <c r="E1" s="20"/>
       <c r="F1" s="21" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -1441,89 +1448,816 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5.46</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5.46</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3.38</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.38</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.98</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>6.35</v>
+      </c>
+      <c r="G4" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="H4" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="L4" s="3">
+        <v>6.43</v>
+      </c>
+      <c r="M4" s="3">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.87</v>
+      </c>
+      <c r="G5" s="3">
+        <v>6.95</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3.48</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="M5" s="3">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5.72</v>
+      </c>
+      <c r="G6" s="3">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6.77</v>
+      </c>
+      <c r="I6" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2.64</v>
+      </c>
+      <c r="L6" s="3">
+        <v>5.57</v>
+      </c>
+      <c r="M6" s="3">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>6.81</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="H7" s="3">
+        <v>4.72</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.74</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="L7" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>-3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>7.06</v>
+      </c>
+      <c r="G8" s="3">
+        <v>8.17</v>
+      </c>
+      <c r="H8" s="3">
+        <v>8.39</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3.34</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L8" s="3">
+        <v>7.28</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3.46</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3.46</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="P12" s="12">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>0.39800000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6.35</v>
+      </c>
+      <c r="G13" s="3">
+        <v>6.35</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1.1600000000000006</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="L13" s="12">
+        <v>9.5499999999999995E-3</v>
+      </c>
+      <c r="M13" s="15">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="N13" s="12">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="P13" s="12">
+        <v>5.35</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-3</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3.47</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3.47</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="L14" s="12">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="M14" s="15">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="O14" s="12">
+        <v>2.48</v>
+      </c>
+      <c r="P14" s="12">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5.72</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5.7299999999999986</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1.1999999999999993</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1.1900000000000004</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="L15" s="12">
+        <v>5.9699999999999996E-3</v>
+      </c>
+      <c r="M15" s="15">
+        <v>0.156</v>
+      </c>
+      <c r="N15" s="12">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="O15" s="12">
+        <v>2.11</v>
+      </c>
+      <c r="P15" s="12">
+        <v>4.72</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-3</v>
+      </c>
+      <c r="E16" s="4">
+        <v>-3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3.3599999999999994</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1.3899999999999997</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.504</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="M16" s="15">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="N16" s="12">
+        <v>2.42</v>
+      </c>
+      <c r="O16" s="12">
+        <v>0.374</v>
+      </c>
+      <c r="P16" s="12">
+        <v>2.36</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>0.38300000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-3</v>
+      </c>
+      <c r="E17" s="4">
+        <v>-3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>7.06</v>
+      </c>
+      <c r="G17" s="3">
+        <v>7.05</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1.1100000000000003</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="K17" s="12">
+        <v>1.38E-2</v>
+      </c>
+      <c r="L17" s="12">
+        <v>1.11E-2</v>
+      </c>
+      <c r="M17" s="15">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="N17" s="12">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="P17" s="12">
+        <v>6.06</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>0.108</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DD505B-8DE5-4D64-A03E-8DAA3FCFFFE4}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>-4</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="F3" s="3">
-        <v>2.0499999999999998</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="G3" s="3">
-        <v>2.17</v>
+        <v>3.12</v>
       </c>
       <c r="H3" s="3">
-        <v>2.0499999999999998</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="I3" s="3">
-        <v>2.17</v>
+        <v>3.12</v>
       </c>
       <c r="J3" s="3">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="K3" s="3">
-        <v>1.1299999999999999</v>
+        <v>1.86</v>
       </c>
       <c r="L3" s="3">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="M3" s="3">
-        <v>1.1299999999999999</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>0</v>
+      <c r="A4" s="4">
+        <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>-1</v>
@@ -1535,39 +2269,39 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3">
-        <v>2.3199999999999998</v>
+        <v>1.31</v>
       </c>
       <c r="G4" s="3">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="H4" s="3">
-        <v>2.3199999999999998</v>
+        <v>2.54</v>
       </c>
       <c r="I4" s="3">
-        <v>3.12</v>
+        <v>3.09</v>
       </c>
       <c r="J4" s="3">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="L4" s="3">
-        <v>1.05</v>
+        <v>1.28</v>
       </c>
       <c r="M4" s="3">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -1576,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3">
         <v>2.75</v>
@@ -1604,353 +2338,385 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>0</v>
+      <c r="A6" s="4">
+        <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.79</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3.16</v>
+      </c>
+      <c r="I6" s="3">
+        <v>4.18</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2.41</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.68</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3.29</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3.29</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1.36</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3.37</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.36</v>
+      </c>
+      <c r="M7" s="3">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4.04</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5.29</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3.29</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="H6" s="3">
-        <v>3.29</v>
-      </c>
-      <c r="I6" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1.36</v>
-      </c>
-      <c r="K6" s="3">
-        <v>3.37</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1.36</v>
-      </c>
-      <c r="M6" s="3">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3">
-        <v>-4</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1.05</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2.17</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2.09</v>
-      </c>
-      <c r="I7" s="3">
-        <v>2.17</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1.05</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3">
         <v>-1</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" ref="F13:I18" si="0">F3-J3</f>
+        <v>1.2699999999999998</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.26</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2699999999999998</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.26</v>
+      </c>
+      <c r="J13" s="14">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0.188</v>
+      </c>
+      <c r="L13" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="M13" s="15">
+        <v>0.188</v>
+      </c>
+      <c r="N13" s="12">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
         <v>1.31</v>
       </c>
-      <c r="G8" s="3">
-        <v>3.11</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2.54</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3.09</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1.28</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1.79</v>
-      </c>
-      <c r="G9" s="3">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="H9" s="3">
-        <v>3.16</v>
-      </c>
-      <c r="I9" s="3">
-        <v>4.18</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2.41</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1.68</v>
-      </c>
-      <c r="M9" s="3">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>4.04</v>
-      </c>
-      <c r="I10" s="3">
-        <v>5.29</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="M10" s="3">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3099999999999998</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.26</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2599999999999998</v>
+      </c>
+      <c r="J14" s="14">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0.183</v>
+      </c>
+      <c r="L14" s="12">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="M14" s="15">
+        <v>0.187</v>
+      </c>
+      <c r="N14" s="12">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="P14" s="12">
+        <v>0.313</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P14" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>0</v>
-      </c>
-      <c r="B15" s="3">
-        <v>-4</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="F15" s="3">
-        <f>F3-J3</f>
-        <v>1.0399999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1.57</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" ref="G15:I15" si="0">G3-K3</f>
-        <v>1.04</v>
+        <f t="shared" si="0"/>
+        <v>1.5799999999999996</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="0"/>
-        <v>1.0399999999999998</v>
+        <v>1.57</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="0"/>
-        <v>1.04</v>
-      </c>
-      <c r="J15" s="18">
-        <v>2.1700000000000001E-3</v>
-      </c>
-      <c r="K15" s="13">
-        <v>3.85E-2</v>
-      </c>
-      <c r="L15" s="13">
-        <v>2.1700000000000001E-3</v>
-      </c>
-      <c r="M15" s="14">
-        <v>3.85E-2</v>
+        <v>1.5799999999999996</v>
+      </c>
+      <c r="J15" s="14">
+        <v>6.9400000000000003E-2</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="L15" s="12">
+        <v>6.9400000000000003E-2</v>
+      </c>
+      <c r="M15" s="15">
+        <v>0.29499999999999998</v>
       </c>
       <c r="N15" s="12">
-        <v>4.3699999999999998E-3</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="O15" s="12">
-        <v>8.6699999999999999E-2</v>
+        <v>1.61</v>
       </c>
       <c r="P15" s="12">
-        <v>4.24E-2</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="Q15" s="12">
-        <v>4.24E-2</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>0</v>
-      </c>
-      <c r="B16" s="3">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1959,47 +2725,47 @@
         <v>0</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" ref="F16:F22" si="1">F4-J4</f>
-        <v>1.2699999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1.79</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" ref="G16:G22" si="2">G4-K4</f>
-        <v>1.26</v>
+        <f t="shared" si="0"/>
+        <v>1.7800000000000002</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" ref="H16:H22" si="3">H4-L4</f>
-        <v>1.2699999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1.4800000000000002</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" ref="I16:I22" si="4">I4-M4</f>
-        <v>1.26</v>
-      </c>
-      <c r="J16" s="15">
-        <v>2.1000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.4899999999999998</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.157</v>
       </c>
       <c r="K16" s="12">
-        <v>0.188</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="L16" s="12">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="M16" s="16">
-        <v>0.188</v>
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0.28699999999999998</v>
       </c>
       <c r="N16" s="12">
-        <v>4.4400000000000002E-2</v>
+        <v>6.6400000000000001E-2</v>
       </c>
       <c r="O16" s="12">
-        <v>0.7</v>
+        <v>1.45</v>
       </c>
       <c r="P16" s="12">
-        <v>0.26500000000000001</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="Q16" s="12">
-        <v>0.26500000000000001</v>
+        <v>0.48499999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -2007,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -2016,55 +2782,55 @@
         <v>0</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="1"/>
-        <v>1.57</v>
+        <f t="shared" si="0"/>
+        <v>1.93</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="2"/>
-        <v>1.5799999999999996</v>
+        <f t="shared" si="0"/>
+        <v>1.9299999999999997</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="3"/>
-        <v>1.57</v>
+        <f t="shared" si="0"/>
+        <v>1.93</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="4"/>
-        <v>1.5799999999999996</v>
-      </c>
-      <c r="J17" s="15">
-        <v>6.9400000000000003E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.9299999999999997</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0.13100000000000001</v>
       </c>
       <c r="K17" s="12">
-        <v>0.29499999999999998</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="L17" s="12">
-        <v>6.9400000000000003E-2</v>
-      </c>
-      <c r="M17" s="16">
-        <v>0.29499999999999998</v>
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="M17" s="15">
+        <v>0.35099999999999998</v>
       </c>
       <c r="N17" s="12">
-        <v>0.16300000000000001</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="O17" s="12">
-        <v>1.61</v>
+        <v>2.37</v>
       </c>
       <c r="P17" s="12">
-        <v>0.57299999999999995</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="Q17" s="12">
-        <v>0.57299999999999995</v>
+        <v>0.93200000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2073,285 +2839,57 @@
         <v>0</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="1"/>
-        <v>1.93</v>
+        <f t="shared" si="0"/>
+        <v>2.5</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="2"/>
-        <v>1.9299999999999997</v>
+        <f t="shared" si="0"/>
+        <v>2.5</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="3"/>
-        <v>1.93</v>
+        <f t="shared" si="0"/>
+        <v>1.5899999999999999</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="4"/>
-        <v>1.9299999999999997</v>
-      </c>
-      <c r="J18" s="15">
-        <v>0.13100000000000001</v>
+        <f t="shared" si="0"/>
+        <v>1.5899999999999999</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0.25600000000000001</v>
       </c>
       <c r="K18" s="12">
-        <v>0.35099999999999998</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="L18" s="12">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="M18" s="16">
-        <v>0.35099999999999998</v>
+        <v>5.5E-2</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0.314</v>
       </c>
       <c r="N18" s="12">
-        <v>0.35699999999999998</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="O18" s="12">
-        <v>2.37</v>
+        <v>2.09</v>
       </c>
       <c r="P18" s="12">
-        <v>0.93200000000000005</v>
+        <v>1.5</v>
       </c>
       <c r="Q18" s="12">
-        <v>0.93200000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3">
-        <v>-4</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="1"/>
-        <v>1.05</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="2"/>
-        <v>1.04</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0399999999999998</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="4"/>
-        <v>1.04</v>
-      </c>
-      <c r="J19" s="15">
-        <v>5.8900000000000003E-3</v>
-      </c>
-      <c r="K19" s="12">
-        <v>3.8199999999999998E-2</v>
-      </c>
-      <c r="L19" s="12">
-        <v>2.0699999999999998E-3</v>
-      </c>
-      <c r="M19" s="16">
-        <v>3.8399999999999997E-2</v>
-      </c>
-      <c r="N19" s="12">
-        <v>2.1700000000000001E-3</v>
-      </c>
-      <c r="O19" s="12">
-        <v>8.6199999999999999E-2</v>
-      </c>
-      <c r="P19" s="12">
-        <v>4.6199999999999998E-2</v>
-      </c>
-      <c r="Q19" s="12">
-        <v>4.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" si="1"/>
-        <v>1.31</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="2"/>
-        <v>1.3099999999999998</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="3"/>
-        <v>1.26</v>
-      </c>
-      <c r="I20" s="3">
-        <f t="shared" si="4"/>
-        <v>1.2599999999999998</v>
-      </c>
-      <c r="J20" s="15">
-        <v>5.5300000000000002E-2</v>
-      </c>
-      <c r="K20" s="12">
-        <v>0.183</v>
-      </c>
-      <c r="L20" s="12">
-        <v>1.6199999999999999E-2</v>
-      </c>
-      <c r="M20" s="16">
-        <v>0.187</v>
-      </c>
-      <c r="N20" s="12">
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="O20" s="12">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="P20" s="12">
-        <v>0.313</v>
-      </c>
-      <c r="Q20" s="12">
-        <v>0.255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="1"/>
-        <v>1.79</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="2"/>
-        <v>1.7800000000000002</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="3"/>
-        <v>1.4800000000000002</v>
-      </c>
-      <c r="I21" s="3">
-        <f t="shared" si="4"/>
-        <v>1.4899999999999998</v>
-      </c>
-      <c r="J21" s="15">
-        <v>0.157</v>
-      </c>
-      <c r="K21" s="12">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="L21" s="12">
-        <v>3.9600000000000003E-2</v>
-      </c>
-      <c r="M21" s="16">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="N21" s="12">
-        <v>6.6400000000000001E-2</v>
-      </c>
-      <c r="O21" s="12">
-        <v>1.45</v>
-      </c>
-      <c r="P21" s="12">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="Q21" s="12">
-        <v>0.48499999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="3"/>
-        <v>1.5899999999999999</v>
-      </c>
-      <c r="I22" s="3">
-        <f t="shared" si="4"/>
-        <v>1.5899999999999999</v>
-      </c>
-      <c r="J22" s="15">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="K22" s="12">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="L22" s="12">
-        <v>5.5E-2</v>
-      </c>
-      <c r="M22" s="16">
-        <v>0.314</v>
-      </c>
-      <c r="N22" s="12">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="O22" s="12">
-        <v>2.09</v>
-      </c>
-      <c r="P22" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="Q22" s="12">
         <v>0.58499999999999996</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="N11:Q11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:M1"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2362,7 +2900,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2376,7 +2914,7 @@
       <c r="D1" s="19"/>
       <c r="E1" s="20"/>
       <c r="F1" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -2388,43 +2926,43 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2470,10 +3008,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-1</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -2485,28 +3023,28 @@
         <v>-4</v>
       </c>
       <c r="F4" s="3">
-        <v>4.07</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G4" s="3">
-        <v>2.4700000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="H4" s="3">
-        <v>4.07</v>
+        <v>2.23</v>
       </c>
       <c r="I4" s="3">
-        <v>2.4700000000000002</v>
+        <v>2.06</v>
       </c>
       <c r="J4" s="3">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>1.05</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="L4" s="3">
-        <v>2.64</v>
+        <v>1.19</v>
       </c>
       <c r="M4" s="3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2514,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -2526,36 +3064,36 @@
         <v>-4</v>
       </c>
       <c r="F5" s="3">
-        <v>5.61</v>
+        <v>4.07</v>
       </c>
       <c r="G5" s="3">
-        <v>3.04</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="H5" s="3">
-        <v>5.61</v>
+        <v>4.07</v>
       </c>
       <c r="I5" s="3">
-        <v>3.04</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="J5" s="3">
-        <v>3.79</v>
+        <v>2.64</v>
       </c>
       <c r="K5" s="3">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="L5" s="3">
-        <v>3.79</v>
+        <v>2.64</v>
       </c>
       <c r="M5" s="3">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
-        <v>-1</v>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -2567,36 +3105,36 @@
         <v>-4</v>
       </c>
       <c r="F6" s="3">
-        <v>1.1200000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="G6" s="3">
-        <v>2.1</v>
+        <v>3.85</v>
       </c>
       <c r="H6" s="3">
-        <v>2.23</v>
+        <v>4.63</v>
       </c>
       <c r="I6" s="3">
-        <v>2.06</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>0.98499999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L6" s="3">
-        <v>1.19</v>
+        <v>3.5</v>
       </c>
       <c r="M6" s="3">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -2608,28 +3146,28 @@
         <v>-4</v>
       </c>
       <c r="F7" s="3">
-        <v>2.75</v>
+        <v>5.61</v>
       </c>
       <c r="G7" s="3">
-        <v>3.85</v>
+        <v>3.04</v>
       </c>
       <c r="H7" s="3">
-        <v>4.63</v>
+        <v>5.61</v>
       </c>
       <c r="I7" s="3">
-        <v>2.2000000000000002</v>
+        <v>3.04</v>
       </c>
       <c r="J7" s="3">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="K7" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="L7" s="3">
-        <v>3.5</v>
+        <v>3.79</v>
       </c>
       <c r="M7" s="3">
-        <v>1.06</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2637,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -2682,19 +3220,19 @@
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
       <c r="F10" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="20"/>
       <c r="J10" s="21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="20"/>
       <c r="N10" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
@@ -2702,49 +3240,49 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="O11" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="P11" s="1">
         <v>1</v>
@@ -2790,7 +3328,7 @@
       <c r="L12" s="12">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="13">
         <v>8.0500000000000005E-4</v>
       </c>
       <c r="N12" s="12">
@@ -2808,10 +3346,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>0</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-1</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -2823,40 +3361,40 @@
         <v>-4</v>
       </c>
       <c r="F13" s="3">
-        <v>1.4300000000000002</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G13" s="3">
-        <v>1.4200000000000002</v>
+        <v>1.1150000000000002</v>
       </c>
       <c r="H13" s="3">
-        <v>1.4300000000000002</v>
+        <v>1.04</v>
       </c>
       <c r="I13" s="4">
-        <v>1.4200000000000002</v>
+        <v>1.04</v>
       </c>
       <c r="J13" s="12">
-        <v>0.27500000000000002</v>
+        <v>0.104</v>
       </c>
       <c r="K13" s="12">
-        <v>2.4799999999999999E-2</v>
+        <v>7.0899999999999999E-4</v>
       </c>
       <c r="L13" s="12">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="M13" s="16">
-        <v>2.4799999999999999E-2</v>
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="M13" s="15">
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="N13" s="12">
-        <v>1.45</v>
+        <v>4.07E-2</v>
       </c>
       <c r="O13" s="12">
-        <v>5.1900000000000002E-2</v>
+        <v>1.4599999999999999E-3</v>
       </c>
       <c r="P13" s="12">
-        <v>0.42699999999999999</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="Q13" s="12">
-        <v>0.42699999999999999</v>
+        <v>3.61E-2</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2864,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -2876,48 +3414,48 @@
         <v>-4</v>
       </c>
       <c r="F14" s="3">
-        <v>1.8200000000000003</v>
+        <v>1.4300000000000002</v>
       </c>
       <c r="G14" s="3">
-        <v>1.82</v>
+        <v>1.4200000000000002</v>
       </c>
       <c r="H14" s="3">
-        <v>1.8200000000000003</v>
+        <v>1.4300000000000002</v>
       </c>
       <c r="I14" s="4">
-        <v>1.82</v>
+        <v>1.4200000000000002</v>
       </c>
       <c r="J14" s="12">
-        <v>0.36299999999999999</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="K14" s="12">
-        <v>8.6999999999999994E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="L14" s="12">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="M14" s="16">
-        <v>8.6999999999999994E-2</v>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="M14" s="15">
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="N14" s="12">
-        <v>2.76</v>
+        <v>1.45</v>
       </c>
       <c r="O14" s="12">
-        <v>0.21199999999999999</v>
+        <v>5.1900000000000002E-2</v>
       </c>
       <c r="P14" s="12">
-        <v>0.81899999999999995</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="Q14" s="12">
-        <v>0.81899999999999995</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="3">
-        <v>-1</v>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -2929,48 +3467,48 @@
         <v>-4</v>
       </c>
       <c r="F15" s="3">
-        <v>1.1200000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="G15" s="3">
-        <v>1.1150000000000002</v>
+        <v>2.75</v>
       </c>
       <c r="H15" s="3">
-        <v>1.04</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I15" s="4">
-        <v>1.04</v>
+        <v>1.1400000000000001</v>
       </c>
       <c r="J15" s="12">
-        <v>0.104</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="K15" s="12">
-        <v>7.0899999999999999E-4</v>
+        <v>3.8600000000000001E-3</v>
       </c>
       <c r="L15" s="12">
-        <v>3.4099999999999998E-2</v>
-      </c>
-      <c r="M15" s="16">
-        <v>7.4200000000000004E-4</v>
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="M15" s="15">
+        <v>2.01E-2</v>
       </c>
       <c r="N15" s="12">
-        <v>4.07E-2</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="O15" s="12">
-        <v>1.4599999999999999E-3</v>
+        <v>2.5700000000000001E-2</v>
       </c>
       <c r="P15" s="12">
-        <v>0.11700000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="Q15" s="12">
-        <v>3.61E-2</v>
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -2982,40 +3520,40 @@
         <v>-4</v>
       </c>
       <c r="F16" s="3">
-        <v>2.75</v>
+        <v>1.8200000000000003</v>
       </c>
       <c r="G16" s="3">
-        <v>2.75</v>
+        <v>1.82</v>
       </c>
       <c r="H16" s="3">
-        <v>1.1299999999999999</v>
+        <v>1.8200000000000003</v>
       </c>
       <c r="I16" s="4">
-        <v>1.1400000000000001</v>
+        <v>1.82</v>
       </c>
       <c r="J16" s="12">
-        <v>0.63200000000000001</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="K16" s="12">
-        <v>3.8600000000000001E-3</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="L16" s="12">
-        <v>9.6299999999999997E-2</v>
-      </c>
-      <c r="M16" s="16">
-        <v>2.01E-2</v>
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="M16" s="15">
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="N16" s="12">
-        <v>0.33700000000000002</v>
+        <v>2.76</v>
       </c>
       <c r="O16" s="12">
-        <v>2.5700000000000001E-2</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="P16" s="12">
-        <v>1.75</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="Q16" s="12">
-        <v>0.13200000000000001</v>
+        <v>0.81899999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -3023,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -3055,7 +3593,7 @@
       <c r="L17" s="12">
         <v>6.8199999999999997E-2</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="15">
         <v>8.5500000000000007E-2</v>
       </c>
       <c r="N17" s="12">
@@ -3088,7 +3626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE700CF7-1966-49C9-98E5-7E542D047062}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection sqref="A1:Q22"/>
     </sheetView>
   </sheetViews>
@@ -3103,7 +3641,7 @@
       <c r="D1" s="19"/>
       <c r="E1" s="20"/>
       <c r="F1" s="21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -3115,43 +3653,43 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3165,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -3197,248 +3735,248 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>2.27</v>
+        <v>1.01</v>
       </c>
       <c r="G4" s="3">
-        <v>2.27</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H4" s="3">
-        <v>3.09</v>
+        <v>2.17</v>
       </c>
       <c r="I4" s="3">
-        <v>3.09</v>
+        <v>2.17</v>
       </c>
       <c r="J4" s="3">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>1.22</v>
+        <v>1.04</v>
       </c>
       <c r="L4" s="3">
-        <v>1.47</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="M4" s="3">
-        <v>1.47</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
+      <c r="B5" s="3">
+        <v>-1</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>2.63</v>
+        <v>2.27</v>
       </c>
       <c r="G5" s="3">
-        <v>2.63</v>
+        <v>2.27</v>
       </c>
       <c r="H5" s="3">
-        <v>4.24</v>
+        <v>3.09</v>
       </c>
       <c r="I5" s="3">
-        <v>4.24</v>
+        <v>3.09</v>
       </c>
       <c r="J5" s="3">
-        <v>1.46</v>
+        <v>1.22</v>
       </c>
       <c r="K5" s="3">
-        <v>1.46</v>
+        <v>1.22</v>
       </c>
       <c r="L5" s="3">
-        <v>1.79</v>
+        <v>1.47</v>
       </c>
       <c r="M5" s="3">
-        <v>1.79</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-1</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>3.24</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G6" s="3">
-        <v>3.24</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H6" s="3">
-        <v>5.28</v>
+        <v>3.09</v>
       </c>
       <c r="I6" s="3">
-        <v>5.28</v>
+        <v>3.05</v>
       </c>
       <c r="J6" s="3">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>1.87</v>
+        <v>1.21</v>
       </c>
       <c r="L6" s="3">
-        <v>1.97</v>
+        <v>1.51</v>
       </c>
       <c r="M6" s="3">
-        <v>1.97</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3">
-        <v>-4</v>
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>1.01</v>
+        <v>2.63</v>
       </c>
       <c r="G7" s="3">
-        <v>2.0499999999999998</v>
+        <v>2.63</v>
       </c>
       <c r="H7" s="3">
-        <v>2.17</v>
+        <v>4.24</v>
       </c>
       <c r="I7" s="3">
-        <v>2.17</v>
+        <v>4.24</v>
       </c>
       <c r="J7" s="3">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="K7" s="3">
-        <v>1.04</v>
+        <v>1.46</v>
       </c>
       <c r="L7" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.79</v>
       </c>
       <c r="M7" s="3">
-        <v>1.08</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" s="3">
-        <v>-1</v>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="G8" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="H8" s="3">
-        <v>3.09</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I8" s="3">
-        <v>3.05</v>
+        <v>3.99</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="L8" s="3">
-        <v>1.51</v>
+        <v>1.89</v>
       </c>
       <c r="M8" s="3">
-        <v>1.47</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>1.35</v>
+        <v>3.24</v>
       </c>
       <c r="G9" s="3">
-        <v>2.68</v>
+        <v>3.24</v>
       </c>
       <c r="H9" s="3">
-        <v>4.0999999999999996</v>
+        <v>5.28</v>
       </c>
       <c r="I9" s="3">
-        <v>3.99</v>
+        <v>5.28</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="K9" s="3">
-        <v>1.34</v>
+        <v>1.87</v>
       </c>
       <c r="L9" s="3">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="M9" s="3">
-        <v>1.78</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -3446,13 +3984,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -3491,19 +4029,19 @@
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="20"/>
       <c r="J13" s="21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
       <c r="M13" s="20"/>
       <c r="N13" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
@@ -3511,49 +4049,49 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="J14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="O14" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="P14" s="1">
         <v>1</v>
@@ -3572,18 +4110,18 @@
       <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>26</v>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
       </c>
       <c r="F15" s="3">
-        <f>F3-J3</f>
+        <f t="shared" ref="F15:I21" si="0">F3-J3</f>
         <v>1.0099999999999998</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" ref="G15:I22" si="0">G3-K3</f>
+        <f t="shared" si="0"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="H15" s="3">
@@ -3603,7 +4141,7 @@
       <c r="L15" s="12">
         <v>3.8600000000000002E-2</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="13">
         <v>3.8600000000000002E-2</v>
       </c>
       <c r="N15" s="12">
@@ -3621,344 +4159,344 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" s="3">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>26</v>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" ref="F16:F22" si="1">F4-J4</f>
-        <v>1.05</v>
+        <f t="shared" si="0"/>
+        <v>1.01</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>1.05</v>
+        <v>1.0099999999999998</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="0"/>
-        <v>1.6199999999999999</v>
+        <v>1.0799999999999998</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="0"/>
-        <v>1.6199999999999999</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="J16" s="12">
-        <v>2.18E-2</v>
+        <v>6.11E-3</v>
       </c>
       <c r="K16" s="12">
-        <v>2.18E-2</v>
+        <v>2.15E-3</v>
       </c>
       <c r="L16" s="12">
-        <v>0.191</v>
-      </c>
-      <c r="M16" s="16">
-        <v>0.191</v>
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="M16" s="15">
+        <v>3.85E-2</v>
       </c>
       <c r="N16" s="12">
-        <v>0.309</v>
+        <v>4.1599999999999998E-2</v>
       </c>
       <c r="O16" s="12">
-        <v>0.309</v>
+        <v>4.3900000000000002E-2</v>
       </c>
       <c r="P16" s="12">
-        <v>4.5600000000000002E-2</v>
+        <v>8.3400000000000002E-3</v>
       </c>
       <c r="Q16" s="12">
-        <v>0.621</v>
+        <v>8.3099999999999993E-2</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>0</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>19</v>
+      <c r="B17" s="3">
+        <v>-1</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>26</v>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="1"/>
-        <v>1.17</v>
+        <f t="shared" si="0"/>
+        <v>1.05</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="0"/>
-        <v>2.4500000000000002</v>
+        <v>1.6199999999999999</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="0"/>
-        <v>2.4500000000000002</v>
+        <v>1.6199999999999999</v>
       </c>
       <c r="J17" s="12">
-        <v>7.4300000000000005E-2</v>
+        <v>2.18E-2</v>
       </c>
       <c r="K17" s="12">
-        <v>7.4300000000000005E-2</v>
+        <v>2.18E-2</v>
       </c>
       <c r="L17" s="12">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="M17" s="16">
-        <v>0.29699999999999999</v>
+        <v>0.191</v>
+      </c>
+      <c r="M17" s="15">
+        <v>0.191</v>
       </c>
       <c r="N17" s="12">
-        <v>0.63800000000000001</v>
+        <v>0.309</v>
       </c>
       <c r="O17" s="12">
-        <v>0.63800000000000001</v>
+        <v>0.309</v>
       </c>
       <c r="P17" s="12">
-        <v>0.17499999999999999</v>
+        <v>4.5600000000000002E-2</v>
       </c>
       <c r="Q17" s="12">
-        <v>1.46</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>0</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>-1</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>26</v>
+      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="1"/>
-        <v>1.37</v>
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
-        <v>1.37</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="0"/>
-        <v>3.3100000000000005</v>
+        <v>1.5799999999999998</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="0"/>
-        <v>3.3100000000000005</v>
+        <v>1.5799999999999998</v>
       </c>
       <c r="J18" s="12">
-        <v>0.13400000000000001</v>
+        <v>6.6900000000000001E-2</v>
       </c>
       <c r="K18" s="12">
-        <v>0.13400000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="L18" s="12">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="M18" s="16">
-        <v>0.34899999999999998</v>
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0.189</v>
       </c>
       <c r="N18" s="12">
-        <v>0.93700000000000006</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="O18" s="12">
-        <v>0.93700000000000006</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="P18" s="12">
-        <v>0.36599999999999999</v>
+        <v>9.5100000000000004E-2</v>
       </c>
       <c r="Q18" s="12">
-        <v>2.31</v>
+        <v>0.58699999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3">
-        <v>-4</v>
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>26</v>
+      <c r="D19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="1"/>
-        <v>1.01</v>
+        <f t="shared" si="0"/>
+        <v>1.17</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>1.0099999999999998</v>
+        <v>1.17</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="0"/>
-        <v>1.0799999999999998</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="0"/>
-        <v>1.0899999999999999</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J19" s="12">
-        <v>6.11E-3</v>
+        <v>7.4300000000000005E-2</v>
       </c>
       <c r="K19" s="12">
-        <v>2.15E-3</v>
+        <v>7.4300000000000005E-2</v>
       </c>
       <c r="L19" s="12">
-        <v>3.8199999999999998E-2</v>
-      </c>
-      <c r="M19" s="16">
-        <v>3.85E-2</v>
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0.29699999999999999</v>
       </c>
       <c r="N19" s="12">
-        <v>4.1599999999999998E-2</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="O19" s="12">
-        <v>4.3900000000000002E-2</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="P19" s="12">
-        <v>8.3400000000000002E-3</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="Q19" s="12">
-        <v>8.3099999999999993E-2</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1</v>
       </c>
-      <c r="B20" s="3">
-        <v>-1</v>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>26</v>
+      <c r="D20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
+        <f t="shared" si="0"/>
+        <v>1.35</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="0"/>
-        <v>1.0899999999999999</v>
+        <v>1.34</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="0"/>
-        <v>1.5799999999999998</v>
+        <v>2.21</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="0"/>
-        <v>1.5799999999999998</v>
+        <v>2.21</v>
       </c>
       <c r="J20" s="12">
-        <v>6.6900000000000001E-2</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="K20" s="12">
-        <v>0.02</v>
+        <v>5.3499999999999999E-2</v>
       </c>
       <c r="L20" s="12">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="M20" s="16">
-        <v>0.189</v>
+        <v>0.26</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0.28799999999999998</v>
       </c>
       <c r="N20" s="12">
-        <v>0.27300000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="O20" s="12">
-        <v>0.30099999999999999</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="P20" s="12">
-        <v>9.5100000000000004E-2</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="Q20" s="12">
-        <v>0.58699999999999997</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>26</v>
+      <c r="D21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="1"/>
-        <v>1.35</v>
+        <f t="shared" si="0"/>
+        <v>1.37</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="0"/>
-        <v>2.21</v>
+        <v>3.3100000000000005</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="0"/>
-        <v>2.21</v>
+        <v>3.3100000000000005</v>
       </c>
       <c r="J21" s="12">
-        <v>0.20300000000000001</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="K21" s="12">
-        <v>5.3499999999999999E-2</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="L21" s="12">
-        <v>0.26</v>
-      </c>
-      <c r="M21" s="16">
-        <v>0.28799999999999998</v>
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="M21" s="15">
+        <v>0.34899999999999998</v>
       </c>
       <c r="N21" s="12">
-        <v>0.49</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="O21" s="12">
-        <v>0.58499999999999996</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="P21" s="12">
-        <v>0.34599999999999997</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="Q21" s="12">
-        <v>1.21</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -3966,31 +4504,31 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>26</v>
+      <c r="D22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F22" si="1">F10-J10</f>
         <v>1.61</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G22:I22" si="2">G10-K10</f>
         <v>1.6099999999999999</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.54</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="J22" s="12">
@@ -4002,7 +4540,7 @@
       <c r="L22" s="12">
         <v>0.27500000000000002</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22" s="15">
         <v>0.33100000000000002</v>
       </c>
       <c r="N22" s="12">
@@ -4035,8 +4573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2896FF6-F821-4563-A05A-828FC5A9B491}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4050,7 +4588,7 @@
       <c r="D1" s="19"/>
       <c r="E1" s="20"/>
       <c r="F1" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -4062,43 +4600,43 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4117,16 +4655,16 @@
       <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="8">
         <v>2.17</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="8">
         <v>2.17</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="8">
         <v>2.04</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="8">
         <v>2.0499999999999998</v>
       </c>
       <c r="J3" s="3">
@@ -4144,10 +4682,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-1</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -4158,29 +4696,29 @@
       <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="3">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3">
-        <v>4</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="I4" s="3">
-        <v>2.34</v>
+      <c r="F4" s="8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H4" s="8">
+        <v>2.16</v>
+      </c>
+      <c r="I4" s="8">
+        <v>2.0299999999999998</v>
       </c>
       <c r="J4" s="3">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>1.7</v>
+        <v>1.07</v>
       </c>
       <c r="L4" s="3">
-        <v>1.29</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="M4" s="3">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -4188,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -4199,37 +4737,37 @@
       <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="3">
-        <v>5.53</v>
-      </c>
-      <c r="G5" s="3">
-        <v>5.53</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2.89</v>
-      </c>
-      <c r="I5" s="3">
-        <v>2.89</v>
+      <c r="F5" s="8">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2.35</v>
+      </c>
+      <c r="I5" s="8">
+        <v>2.34</v>
       </c>
       <c r="J5" s="3">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="K5" s="3">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="L5" s="3">
-        <v>1.66</v>
+        <v>1.29</v>
       </c>
       <c r="M5" s="3">
-        <v>1.66</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
-        <v>-1</v>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -4240,37 +4778,37 @@
       <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="3">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="H6" s="3">
-        <v>2.16</v>
-      </c>
-      <c r="I6" s="3">
-        <v>2.0299999999999998</v>
+      <c r="F6" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="H6" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I6" s="8">
+        <v>2.1800000000000002</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="L6" s="3">
-        <v>1.1599999999999999</v>
+        <v>3.07</v>
       </c>
       <c r="M6" s="3">
-        <v>1.03</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -4281,29 +4819,29 @@
       <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="H7" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I7" s="3">
-        <v>2.1800000000000002</v>
+      <c r="F7" s="8">
+        <v>5.53</v>
+      </c>
+      <c r="G7" s="8">
+        <v>5.53</v>
+      </c>
+      <c r="H7" s="8">
+        <v>2.89</v>
+      </c>
+      <c r="I7" s="8">
+        <v>2.89</v>
       </c>
       <c r="J7" s="3">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="K7" s="3">
-        <v>1.25</v>
+        <v>1.93</v>
       </c>
       <c r="L7" s="3">
-        <v>3.07</v>
+        <v>1.66</v>
       </c>
       <c r="M7" s="3">
-        <v>1.1499999999999999</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -4311,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -4322,16 +4860,16 @@
       <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="8">
         <v>5.0599999999999996</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="8">
         <v>6.36</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="8">
         <v>5.9</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="8">
         <v>2.96</v>
       </c>
       <c r="J8" s="3">
@@ -4356,19 +4894,19 @@
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
       <c r="F10" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="20"/>
       <c r="J10" s="21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="20"/>
       <c r="N10" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
@@ -4376,49 +4914,49 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="O11" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="P11" s="1">
         <v>1</v>
@@ -4443,16 +4981,16 @@
       <c r="E12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="8">
         <v>1.0899999999999999</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="8">
         <v>1.0899999999999999</v>
       </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10">
         <v>1.0099999999999998</v>
       </c>
       <c r="J12" s="12">
@@ -4464,7 +5002,7 @@
       <c r="L12" s="12">
         <v>8.03E-4</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="13">
         <v>8.0199999999999998E-4</v>
       </c>
       <c r="N12" s="12">
@@ -4482,10 +5020,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>0</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-1</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -4496,41 +5034,41 @@
       <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G13" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1.06</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1.0499999999999998</v>
+      <c r="F13" s="8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.99999999999999978</v>
       </c>
       <c r="J13" s="12">
-        <v>0.28199999999999997</v>
+        <v>0.1</v>
       </c>
       <c r="K13" s="12">
-        <v>0.28199999999999997</v>
+        <v>3.44E-2</v>
       </c>
       <c r="L13" s="12">
-        <v>2.69E-2</v>
-      </c>
-      <c r="M13" s="16">
-        <v>2.69E-2</v>
+        <v>6.7400000000000001E-4</v>
+      </c>
+      <c r="M13" s="15">
+        <v>7.6199999999999998E-4</v>
       </c>
       <c r="N13" s="12">
-        <v>5.1499999999999997E-2</v>
+        <v>7.7799999999999994E-5</v>
       </c>
       <c r="O13" s="12">
-        <v>5.1499999999999997E-2</v>
+        <v>3.78E-2</v>
       </c>
       <c r="P13" s="12">
-        <v>1.29</v>
+        <v>0.155</v>
       </c>
       <c r="Q13" s="12">
-        <v>5.6800000000000003E-2</v>
+        <v>1.4400000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -4538,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -4549,49 +5087,49 @@
       <c r="E14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>3.6000000000000005</v>
-      </c>
-      <c r="G14" s="3">
-        <v>3.6000000000000005</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1.2300000000000002</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1.2300000000000002</v>
+      <c r="F14" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G14" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1.06</v>
+      </c>
+      <c r="I14" s="11">
+        <v>1.0499999999999998</v>
       </c>
       <c r="J14" s="12">
-        <v>0.36099999999999999</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="K14" s="12">
-        <v>0.36099999999999999</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="L14" s="12">
-        <v>9.3100000000000002E-2</v>
-      </c>
-      <c r="M14" s="16">
-        <v>9.3100000000000002E-2</v>
+        <v>2.69E-2</v>
+      </c>
+      <c r="M14" s="15">
+        <v>2.69E-2</v>
       </c>
       <c r="N14" s="12">
-        <v>8.3000000000000004E-2</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="O14" s="12">
-        <v>5.2999999999999999E-2</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="P14" s="12">
-        <v>2.6</v>
+        <v>1.29</v>
       </c>
       <c r="Q14" s="12">
-        <v>0.22900000000000001</v>
+        <v>5.6800000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="3">
-        <v>-1</v>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -4602,49 +5140,49 @@
       <c r="E15" s="4">
         <v>0</v>
       </c>
-      <c r="F15" s="3">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1.1500000000000001</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0.99999999999999978</v>
+      <c r="F15" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>3.1100000000000003</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1.0299999999999998</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1.0300000000000002</v>
       </c>
       <c r="J15" s="12">
-        <v>0.1</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="K15" s="12">
-        <v>3.44E-2</v>
+        <v>0.15</v>
       </c>
       <c r="L15" s="12">
-        <v>6.7400000000000001E-4</v>
-      </c>
-      <c r="M15" s="16">
-        <v>7.6199999999999998E-4</v>
+        <v>3.5799999999999998E-3</v>
+      </c>
+      <c r="M15" s="15">
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="N15" s="12">
-        <v>7.7799999999999994E-5</v>
+        <v>1.11E-2</v>
       </c>
       <c r="O15" s="12">
-        <v>3.78E-2</v>
+        <v>0.217</v>
       </c>
       <c r="P15" s="12">
-        <v>0.155</v>
+        <v>2.1</v>
       </c>
       <c r="Q15" s="12">
-        <v>1.4400000000000001E-3</v>
+        <v>2.87E-2</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -4655,41 +5193,41 @@
       <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>3.1100000000000003</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1.0299999999999998</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1.0300000000000002</v>
+      <c r="F16" s="8">
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="G16" s="8">
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1.2300000000000002</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1.2300000000000002</v>
       </c>
       <c r="J16" s="12">
-        <v>0.52700000000000002</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="K16" s="12">
-        <v>0.15</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="L16" s="12">
-        <v>3.5799999999999998E-3</v>
-      </c>
-      <c r="M16" s="16">
-        <v>2.4299999999999999E-2</v>
+        <v>9.3100000000000002E-2</v>
+      </c>
+      <c r="M16" s="15">
+        <v>9.3100000000000002E-2</v>
       </c>
       <c r="N16" s="12">
-        <v>1.11E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="O16" s="12">
-        <v>0.217</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="P16" s="12">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q16" s="12">
-        <v>2.87E-2</v>
+        <v>0.22900000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -4697,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -4708,16 +5246,16 @@
       <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="8">
         <v>5.0599999999999996</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="8">
         <v>5.0600000000000005</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="8">
         <v>1.1100000000000003</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="11">
         <v>1.1099999999999999</v>
       </c>
       <c r="J17" s="12">
@@ -4729,7 +5267,7 @@
       <c r="L17" s="12">
         <v>4.9500000000000004E-3</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="15">
         <v>9.3799999999999994E-2</v>
       </c>
       <c r="N17" s="12">
@@ -4762,8 +5300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569A9F37-8820-4E6E-A7C1-833BCA1B8821}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4777,7 +5315,7 @@
       <c r="D1" s="19"/>
       <c r="E1" s="20"/>
       <c r="F1" s="21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -4789,43 +5327,43 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4839,10 +5377,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3">
         <v>2.0099999999999998</v>
@@ -4871,248 +5409,248 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3">
-        <v>2.2400000000000002</v>
+        <v>1.01</v>
       </c>
       <c r="G4" s="3">
-        <v>3.16</v>
+        <v>2.11</v>
       </c>
       <c r="H4" s="3">
-        <v>3.24</v>
+        <v>2.12</v>
       </c>
       <c r="I4" s="3">
-        <v>4.8600000000000003</v>
+        <v>2.31</v>
       </c>
       <c r="J4" s="3">
-        <v>1.0900000000000001</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>2.0099999999999998</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L4" s="3">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="M4" s="3">
-        <v>2.81</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
+      <c r="B5" s="3">
+        <v>-1</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3">
-        <v>2.5</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="G5" s="3">
-        <v>4.03</v>
+        <v>3.16</v>
       </c>
       <c r="H5" s="3">
-        <v>4.12</v>
+        <v>3.24</v>
       </c>
       <c r="I5" s="3">
-        <v>6.08</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="J5" s="3">
-        <v>1.21</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K5" s="3">
-        <v>2.74</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="L5" s="3">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="M5" s="3">
-        <v>3.28</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-1</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" s="3">
-        <v>2.76</v>
+        <v>1.18</v>
       </c>
       <c r="G6" s="3">
-        <v>4.78</v>
+        <v>3.15</v>
       </c>
       <c r="H6" s="3">
-        <v>4.8</v>
+        <v>3.28</v>
       </c>
       <c r="I6" s="3">
-        <v>6.87</v>
+        <v>4.83</v>
       </c>
       <c r="J6" s="3">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>3.39</v>
+        <v>1.97</v>
       </c>
       <c r="L6" s="3">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="M6" s="3">
-        <v>3.47</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3">
-        <v>-6</v>
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="G7" s="3">
-        <v>2.11</v>
+        <v>4.03</v>
       </c>
       <c r="H7" s="3">
-        <v>2.12</v>
+        <v>4.12</v>
       </c>
       <c r="I7" s="3">
-        <v>2.31</v>
+        <v>6.08</v>
       </c>
       <c r="J7" s="3">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="K7" s="3">
-        <v>1.1000000000000001</v>
+        <v>2.74</v>
       </c>
       <c r="L7" s="3">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M7" s="3">
-        <v>1.21</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" s="3">
-        <v>-1</v>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="G8" s="3">
-        <v>3.15</v>
+        <v>3.87</v>
       </c>
       <c r="H8" s="3">
-        <v>3.28</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="I8" s="3">
-        <v>4.83</v>
+        <v>5.89</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>1.97</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="L8" s="3">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="M8" s="3">
-        <v>2.82</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" s="3">
+        <v>2.76</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4.78</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6.87</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="K9" s="3">
+        <v>3.39</v>
+      </c>
+      <c r="L9" s="3">
         <v>1.39</v>
       </c>
-      <c r="G9" s="3">
-        <v>3.87</v>
-      </c>
-      <c r="H9" s="3">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="I9" s="3">
-        <v>5.89</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1.47</v>
-      </c>
       <c r="M9" s="3">
-        <v>3.3</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -5120,16 +5658,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" s="3">
         <v>1.53</v>
@@ -5165,19 +5703,19 @@
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="20"/>
       <c r="J13" s="21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
       <c r="M13" s="20"/>
       <c r="N13" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
@@ -5185,49 +5723,49 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="J14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="O14" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="P14" s="1">
         <v>1</v>
@@ -5247,17 +5785,17 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15" s="3">
-        <f>F3-J3</f>
+        <f t="shared" ref="F15:I21" si="0">F3-J3</f>
         <v>1.0099999999999998</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" ref="G15:I22" si="0">G3-K3</f>
+        <f t="shared" si="0"/>
         <v>1.0099999999999998</v>
       </c>
       <c r="H15" s="3">
@@ -5277,7 +5815,7 @@
       <c r="L15" s="12">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="13">
         <v>8.8400000000000006E-2</v>
       </c>
       <c r="N15" s="12">
@@ -5295,344 +5833,344 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" s="3">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" ref="F16:F22" si="1">F4-J4</f>
-        <v>1.1500000000000001</v>
+        <f t="shared" si="0"/>
+        <v>1.01</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>1.1500000000000004</v>
+        <v>1.0099999999999998</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="0"/>
-        <v>2.0500000000000003</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="0"/>
-        <v>2.0500000000000003</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J16" s="12">
-        <v>1.41E-2</v>
+        <v>8.1599999999999999E-4</v>
       </c>
       <c r="K16" s="12">
+        <v>5.4099999999999999E-3</v>
+      </c>
+      <c r="L16" s="12">
+        <v>5.3699999999999998E-3</v>
+      </c>
+      <c r="M16" s="15">
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="N16" s="12">
+        <v>5.45E-3</v>
+      </c>
+      <c r="O16" s="12">
         <v>0.113</v>
       </c>
-      <c r="L16" s="12">
-        <v>0.104</v>
-      </c>
-      <c r="M16" s="16">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="N16" s="12">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="O16" s="12">
-        <v>1.38</v>
-      </c>
       <c r="P16" s="12">
-        <v>0.14499999999999999</v>
+        <v>6.2599999999999999E-3</v>
       </c>
       <c r="Q16" s="12">
-        <v>1.05</v>
+        <v>0.10299999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>0</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>19</v>
+      <c r="B17" s="3">
+        <v>-1</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="1"/>
-        <v>1.29</v>
+        <f t="shared" si="0"/>
+        <v>1.1500000000000001</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>1.29</v>
+        <v>1.1500000000000004</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="0"/>
-        <v>2.8</v>
+        <v>2.0500000000000003</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="0"/>
-        <v>2.8000000000000003</v>
+        <v>2.0500000000000003</v>
       </c>
       <c r="J17" s="12">
-        <v>4.2599999999999999E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="K17" s="12">
-        <v>0.184</v>
+        <v>0.113</v>
       </c>
       <c r="L17" s="12">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="M17" s="16">
-        <v>0.47499999999999998</v>
+        <v>0.104</v>
+      </c>
+      <c r="M17" s="15">
+        <v>0.40899999999999997</v>
       </c>
       <c r="N17" s="12">
-        <v>0.27300000000000002</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="O17" s="12">
-        <v>2.06</v>
+        <v>1.38</v>
       </c>
       <c r="P17" s="12">
-        <v>0.29399999999999998</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="Q17" s="12">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>0</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>-1</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="1"/>
-        <v>1.3899999999999997</v>
+        <f t="shared" si="0"/>
+        <v>1.18</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
-        <v>1.3900000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="0"/>
-        <v>3.41</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="0"/>
-        <v>3.4</v>
+        <v>2.0100000000000002</v>
       </c>
       <c r="J18" s="12">
-        <v>7.7200000000000005E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="K18" s="12">
-        <v>0.20399999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="L18" s="12">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="M18" s="16">
-        <v>0.505</v>
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0.40799999999999997</v>
       </c>
       <c r="N18" s="12">
-        <v>0.38600000000000001</v>
+        <v>0.122</v>
       </c>
       <c r="O18" s="12">
-        <v>2.44</v>
+        <v>1.36</v>
       </c>
       <c r="P18" s="12">
-        <v>0.39200000000000002</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="Q18" s="12">
-        <v>2.41</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3">
-        <v>-6</v>
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="1"/>
-        <v>1.01</v>
+        <f t="shared" si="0"/>
+        <v>1.29</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>1.0099999999999998</v>
+        <v>1.29</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="0"/>
-        <v>1.1100000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="J19" s="12">
-        <v>8.1599999999999999E-4</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="K19" s="12">
-        <v>5.4099999999999999E-3</v>
+        <v>0.184</v>
       </c>
       <c r="L19" s="12">
-        <v>5.3699999999999998E-3</v>
-      </c>
-      <c r="M19" s="16">
-        <v>8.8300000000000003E-2</v>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0.47499999999999998</v>
       </c>
       <c r="N19" s="12">
-        <v>5.45E-3</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="O19" s="12">
-        <v>0.113</v>
+        <v>2.06</v>
       </c>
       <c r="P19" s="12">
-        <v>6.2599999999999999E-3</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="Q19" s="12">
-        <v>0.10299999999999999</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1</v>
       </c>
-      <c r="B20" s="3">
-        <v>-1</v>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="1"/>
-        <v>1.18</v>
+        <f t="shared" si="0"/>
+        <v>1.39</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="0"/>
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="0"/>
-        <v>2.0099999999999998</v>
+        <v>2.59</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="0"/>
-        <v>2.0100000000000002</v>
+        <v>2.59</v>
       </c>
       <c r="J20" s="12">
-        <v>3.9399999999999998E-2</v>
+        <v>0.105</v>
       </c>
       <c r="K20" s="12">
-        <v>0.11</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="L20" s="12">
-        <v>9.5899999999999999E-2</v>
-      </c>
-      <c r="M20" s="16">
-        <v>0.40799999999999997</v>
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0.46700000000000003</v>
       </c>
       <c r="N20" s="12">
-        <v>0.122</v>
+        <v>0.215</v>
       </c>
       <c r="O20" s="12">
-        <v>1.36</v>
+        <v>1.98</v>
       </c>
       <c r="P20" s="12">
-        <v>0.17499999999999999</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="Q20" s="12">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="1"/>
-        <v>1.39</v>
+        <f t="shared" si="0"/>
+        <v>1.3899999999999997</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
-        <v>1.4</v>
+        <v>1.3900000000000001</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="0"/>
-        <v>2.59</v>
+        <v>3.41</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="0"/>
-        <v>2.59</v>
+        <v>3.4</v>
       </c>
       <c r="J21" s="12">
-        <v>0.105</v>
+        <v>7.7200000000000005E-2</v>
       </c>
       <c r="K21" s="12">
-        <v>0.17699999999999999</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="L21" s="12">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="M21" s="16">
-        <v>0.46700000000000003</v>
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="M21" s="15">
+        <v>0.505</v>
       </c>
       <c r="N21" s="12">
-        <v>0.215</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="O21" s="12">
-        <v>1.98</v>
+        <v>2.44</v>
       </c>
       <c r="P21" s="12">
-        <v>0.39100000000000001</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="Q21" s="12">
-        <v>1.59</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -5640,31 +6178,31 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F22" si="1">F10-J10</f>
         <v>1.53</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G22:I22" si="2">G10-K10</f>
         <v>1.5299999999999998</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8400000000000003</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.84</v>
       </c>
       <c r="J22" s="12">
@@ -5676,7 +6214,7 @@
       <c r="L22" s="12">
         <v>0.16300000000000001</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22" s="15">
         <v>0.48499999999999999</v>
       </c>
       <c r="N22" s="12">
@@ -5709,8 +6247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C616BDE-B409-43D5-9EE7-28FA6BC47DE1}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N20" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5724,7 +6262,7 @@
       <c r="D1" s="19"/>
       <c r="E1" s="20"/>
       <c r="F1" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -5736,43 +6274,43 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5818,10 +6356,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-1</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -5833,28 +6371,28 @@
         <v>-3</v>
       </c>
       <c r="F4" s="3">
-        <v>2.97</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="G4" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="H4" s="3">
-        <v>4.51</v>
+        <v>3.09</v>
       </c>
       <c r="I4" s="3">
-        <v>3.03</v>
+        <v>2.36</v>
       </c>
       <c r="J4" s="3">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>1.0900000000000001</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="L4" s="3">
-        <v>2.63</v>
+        <v>1.76</v>
       </c>
       <c r="M4" s="3">
-        <v>1.1499999999999999</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -5862,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -5874,36 +6412,36 @@
         <v>-3</v>
       </c>
       <c r="F5" s="3">
-        <v>4.1100000000000003</v>
+        <v>2.97</v>
       </c>
       <c r="G5" s="3">
-        <v>2.5299999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H5" s="3">
-        <v>6.17</v>
+        <v>4.51</v>
       </c>
       <c r="I5" s="3">
-        <v>4.2</v>
+        <v>3.03</v>
       </c>
       <c r="J5" s="3">
-        <v>2.81</v>
+        <v>1.86</v>
       </c>
       <c r="K5" s="3">
-        <v>1.22</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="L5" s="3">
-        <v>3.3</v>
+        <v>2.63</v>
       </c>
       <c r="M5" s="3">
-        <v>1.33</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
-        <v>-1</v>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -5915,36 +6453,36 @@
         <v>-3</v>
       </c>
       <c r="F6" s="3">
+        <v>1.43</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4.34</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G6" s="3">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="H6" s="3">
-        <v>3.09</v>
-      </c>
-      <c r="I6" s="3">
-        <v>2.36</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.97699999999999998</v>
-      </c>
       <c r="L6" s="3">
-        <v>1.76</v>
+        <v>2.69</v>
       </c>
       <c r="M6" s="3">
-        <v>1.04</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -5956,28 +6494,28 @@
         <v>-3</v>
       </c>
       <c r="F7" s="3">
-        <v>1.43</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="G7" s="3">
-        <v>2.52</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="H7" s="3">
-        <v>4.34</v>
+        <v>6.17</v>
       </c>
       <c r="I7" s="3">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="J7" s="3">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="K7" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="L7" s="3">
-        <v>2.69</v>
+        <v>3.3</v>
       </c>
       <c r="M7" s="3">
-        <v>1.1499999999999999</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -5985,7 +6523,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -6030,19 +6568,19 @@
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
       <c r="F10" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="20"/>
       <c r="J10" s="21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="20"/>
       <c r="N10" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
@@ -6050,49 +6588,49 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="O11" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="P11" s="1">
         <v>1</v>
@@ -6138,7 +6676,7 @@
       <c r="L12" s="12">
         <v>0.23699999999999999</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="13">
         <v>2.4E-2</v>
       </c>
       <c r="N12" s="12">
@@ -6156,10 +6694,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>0</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-1</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -6171,40 +6709,40 @@
         <v>-3</v>
       </c>
       <c r="F13" s="3">
-        <v>1.1100000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="G13" s="3">
-        <v>1.1100000000000001</v>
+        <v>1.093</v>
       </c>
       <c r="H13" s="3">
-        <v>1.88</v>
+        <v>1.3299999999999998</v>
       </c>
       <c r="I13" s="4">
-        <v>1.88</v>
+        <v>1.3199999999999998</v>
       </c>
       <c r="J13" s="12">
-        <v>8.9300000000000004E-2</v>
+        <v>8.2600000000000007E-2</v>
       </c>
       <c r="K13" s="12">
-        <v>9.5300000000000003E-3</v>
+        <v>1.5499999999999999E-3</v>
       </c>
       <c r="L13" s="12">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="M13" s="16">
-        <v>8.3799999999999999E-2</v>
+        <v>0.224</v>
+      </c>
+      <c r="M13" s="15">
+        <v>2.3099999999999999E-2</v>
       </c>
       <c r="N13" s="12">
-        <v>1.18</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="O13" s="12">
-        <v>0.107</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="P13" s="12">
-        <v>0.11</v>
+        <v>9.1800000000000007E-2</v>
       </c>
       <c r="Q13" s="12">
-        <v>0.878</v>
+        <v>0.32800000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -6212,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -6224,48 +6762,48 @@
         <v>-3</v>
       </c>
       <c r="F14" s="3">
-        <v>1.3000000000000003</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G14" s="3">
-        <v>1.3099999999999998</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H14" s="3">
-        <v>2.87</v>
+        <v>1.88</v>
       </c>
       <c r="I14" s="4">
-        <v>2.87</v>
+        <v>1.88</v>
       </c>
       <c r="J14" s="12">
-        <v>0.188</v>
+        <v>8.9300000000000004E-2</v>
       </c>
       <c r="K14" s="12">
-        <v>4.5600000000000002E-2</v>
+        <v>9.5300000000000003E-3</v>
       </c>
       <c r="L14" s="12">
-        <v>0.48</v>
-      </c>
-      <c r="M14" s="16">
-        <v>0.17199999999999999</v>
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="M14" s="15">
+        <v>8.3799999999999999E-2</v>
       </c>
       <c r="N14" s="12">
-        <v>2.11</v>
+        <v>1.18</v>
       </c>
       <c r="O14" s="12">
-        <v>0.28499999999999998</v>
+        <v>0.107</v>
       </c>
       <c r="P14" s="12">
-        <v>0.30499999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="Q14" s="12">
-        <v>1.87</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="3">
-        <v>-1</v>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -6277,48 +6815,48 @@
         <v>-3</v>
       </c>
       <c r="F15" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.43</v>
       </c>
       <c r="G15" s="3">
-        <v>1.093</v>
+        <v>1.43</v>
       </c>
       <c r="H15" s="3">
-        <v>1.3299999999999998</v>
+        <v>1.65</v>
       </c>
       <c r="I15" s="4">
-        <v>1.3199999999999998</v>
+        <v>1.65</v>
       </c>
       <c r="J15" s="12">
-        <v>8.2600000000000007E-2</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="K15" s="12">
-        <v>1.5499999999999999E-3</v>
+        <v>4.9300000000000004E-3</v>
       </c>
       <c r="L15" s="12">
-        <v>0.224</v>
-      </c>
-      <c r="M15" s="16">
-        <v>2.3099999999999999E-2</v>
+        <v>0.32</v>
+      </c>
+      <c r="M15" s="15">
+        <v>7.46E-2</v>
       </c>
       <c r="N15" s="12">
-        <v>0.39500000000000002</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="O15" s="12">
-        <v>2.5499999999999998E-2</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="P15" s="12">
-        <v>9.1800000000000007E-2</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="Q15" s="12">
-        <v>0.32800000000000001</v>
+        <v>0.65200000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -6330,40 +6868,40 @@
         <v>-3</v>
       </c>
       <c r="F16" s="3">
-        <v>1.43</v>
+        <v>1.3000000000000003</v>
       </c>
       <c r="G16" s="3">
-        <v>1.43</v>
+        <v>1.3099999999999998</v>
       </c>
       <c r="H16" s="3">
-        <v>1.65</v>
+        <v>2.87</v>
       </c>
       <c r="I16" s="4">
-        <v>1.65</v>
+        <v>2.87</v>
       </c>
       <c r="J16" s="12">
-        <v>0.29399999999999998</v>
+        <v>0.188</v>
       </c>
       <c r="K16" s="12">
-        <v>4.9300000000000004E-3</v>
+        <v>4.5600000000000002E-2</v>
       </c>
       <c r="L16" s="12">
-        <v>0.32</v>
-      </c>
-      <c r="M16" s="16">
-        <v>7.46E-2</v>
+        <v>0.48</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0.17199999999999999</v>
       </c>
       <c r="N16" s="12">
-        <v>0.86099999999999999</v>
+        <v>2.11</v>
       </c>
       <c r="O16" s="12">
-        <v>9.0899999999999995E-2</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="P16" s="12">
-        <v>0.42699999999999999</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="Q16" s="12">
-        <v>0.65200000000000002</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -6371,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -6403,7 +6941,7 @@
       <c r="L17" s="12">
         <v>0.311</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="15">
         <v>0.14899999999999999</v>
       </c>
       <c r="N17" s="12">
@@ -6437,7 +6975,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="A1:Q17"/>
+      <selection activeCell="C27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6451,7 +6989,7 @@
       <c r="D1" s="19"/>
       <c r="E1" s="20"/>
       <c r="F1" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -6463,43 +7001,43 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -6545,10 +7083,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-1</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -6560,28 +7098,28 @@
         <v>3</v>
       </c>
       <c r="F4" s="3">
-        <v>3.03</v>
+        <v>1.41</v>
       </c>
       <c r="G4" s="3">
-        <v>4.51</v>
+        <v>3.09</v>
       </c>
       <c r="H4" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="I4" s="3">
-        <v>2.97</v>
+        <v>2.35</v>
       </c>
       <c r="J4" s="3">
-        <v>1.1499999999999999</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>2.63</v>
+        <v>1.68</v>
       </c>
       <c r="L4" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.41</v>
       </c>
       <c r="M4" s="3">
-        <v>1.86</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -6589,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -6601,36 +7139,36 @@
         <v>3</v>
       </c>
       <c r="F5" s="3">
-        <v>4.2</v>
+        <v>3.03</v>
       </c>
       <c r="G5" s="3">
-        <v>6.18</v>
+        <v>4.51</v>
       </c>
       <c r="H5" s="3">
-        <v>2.5299999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I5" s="3">
-        <v>4.1100000000000003</v>
+        <v>2.97</v>
       </c>
       <c r="J5" s="3">
-        <v>1.33</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K5" s="3">
-        <v>3.31</v>
+        <v>2.63</v>
       </c>
       <c r="L5" s="3">
-        <v>1.22</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="M5" s="3">
-        <v>2.81</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
-        <v>-1</v>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -6642,36 +7180,36 @@
         <v>3</v>
       </c>
       <c r="F6" s="3">
-        <v>1.41</v>
+        <v>2.15</v>
       </c>
       <c r="G6" s="3">
-        <v>3.09</v>
+        <v>4.42</v>
       </c>
       <c r="H6" s="3">
-        <v>2.4300000000000002</v>
+        <v>3.15</v>
       </c>
       <c r="I6" s="3">
-        <v>2.35</v>
+        <v>2.82</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>1.68</v>
+        <v>2.27</v>
       </c>
       <c r="L6" s="3">
-        <v>1.41</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="M6" s="3">
-        <v>1.32</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -6683,28 +7221,28 @@
         <v>3</v>
       </c>
       <c r="F7" s="3">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="G7" s="3">
-        <v>4.42</v>
+        <v>6.18</v>
       </c>
       <c r="H7" s="3">
-        <v>3.15</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="I7" s="3">
-        <v>2.82</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="J7" s="3">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="K7" s="3">
-        <v>2.27</v>
+        <v>3.31</v>
       </c>
       <c r="L7" s="3">
-        <v>2.0499999999999998</v>
+        <v>1.22</v>
       </c>
       <c r="M7" s="3">
-        <v>1.72</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -6712,7 +7250,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -6757,19 +7295,19 @@
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
       <c r="F10" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="20"/>
       <c r="J10" s="21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="20"/>
       <c r="N10" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
@@ -6777,49 +7315,49 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="O11" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="P11" s="1">
         <v>1</v>
@@ -6865,7 +7403,7 @@
       <c r="L12" s="12">
         <v>1.6800000000000001E-3</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="13">
         <v>2.41E-2</v>
       </c>
       <c r="N12" s="12">
@@ -6883,10 +7421,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>0</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-1</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -6898,40 +7436,40 @@
         <v>3</v>
       </c>
       <c r="F13" s="3">
-        <v>1.88</v>
+        <v>1.41</v>
       </c>
       <c r="G13" s="3">
-        <v>1.88</v>
+        <v>1.41</v>
       </c>
       <c r="H13" s="3">
-        <v>1.1100000000000001</v>
+        <v>1.0200000000000002</v>
       </c>
       <c r="I13" s="4">
-        <v>1.1100000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="J13" s="12">
-        <v>9.3899999999999997E-2</v>
+        <v>6.1400000000000003E-2</v>
       </c>
       <c r="K13" s="12">
-        <v>0.38400000000000001</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="L13" s="12">
-        <v>9.5200000000000007E-3</v>
-      </c>
-      <c r="M13" s="16">
-        <v>8.9300000000000004E-2</v>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="M13" s="15">
+        <v>2.41E-2</v>
       </c>
       <c r="N13" s="12">
-        <v>0.107</v>
+        <v>1.5499999999999999E-3</v>
       </c>
       <c r="O13" s="12">
-        <v>1.18</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="P13" s="12">
-        <v>0.879</v>
+        <v>0.41</v>
       </c>
       <c r="Q13" s="12">
-        <v>0.11</v>
+        <v>2.58E-2</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -6939,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -6951,48 +7489,48 @@
         <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>2.87</v>
+        <v>1.88</v>
       </c>
       <c r="G14" s="3">
-        <v>2.8699999999999997</v>
+        <v>1.88</v>
       </c>
       <c r="H14" s="3">
-        <v>1.3099999999999998</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I14" s="4">
-        <v>1.3000000000000003</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J14" s="12">
-        <v>0.17199999999999999</v>
+        <v>9.3899999999999997E-2</v>
       </c>
       <c r="K14" s="12">
-        <v>0.47899999999999998</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="L14" s="12">
-        <v>4.5600000000000002E-2</v>
-      </c>
-      <c r="M14" s="16">
-        <v>0.188</v>
+        <v>9.5200000000000007E-3</v>
+      </c>
+      <c r="M14" s="15">
+        <v>8.9300000000000004E-2</v>
       </c>
       <c r="N14" s="12">
-        <v>0.28499999999999998</v>
+        <v>0.107</v>
       </c>
       <c r="O14" s="12">
-        <v>2.11</v>
+        <v>1.18</v>
       </c>
       <c r="P14" s="12">
-        <v>1.87</v>
+        <v>0.879</v>
       </c>
       <c r="Q14" s="12">
-        <v>0.30499999999999999</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="3">
-        <v>-1</v>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -7004,48 +7542,48 @@
         <v>3</v>
       </c>
       <c r="F15" s="3">
-        <v>1.41</v>
+        <v>2.15</v>
       </c>
       <c r="G15" s="3">
-        <v>1.41</v>
+        <v>2.15</v>
       </c>
       <c r="H15" s="3">
-        <v>1.0200000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I15" s="4">
-        <v>1.03</v>
+        <v>1.0999999999999999</v>
       </c>
       <c r="J15" s="12">
-        <v>6.1400000000000003E-2</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="K15" s="12">
-        <v>0.22900000000000001</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="L15" s="12">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="M15" s="16">
-        <v>2.41E-2</v>
+        <v>3.1800000000000001E-3</v>
+      </c>
+      <c r="M15" s="15">
+        <v>8.8800000000000004E-2</v>
       </c>
       <c r="N15" s="12">
-        <v>1.5499999999999999E-3</v>
+        <v>6.5199999999999998E-3</v>
       </c>
       <c r="O15" s="12">
-        <v>0.41799999999999998</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="P15" s="12">
-        <v>0.41</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q15" s="12">
-        <v>2.58E-2</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -7057,40 +7595,40 @@
         <v>3</v>
       </c>
       <c r="F16" s="3">
-        <v>2.15</v>
+        <v>2.87</v>
       </c>
       <c r="G16" s="3">
-        <v>2.15</v>
+        <v>2.8699999999999997</v>
       </c>
       <c r="H16" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.3099999999999998</v>
       </c>
       <c r="I16" s="4">
-        <v>1.0999999999999999</v>
+        <v>1.3000000000000003</v>
       </c>
       <c r="J16" s="12">
-        <v>0.17399999999999999</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="K16" s="12">
-        <v>0.36099999999999999</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="L16" s="12">
-        <v>3.1800000000000001E-3</v>
-      </c>
-      <c r="M16" s="16">
-        <v>8.8800000000000004E-2</v>
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0.188</v>
       </c>
       <c r="N16" s="12">
-        <v>6.5199999999999998E-3</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="O16" s="12">
-        <v>0.97199999999999998</v>
+        <v>2.11</v>
       </c>
       <c r="P16" s="12">
-        <v>1.1499999999999999</v>
+        <v>1.87</v>
       </c>
       <c r="Q16" s="12">
-        <v>0.10100000000000001</v>
+        <v>0.30499999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -7098,7 +7636,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -7130,7 +7668,7 @@
       <c r="L17" s="12">
         <v>5.6699999999999997E-3</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="15">
         <v>0.17399999999999999</v>
       </c>
       <c r="N17" s="12">
@@ -7163,8 +7701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228BB3AA-32EE-4B8C-8231-8B457DAC3F50}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7178,7 +7716,7 @@
       <c r="D1" s="19"/>
       <c r="E1" s="20"/>
       <c r="F1" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -7190,43 +7728,43 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -7272,10 +7810,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-1</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -7287,28 +7825,28 @@
         <v>-3</v>
       </c>
       <c r="F4" s="8">
-        <v>4.08</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G4" s="8">
-        <v>2.81</v>
+        <v>2.13</v>
       </c>
       <c r="H4" s="8">
-        <v>2.77</v>
+        <v>2.13</v>
       </c>
       <c r="I4" s="8">
-        <v>2.16</v>
+        <v>1.74</v>
       </c>
       <c r="J4" s="8">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="K4" s="8">
-        <v>1.1100000000000001</v>
+        <v>1</v>
       </c>
       <c r="L4" s="8">
-        <v>1.7</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="M4" s="8">
-        <v>1.08</v>
+        <v>0.73499999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -7316,7 +7854,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -7328,36 +7866,36 @@
         <v>-3</v>
       </c>
       <c r="F5" s="8">
-        <v>5.88</v>
+        <v>4.08</v>
       </c>
       <c r="G5" s="8">
-        <v>3.96</v>
+        <v>2.81</v>
       </c>
       <c r="H5" s="8">
-        <v>3.86</v>
+        <v>2.77</v>
       </c>
       <c r="I5" s="8">
-        <v>2.4500000000000002</v>
+        <v>2.16</v>
       </c>
       <c r="J5" s="8">
-        <v>3.22</v>
+        <v>2.38</v>
       </c>
       <c r="K5" s="8">
-        <v>1.3</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L5" s="8">
-        <v>2.59</v>
+        <v>1.7</v>
       </c>
       <c r="M5" s="8">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
-        <v>-1</v>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -7369,36 +7907,36 @@
         <v>-3</v>
       </c>
       <c r="F6" s="8">
-        <v>1.1200000000000001</v>
+        <v>2.98</v>
       </c>
       <c r="G6" s="8">
-        <v>2.13</v>
+        <v>4.01</v>
       </c>
       <c r="H6" s="8">
-        <v>2.13</v>
+        <v>4.07</v>
       </c>
       <c r="I6" s="8">
-        <v>1.74</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J6" s="8">
         <v>0</v>
       </c>
       <c r="K6" s="8">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="L6" s="8">
-        <v>1.1299999999999999</v>
+        <v>3.06</v>
       </c>
       <c r="M6" s="8">
-        <v>0.73499999999999999</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -7410,28 +7948,28 @@
         <v>-3</v>
       </c>
       <c r="F7" s="8">
-        <v>2.98</v>
+        <v>5.88</v>
       </c>
       <c r="G7" s="8">
-        <v>4.01</v>
+        <v>3.96</v>
       </c>
       <c r="H7" s="8">
-        <v>4.07</v>
+        <v>3.86</v>
       </c>
       <c r="I7" s="8">
-        <v>2.0499999999999998</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J7" s="8">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="K7" s="8">
-        <v>1.03</v>
+        <v>1.3</v>
       </c>
       <c r="L7" s="8">
-        <v>3.06</v>
+        <v>2.59</v>
       </c>
       <c r="M7" s="8">
-        <v>1.04</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -7439,7 +7977,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -7484,19 +8022,19 @@
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
       <c r="F10" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="20"/>
       <c r="J10" s="21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="20"/>
       <c r="N10" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
@@ -7504,49 +8042,49 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="O11" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="P11" s="1">
         <v>1</v>
@@ -7592,7 +8130,7 @@
       <c r="L12" s="12">
         <v>2.2300000000000002E-3</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="13">
         <v>1.2E-4</v>
       </c>
       <c r="N12" s="12">
@@ -7610,10 +8148,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>0</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-1</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -7625,40 +8163,40 @@
         <v>-3</v>
       </c>
       <c r="F13" s="8">
-        <v>1.7000000000000002</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G13" s="8">
-        <v>1.7</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H13" s="8">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="I13" s="11">
-        <v>1.08</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="J13" s="12">
-        <v>0.34899999999999998</v>
+        <v>0.107</v>
       </c>
       <c r="K13" s="12">
-        <v>6.2300000000000001E-2</v>
+        <v>1.9400000000000001E-3</v>
       </c>
       <c r="L13" s="12">
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="M13" s="16">
-        <v>5.9500000000000004E-3</v>
+        <v>1.9400000000000001E-3</v>
+      </c>
+      <c r="M13" s="15">
+        <v>1.4300000000000001E-4</v>
       </c>
       <c r="N13" s="12">
-        <v>0.94199999999999995</v>
+        <v>2.1800000000000001E-3</v>
       </c>
       <c r="O13" s="12">
-        <v>7.5499999999999998E-2</v>
+        <v>2.0600000000000002E-3</v>
       </c>
       <c r="P13" s="12">
-        <v>0.69899999999999995</v>
+        <v>0.122</v>
       </c>
       <c r="Q13" s="12">
-        <v>7.5800000000000006E-2</v>
+        <v>2.0899999999999998E-3</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -7666,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -7678,48 +8216,48 @@
         <v>-3</v>
       </c>
       <c r="F14" s="8">
-        <v>2.6599999999999997</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="G14" s="8">
-        <v>2.66</v>
+        <v>1.7</v>
       </c>
       <c r="H14" s="8">
-        <v>1.27</v>
+        <v>1.07</v>
       </c>
       <c r="I14" s="11">
-        <v>1.2700000000000002</v>
+        <v>1.08</v>
       </c>
       <c r="J14" s="12">
-        <v>0.46600000000000003</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="K14" s="12">
-        <v>0.158</v>
+        <v>6.2300000000000001E-2</v>
       </c>
       <c r="L14" s="12">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="M14" s="16">
-        <v>3.5499999999999997E-2</v>
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="M14" s="15">
+        <v>5.9500000000000004E-3</v>
       </c>
       <c r="N14" s="12">
-        <v>1.95</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="O14" s="12">
-        <v>0.247</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="P14" s="12">
-        <v>1.66</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="Q14" s="12">
-        <v>0.26600000000000001</v>
+        <v>7.5800000000000006E-2</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="3">
-        <v>-1</v>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -7731,48 +8269,48 @@
         <v>-3</v>
       </c>
       <c r="F15" s="8">
-        <v>1.1200000000000001</v>
+        <v>2.98</v>
       </c>
       <c r="G15" s="8">
-        <v>1.1299999999999999</v>
+        <v>2.9799999999999995</v>
       </c>
       <c r="H15" s="8">
-        <v>1</v>
+        <v>1.0100000000000002</v>
       </c>
       <c r="I15" s="11">
-        <v>1.0049999999999999</v>
+        <v>1.0099999999999998</v>
       </c>
       <c r="J15" s="12">
-        <v>0.107</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="K15" s="12">
-        <v>1.9400000000000001E-3</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="L15" s="12">
-        <v>1.9400000000000001E-3</v>
-      </c>
-      <c r="M15" s="16">
-        <v>1.4300000000000001E-4</v>
+        <v>1.09E-2</v>
+      </c>
+      <c r="M15" s="15">
+        <v>4.0800000000000003E-3</v>
       </c>
       <c r="N15" s="12">
-        <v>2.1800000000000001E-3</v>
+        <v>3.32E-2</v>
       </c>
       <c r="O15" s="12">
-        <v>2.0600000000000002E-3</v>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="P15" s="12">
-        <v>0.122</v>
+        <v>1.98</v>
       </c>
       <c r="Q15" s="12">
-        <v>2.0899999999999998E-3</v>
+        <v>4.0800000000000003E-3</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -7784,40 +8322,40 @@
         <v>-3</v>
       </c>
       <c r="F16" s="8">
-        <v>2.98</v>
+        <v>2.6599999999999997</v>
       </c>
       <c r="G16" s="8">
-        <v>2.9799999999999995</v>
+        <v>2.66</v>
       </c>
       <c r="H16" s="8">
-        <v>1.0100000000000002</v>
+        <v>1.27</v>
       </c>
       <c r="I16" s="11">
-        <v>1.0099999999999998</v>
+        <v>1.2700000000000002</v>
       </c>
       <c r="J16" s="12">
-        <v>0.65300000000000002</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="K16" s="12">
-        <v>1.1599999999999999E-2</v>
+        <v>0.158</v>
       </c>
       <c r="L16" s="12">
-        <v>1.09E-2</v>
-      </c>
-      <c r="M16" s="16">
-        <v>4.0800000000000003E-3</v>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="M16" s="15">
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="N16" s="12">
-        <v>3.32E-2</v>
+        <v>1.95</v>
       </c>
       <c r="O16" s="12">
-        <v>1.6199999999999999E-2</v>
+        <v>0.247</v>
       </c>
       <c r="P16" s="12">
-        <v>1.98</v>
+        <v>1.66</v>
       </c>
       <c r="Q16" s="12">
-        <v>4.0800000000000003E-3</v>
+        <v>0.26600000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -7825,7 +8363,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -7857,7 +8395,7 @@
       <c r="L17" s="12">
         <v>1.2E-2</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="15">
         <v>3.6600000000000001E-2</v>
       </c>
       <c r="N17" s="12">

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Ivan\College\2018-2019\Indep Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B3C536-8F4D-4DA5-AD29-2D5E9939D50B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D1BAF6-5B42-4B82-901E-35742438E0A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19590" yWindow="4950" windowWidth="17085" windowHeight="14535" firstSheet="5" activeTab="9" xr2:uid="{984E635D-4395-4027-B8D2-12147AC10169}"/>
+    <workbookView xWindow="17910" yWindow="1455" windowWidth="17085" windowHeight="14535" firstSheet="6" activeTab="9" xr2:uid="{984E635D-4395-4027-B8D2-12147AC10169}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <sheet name="Table 4" sheetId="4" r:id="rId4"/>
     <sheet name="Table 5" sheetId="5" r:id="rId5"/>
     <sheet name="Table 6" sheetId="6" r:id="rId6"/>
-    <sheet name="Appendix 1" sheetId="8" r:id="rId7"/>
-    <sheet name="Table 7" sheetId="7" r:id="rId8"/>
-    <sheet name="Appendix 2" sheetId="9" r:id="rId9"/>
-    <sheet name="Table 8" sheetId="10" r:id="rId10"/>
+    <sheet name="Appendix 1" sheetId="7" r:id="rId7"/>
+    <sheet name="Appendix 2" sheetId="8" r:id="rId8"/>
+    <sheet name="Appendix 3" sheetId="9" r:id="rId9"/>
+    <sheet name="Table 7" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="28">
   <si>
     <t>Parameters (utility fn)</t>
   </si>
@@ -114,9 +114,6 @@
     <t>$\beta_3$</t>
   </si>
   <si>
-    <t>log(20)</t>
-  </si>
-  <si>
     <t>log(40)</t>
   </si>
   <si>
@@ -136,10 +133,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -297,11 +300,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -340,9 +354,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -353,6 +364,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,29 +703,29 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:M1"/>
+      <selection activeCell="F12" sqref="F12:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -752,28 +784,28 @@
       <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="3">
         <v>2.19</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="3">
         <v>2.19</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="3">
         <v>2.19</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="3">
         <v>2.19</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="3">
         <v>1.1100000000000001</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="3">
         <v>1.1100000000000001</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="3">
         <v>1.1100000000000001</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="3">
         <v>1.1100000000000001</v>
       </c>
     </row>
@@ -793,28 +825,28 @@
       <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="8">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="G4" s="8">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="F4" s="3">
+        <v>1.18</v>
+      </c>
+      <c r="G4" s="3">
         <v>2.2799999999999998</v>
       </c>
-      <c r="I4" s="8">
+      <c r="H4" s="3">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I4" s="3">
         <v>2.17</v>
       </c>
-      <c r="J4" s="16">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="3">
         <v>1.21</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="3">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -834,28 +866,28 @@
       <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="3">
         <v>2.76</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="3">
         <v>2.76</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="3">
         <v>2.76</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="3">
         <v>2.76</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="3">
         <v>1.42</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="3">
         <v>1.42</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="3">
         <v>1.42</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="3">
         <v>1.42</v>
       </c>
     </row>
@@ -875,29 +907,29 @@
       <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="8">
-        <v>1.66</v>
-      </c>
-      <c r="G6" s="8">
-        <v>2.92</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="F6" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="G6" s="3">
         <v>3.06</v>
       </c>
-      <c r="I6" s="8">
-        <v>2.62</v>
-      </c>
-      <c r="J6" s="16">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>1.26</v>
-      </c>
-      <c r="L6" s="8">
-        <v>1.81</v>
-      </c>
-      <c r="M6" s="8">
-        <v>1.38</v>
+      <c r="H6" s="3">
+        <v>3.04</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2.63</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1.37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -916,28 +948,28 @@
       <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="3">
         <v>3.69</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="3">
         <v>3.69</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="3">
         <v>3.69</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="3">
         <v>3.69</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="3">
         <v>1.85</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="3">
         <v>1.85</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="3">
         <v>1.85</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="3">
         <v>1.85</v>
       </c>
     </row>
@@ -957,57 +989,57 @@
       <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="8">
-        <v>2.66</v>
-      </c>
-      <c r="G8" s="8">
-        <v>4.04</v>
-      </c>
-      <c r="H8" s="8">
-        <v>4.38</v>
-      </c>
-      <c r="I8" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="J8" s="16">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>1.38</v>
-      </c>
-      <c r="L8" s="8">
-        <v>2.94</v>
-      </c>
-      <c r="M8" s="8">
-        <v>2.06</v>
+      <c r="F8" s="3">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3.66</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2.63</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2.09</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="19" t="s">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1094,7 +1126,7 @@
         <f t="shared" si="0"/>
         <v>1.0799999999999998</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="12">
         <v>3.5400000000000001E-2</v>
       </c>
       <c r="K12" s="12">
@@ -1103,7 +1135,7 @@
       <c r="L12" s="12">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="13">
         <v>3.5400000000000001E-2</v>
       </c>
       <c r="N12" s="12">
@@ -1137,11 +1169,11 @@
       </c>
       <c r="F13" s="8">
         <f t="shared" si="0"/>
-        <v>1.1399999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>1.1400000000000001</v>
+        <v>1.1799999999999997</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="0"/>
@@ -1151,29 +1183,29 @@
         <f t="shared" si="0"/>
         <v>1.0699999999999998</v>
       </c>
-      <c r="J13" s="14">
-        <v>9.4799999999999995E-2</v>
+      <c r="J13" s="12">
+        <v>9.1700000000000004E-2</v>
       </c>
       <c r="K13" s="12">
-        <v>3.1600000000000003E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="L13" s="12">
-        <v>3.0599999999999999E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="M13" s="15">
-        <v>3.39E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="N13" s="12">
-        <v>3.6900000000000002E-2</v>
+        <v>3.7100000000000001E-2</v>
       </c>
       <c r="O13" s="12">
-        <v>7.2099999999999997E-2</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="P13" s="12">
         <v>0.14499999999999999</v>
       </c>
       <c r="Q13" s="12">
-        <v>6.8900000000000003E-2</v>
+        <v>6.9199999999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1208,7 +1240,7 @@
         <f t="shared" si="0"/>
         <v>1.3399999999999999</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="12">
         <v>0.126</v>
       </c>
       <c r="K14" s="12">
@@ -1251,43 +1283,43 @@
       </c>
       <c r="F15" s="8">
         <f t="shared" si="0"/>
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" si="0"/>
-        <v>1.2400000000000002</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0.31</v>
+        <v>1.2599999999999998</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.28299999999999997</v>
       </c>
       <c r="K15" s="12">
-        <v>8.7999999999999995E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L15" s="12">
-        <v>7.6600000000000001E-2</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="M15" s="15">
-        <v>0.11899999999999999</v>
+        <v>0.124</v>
       </c>
       <c r="N15" s="12">
-        <v>0.13900000000000001</v>
+        <v>0.126</v>
       </c>
       <c r="O15" s="12">
-        <v>0.27400000000000002</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="P15" s="12">
-        <v>0.66</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="Q15" s="12">
-        <v>0.24299999999999999</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1322,7 +1354,7 @@
         <f t="shared" si="0"/>
         <v>1.8399999999999999</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="12">
         <v>0.22700000000000001</v>
       </c>
       <c r="K16" s="12">
@@ -1365,43 +1397,43 @@
       </c>
       <c r="F17" s="8">
         <f t="shared" ref="F17:I17" si="1">F8-J8</f>
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="1"/>
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="1"/>
-        <v>1.44</v>
+        <v>1.5600000000000005</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="1"/>
-        <v>1.44</v>
-      </c>
-      <c r="J17" s="14">
-        <v>0.498</v>
+        <v>1.5700000000000003</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.44</v>
       </c>
       <c r="K17" s="12">
-        <v>0.126</v>
+        <v>0.11</v>
       </c>
       <c r="L17" s="12">
-        <v>8.9499999999999996E-2</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="M17" s="15">
-        <v>0.215</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="N17" s="12">
-        <v>0.26300000000000001</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="O17" s="12">
-        <v>0.61699999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="P17" s="12">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q17" s="12">
-        <v>0.438</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -1422,29 +1454,29 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="A1:Q17"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1545,28 +1577,28 @@
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>6.35</v>
+        <v>6.48</v>
       </c>
       <c r="G4" s="3">
-        <v>7.7</v>
+        <v>7.84</v>
       </c>
       <c r="H4" s="3">
-        <v>7.6</v>
+        <v>6.95</v>
       </c>
       <c r="I4" s="3">
-        <v>4.9800000000000004</v>
+        <v>5.08</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="L4" s="3">
-        <v>6.43</v>
+        <v>5.76</v>
       </c>
       <c r="M4" s="3">
-        <v>3.82</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1627,28 +1659,28 @@
         <v>3</v>
       </c>
       <c r="F6" s="3">
-        <v>5.72</v>
+        <v>6.29</v>
       </c>
       <c r="G6" s="3">
-        <v>8.3699999999999992</v>
+        <v>8.94</v>
       </c>
       <c r="H6" s="3">
-        <v>6.77</v>
+        <v>6.72</v>
       </c>
       <c r="I6" s="3">
-        <v>6.5</v>
+        <v>7.13</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="L6" s="3">
-        <v>5.57</v>
+        <v>5.53</v>
       </c>
       <c r="M6" s="3">
-        <v>5.31</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1709,56 +1741,56 @@
         <v>-3</v>
       </c>
       <c r="F8" s="3">
-        <v>7.06</v>
+        <v>7.18</v>
       </c>
       <c r="G8" s="3">
-        <v>8.17</v>
+        <v>8.31</v>
       </c>
       <c r="H8" s="3">
-        <v>8.39</v>
+        <v>7.8</v>
       </c>
       <c r="I8" s="3">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L8" s="3">
-        <v>7.28</v>
+        <v>6.67</v>
       </c>
       <c r="M8" s="3">
-        <v>2.2400000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="19" t="s">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1830,15 +1862,19 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
+        <f t="shared" ref="F12:I17" si="0">F3-J3</f>
         <v>3.46</v>
       </c>
       <c r="G12" s="3">
+        <f t="shared" si="0"/>
         <v>3.46</v>
       </c>
       <c r="H12" s="3">
+        <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
       <c r="J12" s="12">
@@ -1883,40 +1919,44 @@
         <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>6.35</v>
+        <f t="shared" si="0"/>
+        <v>6.48</v>
       </c>
       <c r="G13" s="3">
-        <v>6.35</v>
+        <f t="shared" si="0"/>
+        <v>6.4799999999999995</v>
       </c>
       <c r="H13" s="3">
-        <v>1.17</v>
+        <f t="shared" si="0"/>
+        <v>1.1900000000000004</v>
       </c>
       <c r="I13" s="4">
-        <v>1.1600000000000006</v>
+        <f t="shared" si="0"/>
+        <v>1.1800000000000002</v>
       </c>
       <c r="J13" s="12">
-        <v>0.66900000000000004</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="K13" s="12">
-        <v>0.17399999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="L13" s="12">
-        <v>9.5499999999999995E-3</v>
+        <v>2.06E-2</v>
       </c>
       <c r="M13" s="15">
-        <v>0.13100000000000001</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="N13" s="12">
-        <v>6.1499999999999999E-2</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="O13" s="12">
-        <v>0.73299999999999998</v>
+        <v>0.747</v>
       </c>
       <c r="P13" s="12">
-        <v>5.35</v>
+        <v>5.36</v>
       </c>
       <c r="Q13" s="12">
-        <v>0.16300000000000001</v>
+        <v>0.18099999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1936,15 +1976,19 @@
         <v>3</v>
       </c>
       <c r="F14" s="3">
+        <f t="shared" si="0"/>
         <v>3.47</v>
       </c>
       <c r="G14" s="3">
+        <f t="shared" si="0"/>
         <v>3.47</v>
       </c>
       <c r="H14" s="3">
+        <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
       <c r="I14" s="4">
+        <f t="shared" si="0"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="J14" s="12">
@@ -1989,40 +2033,44 @@
         <v>3</v>
       </c>
       <c r="F15" s="3">
-        <v>5.72</v>
+        <f t="shared" si="0"/>
+        <v>6.29</v>
       </c>
       <c r="G15" s="3">
-        <v>5.7299999999999986</v>
+        <f t="shared" si="0"/>
+        <v>6.2899999999999991</v>
       </c>
       <c r="H15" s="3">
-        <v>1.1999999999999993</v>
+        <f t="shared" si="0"/>
+        <v>1.1899999999999995</v>
       </c>
       <c r="I15" s="4">
-        <v>1.1900000000000004</v>
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
       </c>
       <c r="J15" s="12">
-        <v>0.34</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="K15" s="12">
-        <v>0.48499999999999999</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="L15" s="12">
-        <v>5.9699999999999996E-3</v>
+        <v>1.11E-2</v>
       </c>
       <c r="M15" s="15">
-        <v>0.156</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="N15" s="12">
-        <v>3.3300000000000003E-2</v>
+        <v>6.1600000000000002E-2</v>
       </c>
       <c r="O15" s="12">
-        <v>2.11</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="P15" s="12">
-        <v>4.72</v>
+        <v>5.23</v>
       </c>
       <c r="Q15" s="12">
-        <v>0.193</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -2042,15 +2090,19 @@
         <v>-3</v>
       </c>
       <c r="F16" s="3">
+        <f t="shared" si="0"/>
         <v>3.3599999999999994</v>
       </c>
       <c r="G16" s="3">
+        <f t="shared" si="0"/>
         <v>3.3600000000000003</v>
       </c>
       <c r="H16" s="3">
+        <f t="shared" si="0"/>
         <v>1.3899999999999997</v>
       </c>
       <c r="I16" s="4">
+        <f t="shared" si="0"/>
         <v>1.3800000000000001</v>
       </c>
       <c r="J16" s="12">
@@ -2095,40 +2147,44 @@
         <v>-3</v>
       </c>
       <c r="F17" s="3">
-        <v>7.06</v>
+        <f t="shared" si="0"/>
+        <v>7.18</v>
       </c>
       <c r="G17" s="3">
-        <v>7.05</v>
+        <f t="shared" si="0"/>
+        <v>7.1800000000000006</v>
       </c>
       <c r="H17" s="3">
-        <v>1.1100000000000003</v>
+        <f t="shared" si="0"/>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I17" s="4">
-        <v>1.0999999999999996</v>
+        <f t="shared" si="0"/>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J17" s="12">
-        <v>0.84499999999999997</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="K17" s="12">
-        <v>1.38E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="L17" s="12">
-        <v>1.11E-2</v>
+        <v>2.23E-2</v>
       </c>
       <c r="M17" s="15">
-        <v>8.5999999999999993E-2</v>
+        <v>8.8300000000000003E-2</v>
       </c>
       <c r="N17" s="12">
-        <v>8.1100000000000005E-2</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="O17" s="12">
-        <v>0.20799999999999999</v>
+        <v>0.218</v>
       </c>
       <c r="P17" s="12">
-        <v>6.06</v>
+        <v>6.03</v>
       </c>
       <c r="Q17" s="12">
-        <v>0.108</v>
+        <v>0.124</v>
       </c>
     </row>
   </sheetData>
@@ -2146,35 +2202,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DD505B-8DE5-4D64-A03E-8DAA3FCFFFE4}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:Q18"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2227,32 +2283,32 @@
       <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>24</v>
+      <c r="E3" s="4">
+        <v>3</v>
       </c>
       <c r="F3" s="3">
-        <v>2.3199999999999998</v>
+        <v>2.33</v>
       </c>
       <c r="G3" s="3">
-        <v>3.12</v>
+        <v>3.13</v>
       </c>
       <c r="H3" s="3">
-        <v>2.3199999999999998</v>
+        <v>2.33</v>
       </c>
       <c r="I3" s="3">
-        <v>3.12</v>
+        <v>3.13</v>
       </c>
       <c r="J3" s="3">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K3" s="3">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="L3" s="3">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="M3" s="3">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -2268,14 +2324,14 @@
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>24</v>
+      <c r="E4" s="4">
+        <v>3</v>
       </c>
       <c r="F4" s="3">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="G4" s="3">
-        <v>3.11</v>
+        <v>3.13</v>
       </c>
       <c r="H4" s="3">
         <v>2.54</v>
@@ -2287,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="L4" s="3">
         <v>1.28</v>
@@ -2309,20 +2365,20 @@
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
+      <c r="E5" s="4">
+        <v>3</v>
       </c>
       <c r="F5" s="3">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="G5" s="3">
         <v>4.3</v>
       </c>
       <c r="H5" s="3">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="I5" s="3">
-        <v>4.3</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="J5" s="3">
         <v>1.18</v>
@@ -2331,10 +2387,10 @@
         <v>2.72</v>
       </c>
       <c r="L5" s="3">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M5" s="3">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2350,17 +2406,17 @@
       <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
+      <c r="E6" s="4">
+        <v>3</v>
       </c>
       <c r="F6" s="3">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="G6" s="3">
-        <v>4.1900000000000004</v>
+        <v>4.25</v>
       </c>
       <c r="H6" s="3">
-        <v>3.16</v>
+        <v>3.13</v>
       </c>
       <c r="I6" s="3">
         <v>4.18</v>
@@ -2369,13 +2425,13 @@
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>2.41</v>
+        <v>2.39</v>
       </c>
       <c r="L6" s="3">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="M6" s="3">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2391,20 +2447,20 @@
       <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>24</v>
+      <c r="E7" s="4">
+        <v>3</v>
       </c>
       <c r="F7" s="3">
         <v>3.29</v>
       </c>
       <c r="G7" s="3">
-        <v>5.3</v>
+        <v>5.31</v>
       </c>
       <c r="H7" s="3">
         <v>3.29</v>
       </c>
       <c r="I7" s="3">
-        <v>5.3</v>
+        <v>5.31</v>
       </c>
       <c r="J7" s="3">
         <v>1.36</v>
@@ -2432,20 +2488,20 @@
       <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>24</v>
+      <c r="E8" s="4">
+        <v>3</v>
       </c>
       <c r="F8" s="3">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="G8" s="3">
-        <v>5.2</v>
+        <v>5.35</v>
       </c>
       <c r="H8" s="3">
-        <v>4.04</v>
+        <v>3.82</v>
       </c>
       <c r="I8" s="3">
-        <v>5.29</v>
+        <v>5.34</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -2454,95 +2510,152 @@
         <v>2.7</v>
       </c>
       <c r="L8" s="3">
-        <v>2.4500000000000002</v>
+        <v>2.15</v>
       </c>
       <c r="M8" s="3">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="19" t="s">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="1">
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" ref="F12:I17" si="0">F3-J3</f>
+        <v>1.26</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2599999999999998</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.27</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="0"/>
+        <v>1.2599999999999998</v>
+      </c>
+      <c r="J12" s="12">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0.188</v>
+      </c>
+      <c r="L12" s="12">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0.188</v>
+      </c>
+      <c r="N12" s="12">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" s="3">
         <v>-1</v>
@@ -2553,56 +2666,56 @@
       <c r="D13" s="3">
         <v>0</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>24</v>
+      <c r="E13" s="4">
+        <v>3</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" ref="F13:I18" si="0">F3-J3</f>
-        <v>1.2699999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1.33</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
+        <v>1.3399999999999999</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
         <v>1.26</v>
       </c>
-      <c r="H13" s="3">
-        <f t="shared" si="0"/>
-        <v>1.2699999999999998</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="0"/>
-        <v>1.26</v>
-      </c>
-      <c r="J13" s="14">
-        <v>2.1000000000000001E-2</v>
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2599999999999998</v>
+      </c>
+      <c r="J13" s="12">
+        <v>5.4199999999999998E-2</v>
       </c>
       <c r="K13" s="12">
-        <v>0.188</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="L13" s="12">
-        <v>2.1000000000000001E-2</v>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="M13" s="15">
-        <v>0.188</v>
+        <v>0.189</v>
       </c>
       <c r="N13" s="12">
-        <v>4.4400000000000002E-2</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="O13" s="12">
-        <v>0.7</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="P13" s="12">
-        <v>0.26500000000000001</v>
+        <v>0.314</v>
       </c>
       <c r="Q13" s="12">
-        <v>0.26500000000000001</v>
+        <v>0.25800000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -2610,53 +2723,53 @@
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>24</v>
+      <c r="E14" s="4">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
-        <v>1.31</v>
+        <v>1.5799999999999998</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>1.3099999999999998</v>
+        <v>1.5799999999999996</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="0"/>
-        <v>1.26</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="0"/>
-        <v>1.2599999999999998</v>
-      </c>
-      <c r="J14" s="14">
-        <v>5.5300000000000002E-2</v>
+        <v>1.5700000000000003</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5699999999999994</v>
+      </c>
+      <c r="J14" s="12">
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="K14" s="12">
-        <v>0.183</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="L14" s="12">
-        <v>1.6199999999999999E-2</v>
+        <v>7.0199999999999999E-2</v>
       </c>
       <c r="M14" s="15">
-        <v>0.187</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="N14" s="12">
-        <v>2.0799999999999999E-2</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="O14" s="12">
-        <v>0.67200000000000004</v>
+        <v>1.61</v>
       </c>
       <c r="P14" s="12">
-        <v>0.313</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="Q14" s="12">
-        <v>0.255</v>
+        <v>0.57199999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>17</v>
@@ -2667,56 +2780,56 @@
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>24</v>
+      <c r="E15" s="4">
+        <v>3</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>1.5799999999999996</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="0"/>
-        <v>1.57</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="0"/>
-        <v>1.5799999999999996</v>
-      </c>
-      <c r="J15" s="14">
-        <v>6.9400000000000003E-2</v>
+        <v>1.5</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5099999999999998</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.15</v>
       </c>
       <c r="K15" s="12">
-        <v>0.29499999999999998</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="L15" s="12">
-        <v>6.9400000000000003E-2</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="M15" s="15">
-        <v>0.29499999999999998</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="N15" s="12">
-        <v>0.16300000000000001</v>
+        <v>6.7799999999999999E-2</v>
       </c>
       <c r="O15" s="12">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="P15" s="12">
-        <v>0.57299999999999995</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="Q15" s="12">
-        <v>0.57299999999999995</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -2724,53 +2837,53 @@
       <c r="D16" s="3">
         <v>0</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>24</v>
+      <c r="E16" s="4">
+        <v>3</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>1.7800000000000002</v>
+        <v>1.9399999999999995</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="0"/>
-        <v>1.4800000000000002</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="0"/>
-        <v>1.4899999999999998</v>
-      </c>
-      <c r="J16" s="14">
-        <v>0.157</v>
+        <v>1.93</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9399999999999995</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.13100000000000001</v>
       </c>
       <c r="K16" s="12">
-        <v>0.28299999999999997</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="L16" s="12">
-        <v>3.9600000000000003E-2</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="M16" s="15">
-        <v>0.28699999999999998</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="N16" s="12">
-        <v>6.6400000000000001E-2</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="O16" s="12">
-        <v>1.45</v>
+        <v>2.37</v>
       </c>
       <c r="P16" s="12">
-        <v>0.78500000000000003</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="Q16" s="12">
-        <v>0.48499999999999999</v>
+        <v>0.93200000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>18</v>
@@ -2781,115 +2894,58 @@
       <c r="D17" s="3">
         <v>0</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>24</v>
+      <c r="E17" s="4">
+        <v>3</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="0"/>
-        <v>1.93</v>
+        <v>2.65</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>1.9299999999999997</v>
+        <v>2.6499999999999995</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="0"/>
-        <v>1.93</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="0"/>
-        <v>1.9299999999999997</v>
-      </c>
-      <c r="J17" s="14">
-        <v>0.13100000000000001</v>
+        <v>1.67</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6799999999999997</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.24</v>
       </c>
       <c r="K17" s="12">
-        <v>0.35099999999999998</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="L17" s="12">
-        <v>0.13100000000000001</v>
+        <v>7.4399999999999994E-2</v>
       </c>
       <c r="M17" s="15">
-        <v>0.35099999999999998</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="N17" s="12">
-        <v>0.35699999999999998</v>
+        <v>0.16</v>
       </c>
       <c r="O17" s="12">
-        <v>2.37</v>
+        <v>2.08</v>
       </c>
       <c r="P17" s="12">
-        <v>0.93200000000000005</v>
+        <v>1.49</v>
       </c>
       <c r="Q17" s="12">
-        <v>0.93200000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="0"/>
-        <v>1.5899999999999999</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="0"/>
-        <v>1.5899999999999999</v>
-      </c>
-      <c r="J18" s="14">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="K18" s="12">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="L18" s="12">
-        <v>5.5E-2</v>
-      </c>
-      <c r="M18" s="15">
-        <v>0.314</v>
-      </c>
-      <c r="N18" s="12">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="O18" s="12">
-        <v>2.09</v>
-      </c>
-      <c r="P18" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="Q18" s="12">
-        <v>0.58499999999999996</v>
+        <v>0.67500000000000004</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N10:Q10"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:M1"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2900,29 +2956,29 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q17"/>
+      <selection activeCell="Q17" sqref="A1:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -3023,22 +3079,22 @@
         <v>-4</v>
       </c>
       <c r="F4" s="3">
-        <v>1.1200000000000001</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G4" s="3">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H4" s="3">
         <v>2.23</v>
       </c>
       <c r="I4" s="3">
-        <v>2.06</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>0.98499999999999999</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="L4" s="3">
         <v>1.19</v>
@@ -3052,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -3093,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -3104,29 +3160,29 @@
       <c r="E6" s="4">
         <v>-4</v>
       </c>
-      <c r="F6" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3.85</v>
-      </c>
-      <c r="H6" s="3">
-        <v>4.63</v>
-      </c>
-      <c r="I6" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L6" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="M6" s="3">
-        <v>1.06</v>
+      <c r="F6" s="21">
+        <v>3.13</v>
+      </c>
+      <c r="G6" s="21">
+        <v>4.38</v>
+      </c>
+      <c r="H6" s="21">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="I6" s="21">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J6" s="21">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
+        <v>1.25</v>
+      </c>
+      <c r="L6" s="21">
+        <v>3.24</v>
+      </c>
+      <c r="M6" s="21">
+        <v>1.08</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -3134,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -3175,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -3187,56 +3243,56 @@
         <v>-4</v>
       </c>
       <c r="F8" s="3">
-        <v>4.49</v>
+        <v>5.03</v>
       </c>
       <c r="G8" s="3">
-        <v>5.57</v>
+        <v>6.18</v>
       </c>
       <c r="H8" s="3">
-        <v>6.92</v>
+        <v>6.2</v>
       </c>
       <c r="I8" s="3">
-        <v>2.69</v>
+        <v>2.9</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>1.08</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L8" s="3">
-        <v>5.74</v>
+        <v>4.8</v>
       </c>
       <c r="M8" s="3">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="19" t="s">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -3308,15 +3364,19 @@
         <v>-4</v>
       </c>
       <c r="F12" s="3">
+        <f t="shared" ref="F12:I17" si="0">F3-J3</f>
         <v>1.04</v>
       </c>
       <c r="G12" s="3">
+        <f t="shared" si="0"/>
         <v>1.04</v>
       </c>
       <c r="H12" s="3">
+        <f t="shared" si="0"/>
         <v>1.04</v>
       </c>
       <c r="I12" s="5">
+        <f t="shared" si="0"/>
         <v>1.04</v>
       </c>
       <c r="J12" s="12">
@@ -3361,40 +3421,44 @@
         <v>-4</v>
       </c>
       <c r="F13" s="3">
-        <v>1.1200000000000001</v>
+        <f t="shared" si="0"/>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G13" s="3">
-        <v>1.1150000000000002</v>
+        <f t="shared" si="0"/>
+        <v>1.161</v>
       </c>
       <c r="H13" s="3">
+        <f t="shared" si="0"/>
         <v>1.04</v>
       </c>
       <c r="I13" s="4">
-        <v>1.04</v>
+        <f t="shared" si="0"/>
+        <v>1.0299999999999998</v>
       </c>
       <c r="J13" s="12">
-        <v>0.104</v>
+        <v>0.1</v>
       </c>
       <c r="K13" s="12">
-        <v>7.0899999999999999E-4</v>
+        <v>7.0200000000000004E-4</v>
       </c>
       <c r="L13" s="12">
-        <v>3.4099999999999998E-2</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="M13" s="15">
-        <v>7.4200000000000004E-4</v>
+        <v>7.4700000000000005E-4</v>
       </c>
       <c r="N13" s="12">
-        <v>4.07E-2</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="O13" s="12">
-        <v>1.4599999999999999E-3</v>
+        <v>1.4300000000000001E-3</v>
       </c>
       <c r="P13" s="12">
-        <v>0.11700000000000001</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="Q13" s="12">
-        <v>3.61E-2</v>
+        <v>3.6200000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -3402,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -3414,15 +3478,19 @@
         <v>-4</v>
       </c>
       <c r="F14" s="3">
+        <f t="shared" si="0"/>
         <v>1.4300000000000002</v>
       </c>
       <c r="G14" s="3">
+        <f t="shared" si="0"/>
         <v>1.4200000000000002</v>
       </c>
       <c r="H14" s="3">
+        <f t="shared" si="0"/>
         <v>1.4300000000000002</v>
       </c>
       <c r="I14" s="4">
+        <f t="shared" si="0"/>
         <v>1.4200000000000002</v>
       </c>
       <c r="J14" s="12">
@@ -3455,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -3467,40 +3535,44 @@
         <v>-4</v>
       </c>
       <c r="F15" s="3">
-        <v>2.75</v>
+        <f t="shared" si="0"/>
+        <v>3.13</v>
       </c>
       <c r="G15" s="3">
-        <v>2.75</v>
+        <f t="shared" si="0"/>
+        <v>3.13</v>
       </c>
       <c r="H15" s="3">
-        <v>1.1299999999999999</v>
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
       </c>
       <c r="I15" s="4">
-        <v>1.1400000000000001</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="K15" s="12">
-        <v>3.8600000000000001E-3</v>
-      </c>
-      <c r="L15" s="12">
-        <v>9.6299999999999997E-2</v>
-      </c>
-      <c r="M15" s="15">
-        <v>2.01E-2</v>
-      </c>
-      <c r="N15" s="12">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="O15" s="12">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="P15" s="12">
-        <v>1.75</v>
-      </c>
-      <c r="Q15" s="12">
-        <v>0.13200000000000001</v>
+        <f t="shared" si="0"/>
+        <v>1.1999999999999997</v>
+      </c>
+      <c r="J15" s="22">
+        <v>0.53</v>
+      </c>
+      <c r="K15" s="22">
+        <v>2.7699999999999999E-3</v>
+      </c>
+      <c r="L15" s="22">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="M15" s="23">
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="N15" s="22">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="O15" s="22">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="P15" s="22">
+        <v>1.67</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>0.19800000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -3508,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -3520,15 +3592,19 @@
         <v>-4</v>
       </c>
       <c r="F16" s="3">
+        <f t="shared" si="0"/>
         <v>1.8200000000000003</v>
       </c>
       <c r="G16" s="3">
+        <f t="shared" si="0"/>
         <v>1.82</v>
       </c>
       <c r="H16" s="3">
+        <f t="shared" si="0"/>
         <v>1.8200000000000003</v>
       </c>
       <c r="I16" s="4">
+        <f t="shared" si="0"/>
         <v>1.82</v>
       </c>
       <c r="J16" s="12">
@@ -3561,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -3573,40 +3649,44 @@
         <v>-4</v>
       </c>
       <c r="F17" s="3">
-        <v>4.49</v>
+        <f t="shared" si="0"/>
+        <v>5.03</v>
       </c>
       <c r="G17" s="3">
-        <v>4.49</v>
+        <f t="shared" si="0"/>
+        <v>5.04</v>
       </c>
       <c r="H17" s="3">
-        <v>1.1799999999999997</v>
+        <f t="shared" si="0"/>
+        <v>1.4000000000000004</v>
       </c>
       <c r="I17" s="4">
-        <v>1.18</v>
+        <f t="shared" si="0"/>
+        <v>1.4</v>
       </c>
       <c r="J17" s="12">
-        <v>0.77300000000000002</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="K17" s="12">
-        <v>4.81E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="L17" s="12">
-        <v>6.8199999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="M17" s="15">
-        <v>8.5500000000000007E-2</v>
+        <v>9.5100000000000004E-2</v>
       </c>
       <c r="N17" s="12">
-        <v>0.39100000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="O17" s="12">
-        <v>0.13400000000000001</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="P17" s="12">
-        <v>3.49</v>
+        <v>3.11</v>
       </c>
       <c r="Q17" s="12">
-        <v>0.182</v>
+        <v>0.40200000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3624,32 +3704,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE700CF7-1966-49C9-98E5-7E542D047062}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:Q22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -3697,40 +3777,40 @@
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
+      <c r="D3" s="3">
+        <v>3</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>2.0499999999999998</v>
+        <v>2.27</v>
       </c>
       <c r="G3" s="3">
-        <v>2.0499999999999998</v>
+        <v>2.27</v>
       </c>
       <c r="H3" s="3">
-        <v>2.17</v>
+        <v>3.09</v>
       </c>
       <c r="I3" s="3">
-        <v>2.17</v>
+        <v>3.09</v>
       </c>
       <c r="J3" s="3">
-        <v>1.04</v>
+        <v>1.22</v>
       </c>
       <c r="K3" s="3">
-        <v>1.05</v>
+        <v>1.22</v>
       </c>
       <c r="L3" s="3">
-        <v>1.08</v>
+        <v>1.47</v>
       </c>
       <c r="M3" s="3">
-        <v>1.08</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -3738,122 +3818,122 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
+      <c r="D4" s="3">
+        <v>3</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="G4" s="3">
-        <v>2.0499999999999998</v>
+        <v>2.57</v>
       </c>
       <c r="H4" s="3">
-        <v>2.17</v>
+        <v>3.11</v>
       </c>
       <c r="I4" s="3">
-        <v>2.17</v>
+        <v>3.07</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
       <c r="L4" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.51</v>
       </c>
       <c r="M4" s="3">
-        <v>1.08</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="3">
-        <v>-1</v>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
+      <c r="D5" s="3">
+        <v>3</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>2.27</v>
+        <v>2.63</v>
       </c>
       <c r="G5" s="3">
-        <v>2.27</v>
+        <v>2.63</v>
       </c>
       <c r="H5" s="3">
-        <v>3.09</v>
+        <v>4.24</v>
       </c>
       <c r="I5" s="3">
-        <v>3.09</v>
+        <v>4.24</v>
       </c>
       <c r="J5" s="3">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="K5" s="3">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="L5" s="3">
-        <v>1.47</v>
+        <v>1.79</v>
       </c>
       <c r="M5" s="3">
-        <v>1.47</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
-        <v>-1</v>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
+      <c r="D6" s="3">
+        <v>3</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.87</v>
       </c>
       <c r="G6" s="3">
-        <v>2.2999999999999998</v>
+        <v>3.17</v>
       </c>
       <c r="H6" s="3">
-        <v>3.09</v>
+        <v>4.24</v>
       </c>
       <c r="I6" s="3">
-        <v>3.05</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="L6" s="3">
-        <v>1.51</v>
+        <v>1.89</v>
       </c>
       <c r="M6" s="3">
-        <v>1.47</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -3861,40 +3941,40 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
+      <c r="D7" s="3">
+        <v>3</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>2.63</v>
+        <v>3.24</v>
       </c>
       <c r="G7" s="3">
-        <v>2.63</v>
+        <v>3.24</v>
       </c>
       <c r="H7" s="3">
-        <v>4.24</v>
+        <v>5.28</v>
       </c>
       <c r="I7" s="3">
-        <v>4.24</v>
+        <v>5.28</v>
       </c>
       <c r="J7" s="3">
-        <v>1.46</v>
+        <v>1.87</v>
       </c>
       <c r="K7" s="3">
-        <v>1.46</v>
+        <v>1.87</v>
       </c>
       <c r="L7" s="3">
-        <v>1.79</v>
+        <v>1.97</v>
       </c>
       <c r="M7" s="3">
-        <v>1.79</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -3902,666 +3982,470 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2.42</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3.84</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5.17</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5.07</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.41</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" ref="F12:I16" si="0">F3-J3</f>
+        <v>1.05</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.05</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6199999999999999</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6199999999999999</v>
+      </c>
+      <c r="J12" s="12">
+        <v>2.18E-2</v>
+      </c>
+      <c r="K12" s="12">
+        <v>2.18E-2</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0.191</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0.191</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0.309</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0.309</v>
+      </c>
+      <c r="P12" s="12">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.37</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3699999999999999</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6099999999999999</v>
+      </c>
+      <c r="J13" s="12">
+        <v>5.21E-2</v>
+      </c>
+      <c r="K13" s="12">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0.184</v>
+      </c>
+      <c r="M13" s="15">
+        <v>0.192</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="P13" s="12">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.17</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.17</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J14" s="12">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="K14" s="12">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="M14" s="15">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="P14" s="12">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.87</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8599999999999999</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3500000000000005</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3500000000000005</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="K15" s="12">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="M15" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="N15" s="12">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="P15" s="12">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="Q15" s="12">
         <v>1.35</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2.68</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3.99</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1.34</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1.89</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>0</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3.24</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3.24</v>
-      </c>
-      <c r="H9" s="3">
-        <v>5.28</v>
-      </c>
-      <c r="I9" s="3">
-        <v>5.28</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1.87</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1.87</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1.97</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1.61</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3.03</v>
-      </c>
-      <c r="H10" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="I10" s="3">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1.42</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2.16</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>0</v>
-      </c>
-      <c r="B15" s="3">
-        <v>-4</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" ref="F15:I21" si="0">F3-J3</f>
-        <v>1.0099999999999998</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0899999999999999</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="0"/>
-        <v>1.0899999999999999</v>
-      </c>
-      <c r="J15" s="12">
-        <v>2.1700000000000001E-3</v>
-      </c>
-      <c r="K15" s="12">
-        <v>2.16E-3</v>
-      </c>
-      <c r="L15" s="12">
-        <v>3.8600000000000002E-2</v>
-      </c>
-      <c r="M15" s="13">
-        <v>3.8600000000000002E-2</v>
-      </c>
-      <c r="N15" s="12">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="O15" s="12">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="P15" s="12">
-        <v>4.3600000000000002E-3</v>
-      </c>
-      <c r="Q15" s="12">
-        <v>8.3599999999999994E-2</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3">
-        <v>-4</v>
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>24</v>
+      <c r="D16" s="3">
+        <v>3</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>1.0099999999999998</v>
+        <v>1.37</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="0"/>
-        <v>1.0799999999999998</v>
+        <v>3.3100000000000005</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="0"/>
-        <v>1.0899999999999999</v>
+        <v>3.3100000000000005</v>
       </c>
       <c r="J16" s="12">
-        <v>6.11E-3</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="K16" s="12">
-        <v>2.15E-3</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="L16" s="12">
-        <v>3.8199999999999998E-2</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="M16" s="15">
-        <v>3.85E-2</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="N16" s="12">
-        <v>4.1599999999999998E-2</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="O16" s="12">
-        <v>4.3900000000000002E-2</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="P16" s="12">
-        <v>8.3400000000000002E-3</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="Q16" s="12">
-        <v>8.3099999999999993E-2</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>0</v>
-      </c>
-      <c r="B17" s="3">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>24</v>
+      <c r="D17" s="3">
+        <v>3</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="0"/>
-        <v>1.05</v>
+        <f t="shared" ref="F17" si="1">F8-J8</f>
+        <v>2.42</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="0"/>
-        <v>1.05</v>
+        <f t="shared" ref="G17:I17" si="2">G8-K8</f>
+        <v>2.4299999999999997</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6199999999999999</v>
+        <f t="shared" si="2"/>
+        <v>3.01</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6199999999999999</v>
+        <f t="shared" si="2"/>
+        <v>3.0100000000000002</v>
       </c>
       <c r="J17" s="12">
-        <v>2.18E-2</v>
+        <v>0.245</v>
       </c>
       <c r="K17" s="12">
-        <v>2.18E-2</v>
+        <v>5.96E-2</v>
       </c>
       <c r="L17" s="12">
-        <v>0.191</v>
+        <v>0.317</v>
       </c>
       <c r="M17" s="15">
-        <v>0.191</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="N17" s="12">
-        <v>0.309</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="O17" s="12">
-        <v>0.309</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="P17" s="12">
-        <v>4.5600000000000002E-2</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="Q17" s="12">
-        <v>0.621</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0899999999999999</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="0"/>
-        <v>1.5799999999999998</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5799999999999998</v>
-      </c>
-      <c r="J18" s="12">
-        <v>6.6900000000000001E-2</v>
-      </c>
-      <c r="K18" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="L18" s="12">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="M18" s="15">
-        <v>0.189</v>
-      </c>
-      <c r="N18" s="12">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="O18" s="12">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="P18" s="12">
-        <v>9.5100000000000004E-2</v>
-      </c>
-      <c r="Q18" s="12">
-        <v>0.58699999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="0"/>
-        <v>1.17</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="0"/>
-        <v>1.17</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="0"/>
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="J19" s="12">
-        <v>7.4300000000000005E-2</v>
-      </c>
-      <c r="K19" s="12">
-        <v>7.4300000000000005E-2</v>
-      </c>
-      <c r="L19" s="12">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="M19" s="15">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="N19" s="12">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="O19" s="12">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="P19" s="12">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="Q19" s="12">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" si="0"/>
-        <v>1.35</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="0"/>
-        <v>1.34</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="0"/>
-        <v>2.21</v>
-      </c>
-      <c r="I20" s="4">
-        <f t="shared" si="0"/>
-        <v>2.21</v>
-      </c>
-      <c r="J20" s="12">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="K20" s="12">
-        <v>5.3499999999999999E-2</v>
-      </c>
-      <c r="L20" s="12">
-        <v>0.26</v>
-      </c>
-      <c r="M20" s="15">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="N20" s="12">
-        <v>0.49</v>
-      </c>
-      <c r="O20" s="12">
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="P20" s="12">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="Q20" s="12">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>0</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="0"/>
-        <v>1.37</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="0"/>
-        <v>1.37</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="0"/>
-        <v>3.3100000000000005</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="0"/>
-        <v>3.3100000000000005</v>
-      </c>
-      <c r="J21" s="12">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="K21" s="12">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="L21" s="12">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="M21" s="15">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="N21" s="12">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="O21" s="12">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="P21" s="12">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="Q21" s="12">
-        <v>2.31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" ref="F22" si="1">F10-J10</f>
-        <v>1.61</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" ref="G22:I22" si="2">G10-K10</f>
-        <v>1.6099999999999999</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="2"/>
-        <v>2.54</v>
-      </c>
-      <c r="I22" s="4">
-        <f t="shared" si="2"/>
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="J22" s="12">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="K22" s="12">
-        <v>7.3400000000000007E-2</v>
-      </c>
-      <c r="L22" s="12">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="M22" s="15">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="N22" s="12">
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="O22" s="12">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="P22" s="12">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="Q22" s="12">
-        <v>1.54</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:Q10"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:M1"/>
   </mergeCells>
@@ -4573,30 +4457,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2896FF6-F821-4563-A05A-828FC5A9B491}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="A1:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -4655,16 +4539,16 @@
       <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="3">
         <v>2.17</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="3">
         <v>2.17</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="3">
         <v>2.04</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="3">
         <v>2.0499999999999998</v>
       </c>
       <c r="J3" s="3">
@@ -4696,17 +4580,17 @@
       <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="G4" s="8">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="H4" s="8">
-        <v>2.16</v>
-      </c>
-      <c r="I4" s="8">
-        <v>2.0299999999999998</v>
+      <c r="G4" s="3">
+        <v>2.23</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2.11</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
@@ -4715,10 +4599,10 @@
         <v>1.07</v>
       </c>
       <c r="L4" s="3">
-        <v>1.1599999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="M4" s="3">
-        <v>1.03</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -4726,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -4737,16 +4621,16 @@
       <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="3">
         <v>4</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="3">
         <v>4</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="3">
         <v>2.35</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="3">
         <v>2.34</v>
       </c>
       <c r="J5" s="3">
@@ -4767,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -4778,16 +4662,16 @@
       <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="8">
-        <v>3.1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="H6" s="8">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="F6" s="3">
+        <v>3.12</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.37</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4.08</v>
+      </c>
+      <c r="I6" s="3">
         <v>2.1800000000000002</v>
       </c>
       <c r="J6" s="3">
@@ -4797,7 +4681,7 @@
         <v>1.25</v>
       </c>
       <c r="L6" s="3">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="M6" s="3">
         <v>1.1499999999999999</v>
@@ -4808,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -4819,16 +4703,16 @@
       <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="3">
         <v>5.53</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="3">
         <v>5.53</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="3">
         <v>2.89</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="3">
         <v>2.89</v>
       </c>
       <c r="J7" s="3">
@@ -4849,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -4860,17 +4744,17 @@
       <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="8">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="G8" s="8">
-        <v>6.36</v>
-      </c>
-      <c r="H8" s="8">
-        <v>5.9</v>
-      </c>
-      <c r="I8" s="8">
-        <v>2.96</v>
+      <c r="F8" s="3">
+        <v>5.09</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6.38</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5.83</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2.97</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -4879,38 +4763,38 @@
         <v>1.3</v>
       </c>
       <c r="L8" s="3">
-        <v>4.79</v>
+        <v>4.72</v>
       </c>
       <c r="M8" s="3">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="19" t="s">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -4981,25 +4865,29 @@
       <c r="E12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="3">
+        <f t="shared" ref="F12:I17" si="0">F3-J3</f>
         <v>1.0899999999999999</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
         <v>1.0899999999999999</v>
       </c>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="10">
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
         <v>1.0099999999999998</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="24">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="25">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="25">
         <v>8.03E-4</v>
       </c>
       <c r="M12" s="13">
@@ -5034,41 +4922,45 @@
       <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
         <v>1.1599999999999999</v>
       </c>
-      <c r="G13" s="8">
-        <v>1.1500000000000001</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
         <v>0.99999999999999978</v>
       </c>
-      <c r="J13" s="12">
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="14">
         <v>0.1</v>
       </c>
-      <c r="K13" s="12">
-        <v>3.44E-2</v>
-      </c>
-      <c r="L13" s="12">
-        <v>6.7400000000000001E-4</v>
+      <c r="K13" s="26">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="L13" s="26">
+        <v>7.0299999999999996E-4</v>
       </c>
       <c r="M13" s="15">
-        <v>7.6199999999999998E-4</v>
+        <v>7.8600000000000002E-4</v>
       </c>
       <c r="N13" s="12">
-        <v>7.7799999999999994E-5</v>
+        <v>7.8200000000000003E-4</v>
       </c>
       <c r="O13" s="12">
-        <v>3.78E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="P13" s="12">
         <v>0.155</v>
       </c>
       <c r="Q13" s="12">
-        <v>1.4400000000000001E-3</v>
+        <v>1.49E-3</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -5076,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -5087,25 +4979,29 @@
       <c r="E14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
         <v>1.06</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
         <v>1.0499999999999998</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="14">
         <v>0.28199999999999997</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="26">
         <v>0.28199999999999997</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="26">
         <v>2.69E-2</v>
       </c>
       <c r="M14" s="15">
@@ -5129,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -5140,41 +5036,45 @@
       <c r="E15" s="4">
         <v>0</v>
       </c>
-      <c r="F15" s="8">
-        <v>3.1</v>
-      </c>
-      <c r="G15" s="8">
-        <v>3.1100000000000003</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1.0299999999999998</v>
-      </c>
-      <c r="I15" s="11">
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>3.12</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>3.12</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
         <v>1.0300000000000002</v>
       </c>
-      <c r="J15" s="12">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="K15" s="12">
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0300000000000002</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="K15" s="26">
         <v>0.15</v>
       </c>
-      <c r="L15" s="12">
-        <v>3.5799999999999998E-3</v>
+      <c r="L15" s="26">
+        <v>3.6800000000000001E-3</v>
       </c>
       <c r="M15" s="15">
-        <v>2.4299999999999999E-2</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="N15" s="12">
-        <v>1.11E-2</v>
+        <v>1.12E-2</v>
       </c>
       <c r="O15" s="12">
-        <v>0.217</v>
+        <v>0.216</v>
       </c>
       <c r="P15" s="12">
         <v>2.1</v>
       </c>
       <c r="Q15" s="12">
-        <v>2.87E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -5182,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -5193,25 +5093,29 @@
       <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
         <v>3.6000000000000005</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
         <v>3.6000000000000005</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
         <v>1.2300000000000002</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="4">
+        <f t="shared" si="0"/>
         <v>1.2300000000000002</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="14">
         <v>0.36099999999999999</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="26">
         <v>0.36099999999999999</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="26">
         <v>9.3100000000000002E-2</v>
       </c>
       <c r="M16" s="15">
@@ -5235,7 +5139,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -5246,41 +5150,45 @@
       <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="8">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="G17" s="8">
-        <v>5.0600000000000005</v>
-      </c>
-      <c r="H17" s="8">
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>5.09</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>5.08</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
         <v>1.1100000000000003</v>
       </c>
-      <c r="I17" s="11">
-        <v>1.1099999999999999</v>
-      </c>
-      <c r="J17" s="12">
-        <v>0.63</v>
-      </c>
-      <c r="K17" s="12">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="L17" s="12">
-        <v>4.9500000000000004E-3</v>
+      <c r="I17" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0.627</v>
+      </c>
+      <c r="K17" s="26">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="L17" s="26">
+        <v>5.45E-3</v>
       </c>
       <c r="M17" s="15">
-        <v>9.3799999999999994E-2</v>
+        <v>9.4899999999999998E-2</v>
       </c>
       <c r="N17" s="12">
-        <v>2.3699999999999999E-2</v>
+        <v>2.5700000000000001E-2</v>
       </c>
       <c r="O17" s="12">
-        <v>0.39700000000000002</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="P17" s="12">
         <v>4.0599999999999996</v>
       </c>
       <c r="Q17" s="12">
-        <v>0.11</v>
+        <v>0.112</v>
       </c>
     </row>
   </sheetData>
@@ -5298,32 +5206,32 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569A9F37-8820-4E6E-A7C1-833BCA1B8821}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -5371,40 +5279,40 @@
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>24</v>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3</v>
       </c>
       <c r="F3" s="3">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.16</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3.24</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="K3" s="3">
         <v>2.0099999999999998</v>
       </c>
-      <c r="G3" s="3">
-        <v>2.13</v>
-      </c>
-      <c r="H3" s="3">
-        <v>2.11</v>
-      </c>
-      <c r="I3" s="3">
-        <v>2.31</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1.1200000000000001</v>
-      </c>
       <c r="L3" s="3">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M3" s="3">
-        <v>1.21</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -5412,122 +5320,122 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>24</v>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
       </c>
       <c r="F4" s="3">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="G4" s="3">
-        <v>2.11</v>
+        <v>3.25</v>
       </c>
       <c r="H4" s="3">
-        <v>2.12</v>
+        <v>3.31</v>
       </c>
       <c r="I4" s="3">
-        <v>2.31</v>
+        <v>4.84</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.95</v>
       </c>
       <c r="L4" s="3">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M4" s="3">
-        <v>1.21</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="3">
-        <v>-1</v>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
       </c>
       <c r="F5" s="3">
-        <v>2.2400000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="G5" s="3">
-        <v>3.16</v>
+        <v>4.03</v>
       </c>
       <c r="H5" s="3">
-        <v>3.24</v>
+        <v>4.12</v>
       </c>
       <c r="I5" s="3">
-        <v>4.8600000000000003</v>
+        <v>6.08</v>
       </c>
       <c r="J5" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="K5" s="3">
-        <v>2.0099999999999998</v>
+        <v>2.74</v>
       </c>
       <c r="L5" s="3">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="M5" s="3">
-        <v>2.81</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
-        <v>-1</v>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
       </c>
       <c r="F6" s="3">
-        <v>1.18</v>
+        <v>1.63</v>
       </c>
       <c r="G6" s="3">
-        <v>3.15</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="H6" s="3">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5.98</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="M6" s="3">
         <v>3.28</v>
-      </c>
-      <c r="I6" s="3">
-        <v>4.83</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1.97</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1.27</v>
-      </c>
-      <c r="M6" s="3">
-        <v>2.82</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -5535,40 +5443,40 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>24</v>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
       </c>
       <c r="F7" s="3">
-        <v>2.5</v>
+        <v>2.76</v>
       </c>
       <c r="G7" s="3">
-        <v>4.03</v>
+        <v>4.78</v>
       </c>
       <c r="H7" s="3">
-        <v>4.12</v>
+        <v>4.8</v>
       </c>
       <c r="I7" s="3">
-        <v>6.08</v>
+        <v>6.87</v>
       </c>
       <c r="J7" s="3">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="K7" s="3">
-        <v>2.74</v>
+        <v>3.39</v>
       </c>
       <c r="L7" s="3">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="M7" s="3">
-        <v>3.28</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -5576,701 +5484,505 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.87</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4.58</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4.62</v>
+      </c>
+      <c r="I8" s="3">
+        <v>6.58</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2.71</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.56</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" ref="F12:I16" si="0">F3-J3</f>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1500000000000004</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0500000000000003</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0500000000000003</v>
+      </c>
+      <c r="J12" s="24">
+        <v>1.41E-2</v>
+      </c>
+      <c r="K12" s="25">
+        <v>0.113</v>
+      </c>
+      <c r="L12" s="25">
+        <v>0.104</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="O12" s="12">
+        <v>1.38</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>2.04</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J13" s="14">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="K13" s="26">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="L13" s="26">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="M13" s="15">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0.121</v>
+      </c>
+      <c r="O13" s="12">
+        <v>1.36</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1.39</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3.87</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="I8" s="3">
-        <v>5.89</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1.47</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>0</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2.76</v>
-      </c>
-      <c r="G9" s="3">
-        <v>4.78</v>
-      </c>
-      <c r="H9" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="I9" s="3">
-        <v>6.87</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1.37</v>
-      </c>
-      <c r="K9" s="3">
-        <v>3.39</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1.39</v>
-      </c>
-      <c r="M9" s="3">
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1.53</v>
-      </c>
-      <c r="G10" s="3">
-        <v>4.26</v>
-      </c>
-      <c r="H10" s="3">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="I10" s="3">
-        <v>6.34</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>2.73</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="M10" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>0</v>
-      </c>
-      <c r="B15" s="3">
-        <v>-6</v>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.29</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.29</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="J14" s="14">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="K14" s="26">
+        <v>0.184</v>
+      </c>
+      <c r="L14" s="26">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="M14" s="15">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="O14" s="12">
+        <v>2.06</v>
+      </c>
+      <c r="P14" s="12">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>24</v>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" ref="F15:I21" si="0">F3-J3</f>
-        <v>1.0099999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1.63</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>1.0099999999999998</v>
+        <v>1.6299999999999994</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="0"/>
-        <v>1.0999999999999999</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J15" s="12">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="K15" s="12">
-        <v>5.3299999999999997E-3</v>
-      </c>
-      <c r="L15" s="12">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="M15" s="13">
-        <v>8.8400000000000006E-2</v>
+        <v>2.6899999999999995</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7000000000000006</v>
+      </c>
+      <c r="J15" s="14">
+        <v>9.1700000000000004E-2</v>
+      </c>
+      <c r="K15" s="26">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="L15" s="26">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="M15" s="15">
+        <v>0.48</v>
       </c>
       <c r="N15" s="12">
-        <v>5.7499999999999999E-3</v>
+        <v>0.216</v>
       </c>
       <c r="O15" s="12">
-        <v>0.113</v>
+        <v>1.97</v>
       </c>
       <c r="P15" s="12">
-        <v>5.6600000000000001E-3</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="Q15" s="12">
-        <v>0.10299999999999999</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3">
-        <v>-6</v>
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>24</v>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>1.01</v>
+        <v>1.3899999999999997</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>1.0099999999999998</v>
+        <v>1.3900000000000001</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="0"/>
-        <v>1.1100000000000001</v>
+        <v>3.41</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J16" s="12">
-        <v>8.1599999999999999E-4</v>
-      </c>
-      <c r="K16" s="12">
-        <v>5.4099999999999999E-3</v>
-      </c>
-      <c r="L16" s="12">
-        <v>5.3699999999999998E-3</v>
+        <v>3.4</v>
+      </c>
+      <c r="J16" s="14">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="K16" s="26">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="L16" s="26">
+        <v>0.20100000000000001</v>
       </c>
       <c r="M16" s="15">
-        <v>8.8300000000000003E-2</v>
+        <v>0.505</v>
       </c>
       <c r="N16" s="12">
-        <v>5.45E-3</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="O16" s="12">
-        <v>0.113</v>
+        <v>2.44</v>
       </c>
       <c r="P16" s="12">
-        <v>6.2599999999999999E-3</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="Q16" s="12">
-        <v>0.10299999999999999</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>0</v>
-      </c>
-      <c r="B17" s="3">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>24</v>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1500000000000001</v>
+        <f t="shared" ref="F17" si="1">F8-J8</f>
+        <v>1.87</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1500000000000004</v>
+        <f t="shared" ref="G17:I17" si="2">G8-K8</f>
+        <v>1.87</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="0"/>
-        <v>2.0500000000000003</v>
+        <f t="shared" si="2"/>
+        <v>3.06</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="0"/>
-        <v>2.0500000000000003</v>
-      </c>
-      <c r="J17" s="12">
-        <v>1.41E-2</v>
-      </c>
-      <c r="K17" s="12">
-        <v>0.113</v>
-      </c>
-      <c r="L17" s="12">
-        <v>0.104</v>
+        <f t="shared" si="2"/>
+        <v>3.0500000000000003</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="K17" s="26">
+        <v>0.182</v>
+      </c>
+      <c r="L17" s="26">
+        <v>0.17599999999999999</v>
       </c>
       <c r="M17" s="15">
-        <v>0.40899999999999997</v>
+        <v>0.496</v>
       </c>
       <c r="N17" s="12">
-        <v>0.13900000000000001</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="O17" s="12">
-        <v>1.38</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="P17" s="12">
-        <v>0.14499999999999999</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="Q17" s="12">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="0"/>
-        <v>1.18</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="0"/>
-        <v>1.18</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="0"/>
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="0"/>
-        <v>2.0100000000000002</v>
-      </c>
-      <c r="J18" s="12">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="K18" s="12">
-        <v>0.11</v>
-      </c>
-      <c r="L18" s="12">
-        <v>9.5899999999999999E-2</v>
-      </c>
-      <c r="M18" s="15">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="N18" s="12">
-        <v>0.122</v>
-      </c>
-      <c r="O18" s="12">
-        <v>1.36</v>
-      </c>
-      <c r="P18" s="12">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="Q18" s="12">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="0"/>
-        <v>1.29</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="0"/>
-        <v>1.29</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="0"/>
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="J19" s="12">
-        <v>4.2599999999999999E-2</v>
-      </c>
-      <c r="K19" s="12">
-        <v>0.184</v>
-      </c>
-      <c r="L19" s="12">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="M19" s="15">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="N19" s="12">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="O19" s="12">
-        <v>2.06</v>
-      </c>
-      <c r="P19" s="12">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="Q19" s="12">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" si="0"/>
-        <v>1.39</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="0"/>
-        <v>2.59</v>
-      </c>
-      <c r="I20" s="4">
-        <f t="shared" si="0"/>
-        <v>2.59</v>
-      </c>
-      <c r="J20" s="12">
-        <v>0.105</v>
-      </c>
-      <c r="K20" s="12">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="L20" s="12">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="M20" s="15">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="N20" s="12">
-        <v>0.215</v>
-      </c>
-      <c r="O20" s="12">
-        <v>1.98</v>
-      </c>
-      <c r="P20" s="12">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="Q20" s="12">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>0</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="0"/>
-        <v>1.3899999999999997</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="0"/>
-        <v>1.3900000000000001</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="0"/>
-        <v>3.41</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="0"/>
-        <v>3.4</v>
-      </c>
-      <c r="J21" s="12">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="K21" s="12">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="L21" s="12">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="M21" s="15">
-        <v>0.505</v>
-      </c>
-      <c r="N21" s="12">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="O21" s="12">
-        <v>2.44</v>
-      </c>
-      <c r="P21" s="12">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="Q21" s="12">
-        <v>2.41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" ref="F22" si="1">F10-J10</f>
-        <v>1.53</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" ref="G22:I22" si="2">G10-K10</f>
-        <v>1.5299999999999998</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="2"/>
-        <v>2.8400000000000003</v>
-      </c>
-      <c r="I22" s="4">
-        <f t="shared" si="2"/>
-        <v>2.84</v>
-      </c>
-      <c r="J22" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="K22" s="12">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="L22" s="12">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="M22" s="15">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="N22" s="12">
-        <v>0.26</v>
-      </c>
-      <c r="O22" s="12">
-        <v>2.23</v>
-      </c>
-      <c r="P22" s="12">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="Q22" s="12">
-        <v>1.84</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="N10:Q10"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:M1"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C616BDE-B409-43D5-9EE7-28FA6BC47DE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0449105-9551-4E92-BB2F-297ECBF84F5A}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -6324,34 +6036,34 @@
         <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E3" s="4">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3">
         <v>2.39</v>
       </c>
       <c r="G3" s="3">
-        <v>2.04</v>
+        <v>3.1</v>
       </c>
       <c r="H3" s="3">
-        <v>3.1</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="I3" s="3">
         <v>2.39</v>
       </c>
       <c r="J3" s="3">
+        <v>1.04</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.74</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="M3" s="3">
         <v>1.36</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="L3" s="3">
-        <v>1.74</v>
-      </c>
-      <c r="M3" s="3">
-        <v>1.04</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -6365,34 +6077,34 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E4" s="4">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.41</v>
       </c>
       <c r="G4" s="3">
-        <v>2.0699999999999998</v>
+        <v>3.09</v>
       </c>
       <c r="H4" s="3">
-        <v>3.09</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="I4" s="3">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>0.97699999999999998</v>
+        <v>1.68</v>
       </c>
       <c r="L4" s="3">
-        <v>1.76</v>
+        <v>1.41</v>
       </c>
       <c r="M4" s="3">
-        <v>1.04</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -6406,34 +6118,34 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E5" s="4">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3">
+        <v>3.03</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.51</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I5" s="3">
         <v>2.97</v>
       </c>
-      <c r="G5" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H5" s="3">
-        <v>4.51</v>
-      </c>
-      <c r="I5" s="3">
-        <v>3.03</v>
-      </c>
       <c r="J5" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2.63</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M5" s="3">
         <v>1.86</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="L5" s="3">
-        <v>2.63</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -6447,34 +6159,34 @@
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E6" s="4">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F6" s="3">
-        <v>1.43</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G6" s="3">
-        <v>2.52</v>
-      </c>
-      <c r="H6" s="3">
-        <v>4.34</v>
+        <v>4.42</v>
+      </c>
+      <c r="H6" s="27">
+        <v>3.16</v>
       </c>
       <c r="I6" s="3">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>1.0900000000000001</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="L6" s="3">
-        <v>2.69</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="M6" s="3">
-        <v>1.1499999999999999</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -6488,34 +6200,34 @@
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E7" s="4">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F7" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6.18</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="I7" s="3">
         <v>4.1100000000000003</v>
       </c>
-      <c r="G7" s="3">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="H7" s="3">
-        <v>6.17</v>
-      </c>
-      <c r="I7" s="3">
-        <v>4.2</v>
-      </c>
       <c r="J7" s="3">
+        <v>1.33</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3.31</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.22</v>
+      </c>
+      <c r="M7" s="3">
         <v>2.81</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1.22</v>
-      </c>
-      <c r="L7" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1.33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -6529,62 +6241,62 @@
         <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E8" s="4">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F8" s="3">
-        <v>2.0099999999999998</v>
+        <v>3.6</v>
       </c>
       <c r="G8" s="3">
-        <v>3.13</v>
+        <v>6.16</v>
       </c>
       <c r="H8" s="3">
-        <v>5.47</v>
+        <v>4.43</v>
       </c>
       <c r="I8" s="3">
+        <v>4.07</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2.56</v>
+      </c>
+      <c r="L8" s="3">
         <v>3.21</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="L8" s="3">
-        <v>3.62</v>
-      </c>
       <c r="M8" s="3">
-        <v>1.36</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="19" t="s">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -6650,46 +6362,50 @@
         <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E12" s="4">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F12" s="3">
+        <f t="shared" ref="F12:I17" si="0">F3-J3</f>
+        <v>1.35</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.36</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0199999999999998</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
         <v>1.03</v>
       </c>
-      <c r="G12" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1.36</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1.35</v>
-      </c>
-      <c r="J12" s="12">
+      <c r="J12" s="24">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K12" s="25">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="L12" s="25">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="M12" s="13">
         <v>2.41E-2</v>
       </c>
-      <c r="K12" s="12">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="L12" s="12">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="M12" s="13">
-        <v>2.4E-2</v>
-      </c>
       <c r="N12" s="12">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="O12" s="12">
         <v>0.44700000000000001</v>
       </c>
-      <c r="O12" s="12">
-        <v>2.6599999999999999E-2</v>
-      </c>
       <c r="P12" s="12">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="Q12" s="12">
         <v>2.64E-2</v>
-      </c>
-      <c r="Q12" s="12">
-        <v>0.35399999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -6703,46 +6419,50 @@
         <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E13" s="4">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F13" s="3">
-        <v>1.0900000000000001</v>
+        <f t="shared" si="0"/>
+        <v>1.41</v>
       </c>
       <c r="G13" s="3">
-        <v>1.093</v>
+        <f t="shared" si="0"/>
+        <v>1.41</v>
       </c>
       <c r="H13" s="3">
-        <v>1.3299999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1.0200000000000002</v>
       </c>
       <c r="I13" s="4">
-        <v>1.3199999999999998</v>
-      </c>
-      <c r="J13" s="12">
-        <v>8.2600000000000007E-2</v>
-      </c>
-      <c r="K13" s="12">
+        <f t="shared" si="0"/>
+        <v>1.03</v>
+      </c>
+      <c r="J13" s="14">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="K13" s="26">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="L13" s="26">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="M13" s="15">
+        <v>2.41E-2</v>
+      </c>
+      <c r="N13" s="12">
         <v>1.5499999999999999E-3</v>
       </c>
-      <c r="L13" s="12">
-        <v>0.224</v>
-      </c>
-      <c r="M13" s="15">
-        <v>2.3099999999999999E-2</v>
-      </c>
-      <c r="N13" s="12">
-        <v>0.39500000000000002</v>
-      </c>
       <c r="O13" s="12">
-        <v>2.5499999999999998E-2</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="P13" s="12">
-        <v>9.1800000000000007E-2</v>
+        <v>0.41</v>
       </c>
       <c r="Q13" s="12">
-        <v>0.32800000000000001</v>
+        <v>2.58E-2</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -6756,46 +6476,50 @@
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E14" s="4">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.88</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.88</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
         <v>1.1100000000000001</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
         <v>1.1100000000000001</v>
       </c>
-      <c r="H14" s="3">
-        <v>1.88</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1.88</v>
-      </c>
-      <c r="J14" s="12">
+      <c r="J14" s="14">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="K14" s="26">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="L14" s="26">
+        <v>9.5200000000000007E-3</v>
+      </c>
+      <c r="M14" s="15">
         <v>8.9300000000000004E-2</v>
       </c>
-      <c r="K14" s="12">
-        <v>9.5300000000000003E-3</v>
-      </c>
-      <c r="L14" s="12">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="M14" s="15">
-        <v>8.3799999999999999E-2</v>
-      </c>
       <c r="N14" s="12">
+        <v>0.107</v>
+      </c>
+      <c r="O14" s="12">
         <v>1.18</v>
       </c>
-      <c r="O14" s="12">
-        <v>0.107</v>
-      </c>
       <c r="P14" s="12">
+        <v>0.879</v>
+      </c>
+      <c r="Q14" s="12">
         <v>0.11</v>
-      </c>
-      <c r="Q14" s="12">
-        <v>0.878</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -6809,46 +6533,50 @@
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E15" s="4">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F15" s="3">
-        <v>1.43</v>
+        <f t="shared" si="0"/>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G15" s="3">
-        <v>1.43</v>
+        <f t="shared" si="0"/>
+        <v>2.16</v>
       </c>
       <c r="H15" s="3">
-        <v>1.65</v>
+        <f t="shared" si="0"/>
+        <v>1.1100000000000003</v>
       </c>
       <c r="I15" s="4">
-        <v>1.65</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="K15" s="12">
-        <v>4.9300000000000004E-3</v>
-      </c>
-      <c r="L15" s="12">
-        <v>0.32</v>
+        <f t="shared" si="0"/>
+        <v>1.1099999999999999</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="K15" s="26">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="L15" s="26">
+        <v>3.1700000000000001E-3</v>
       </c>
       <c r="M15" s="15">
-        <v>7.46E-2</v>
+        <v>8.9399999999999993E-2</v>
       </c>
       <c r="N15" s="12">
-        <v>0.86099999999999999</v>
+        <v>6.5100000000000002E-3</v>
       </c>
       <c r="O15" s="12">
-        <v>9.0899999999999995E-2</v>
+        <v>0.97</v>
       </c>
       <c r="P15" s="12">
-        <v>0.42699999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q15" s="12">
-        <v>0.65200000000000002</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -6862,46 +6590,50 @@
         <v>1</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E16" s="4">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>2.87</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8699999999999997</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3099999999999998</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="0"/>
         <v>1.3000000000000003</v>
       </c>
-      <c r="G16" s="3">
-        <v>1.3099999999999998</v>
-      </c>
-      <c r="H16" s="3">
-        <v>2.87</v>
-      </c>
-      <c r="I16" s="4">
-        <v>2.87</v>
-      </c>
-      <c r="J16" s="12">
+      <c r="J16" s="14">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="K16" s="26">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="L16" s="26">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="M16" s="15">
         <v>0.188</v>
       </c>
-      <c r="K16" s="12">
-        <v>4.5600000000000002E-2</v>
-      </c>
-      <c r="L16" s="12">
-        <v>0.48</v>
-      </c>
-      <c r="M16" s="15">
-        <v>0.17199999999999999</v>
-      </c>
       <c r="N16" s="12">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="O16" s="12">
         <v>2.11</v>
       </c>
-      <c r="O16" s="12">
-        <v>0.28499999999999998</v>
-      </c>
       <c r="P16" s="12">
+        <v>1.87</v>
+      </c>
+      <c r="Q16" s="12">
         <v>0.30499999999999999</v>
-      </c>
-      <c r="Q16" s="12">
-        <v>1.87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -6915,46 +6647,50 @@
         <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E17" s="4">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3">
-        <v>2.0099999999999998</v>
+        <f t="shared" si="0"/>
+        <v>3.6</v>
       </c>
       <c r="G17" s="3">
-        <v>2.0099999999999998</v>
+        <f t="shared" si="0"/>
+        <v>3.6</v>
       </c>
       <c r="H17" s="3">
-        <v>1.8499999999999996</v>
+        <f t="shared" si="0"/>
+        <v>1.2199999999999998</v>
       </c>
       <c r="I17" s="4">
-        <v>1.8499999999999999</v>
-      </c>
-      <c r="J17" s="12">
-        <v>0.495</v>
-      </c>
-      <c r="K17" s="12">
-        <v>8.0499999999999999E-3</v>
-      </c>
-      <c r="L17" s="12">
-        <v>0.311</v>
+        <f t="shared" si="0"/>
+        <v>1.2300000000000004</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="K17" s="26">
+        <v>0.436</v>
+      </c>
+      <c r="L17" s="26">
+        <v>6.0499999999999998E-3</v>
       </c>
       <c r="M17" s="15">
-        <v>0.14899999999999999</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="N17" s="12">
-        <v>1.1299999999999999</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="O17" s="12">
-        <v>0.21099999999999999</v>
+        <v>1.61</v>
       </c>
       <c r="P17" s="12">
-        <v>1.01</v>
+        <v>2.58</v>
       </c>
       <c r="Q17" s="12">
-        <v>0.85299999999999998</v>
+        <v>0.221</v>
       </c>
     </row>
   </sheetData>
@@ -6971,33 +6707,33 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0449105-9551-4E92-BB2F-297ECBF84F5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C616BDE-B409-43D5-9EE7-28FA6BC47DE1}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="A1:XFD1048576"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -7051,34 +6787,34 @@
         <v>1</v>
       </c>
       <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4">
         <v>-3</v>
-      </c>
-      <c r="E3" s="4">
-        <v>3</v>
       </c>
       <c r="F3" s="3">
         <v>2.39</v>
       </c>
       <c r="G3" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="H3" s="3">
         <v>3.1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>2.0499999999999998</v>
       </c>
       <c r="I3" s="3">
         <v>2.39</v>
       </c>
       <c r="J3" s="3">
+        <v>1.36</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.74</v>
+      </c>
+      <c r="M3" s="3">
         <v>1.04</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1.74</v>
-      </c>
-      <c r="L3" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="M3" s="3">
-        <v>1.36</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -7092,34 +6828,34 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
         <v>-3</v>
       </c>
-      <c r="E4" s="4">
-        <v>3</v>
-      </c>
       <c r="F4" s="3">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="G4" s="3">
-        <v>3.09</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2.4300000000000002</v>
+        <v>3.75</v>
+      </c>
+      <c r="H4" s="27">
+        <v>3.11</v>
       </c>
       <c r="I4" s="3">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>1.68</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="L4" s="3">
-        <v>1.41</v>
+        <v>1.77</v>
       </c>
       <c r="M4" s="3">
-        <v>1.32</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -7133,34 +6869,34 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
         <v>-3</v>
       </c>
-      <c r="E5" s="4">
-        <v>3</v>
-      </c>
       <c r="F5" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.51</v>
+      </c>
+      <c r="I5" s="3">
         <v>3.03</v>
       </c>
-      <c r="G5" s="3">
-        <v>4.51</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I5" s="3">
-        <v>2.97</v>
-      </c>
       <c r="J5" s="3">
+        <v>1.86</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2.63</v>
+      </c>
+      <c r="M5" s="3">
         <v>1.1499999999999999</v>
-      </c>
-      <c r="K5" s="3">
-        <v>2.63</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1.86</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -7174,34 +6910,34 @@
         <v>1</v>
       </c>
       <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
         <v>-3</v>
       </c>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
       <c r="F6" s="3">
-        <v>2.15</v>
+        <v>2.34</v>
       </c>
       <c r="G6" s="3">
-        <v>4.42</v>
+        <v>3.4</v>
       </c>
       <c r="H6" s="3">
-        <v>3.15</v>
+        <v>4.51</v>
       </c>
       <c r="I6" s="3">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>2.27</v>
+        <v>1.07</v>
       </c>
       <c r="L6" s="3">
-        <v>2.0499999999999998</v>
+        <v>2.72</v>
       </c>
       <c r="M6" s="3">
-        <v>1.72</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -7215,34 +6951,34 @@
         <v>1</v>
       </c>
       <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
         <v>-3</v>
       </c>
-      <c r="E7" s="4">
-        <v>3</v>
-      </c>
       <c r="F7" s="3">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6.17</v>
+      </c>
+      <c r="I7" s="3">
         <v>4.2</v>
       </c>
-      <c r="G7" s="3">
-        <v>6.18</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="I7" s="3">
-        <v>4.1100000000000003</v>
-      </c>
       <c r="J7" s="3">
+        <v>2.81</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1.22</v>
+      </c>
+      <c r="L7" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="M7" s="3">
         <v>1.33</v>
-      </c>
-      <c r="K7" s="3">
-        <v>3.31</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1.22</v>
-      </c>
-      <c r="M7" s="3">
-        <v>2.81</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -7256,62 +6992,62 @@
         <v>1</v>
       </c>
       <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4">
         <v>-3</v>
       </c>
-      <c r="E8" s="4">
-        <v>3</v>
-      </c>
       <c r="F8" s="3">
-        <v>3.57</v>
+        <v>3.56</v>
       </c>
       <c r="G8" s="3">
-        <v>6.13</v>
+        <v>4.7</v>
       </c>
       <c r="H8" s="3">
-        <v>4.4800000000000004</v>
+        <v>6.12</v>
       </c>
       <c r="I8" s="3">
-        <v>4.0599999999999996</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>2.56</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L8" s="3">
-        <v>3.26</v>
+        <v>3.53</v>
       </c>
       <c r="M8" s="3">
-        <v>2.84</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="19" t="s">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -7377,46 +7113,50 @@
         <v>1</v>
       </c>
       <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4">
         <v>-3</v>
       </c>
-      <c r="E12" s="4">
-        <v>3</v>
-      </c>
       <c r="F12" s="3">
+        <f t="shared" ref="F12:I17" si="0">F3-J3</f>
+        <v>1.03</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.03</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.36</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
         <v>1.35</v>
       </c>
-      <c r="G12" s="3">
-        <v>1.36</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1.0199999999999998</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1.03</v>
-      </c>
-      <c r="J12" s="12">
+      <c r="J12" s="24">
+        <v>2.41E-2</v>
+      </c>
+      <c r="K12" s="25">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="L12" s="25">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="M12" s="13">
         <v>2.4E-2</v>
       </c>
-      <c r="K12" s="12">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="L12" s="12">
-        <v>1.6800000000000001E-3</v>
-      </c>
-      <c r="M12" s="13">
-        <v>2.41E-2</v>
-      </c>
       <c r="N12" s="12">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="O12" s="12">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="O12" s="12">
-        <v>0.44700000000000001</v>
-      </c>
       <c r="P12" s="12">
+        <v>2.64E-2</v>
+      </c>
+      <c r="Q12" s="12">
         <v>0.35399999999999998</v>
-      </c>
-      <c r="Q12" s="12">
-        <v>2.64E-2</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -7430,46 +7170,50 @@
         <v>1</v>
       </c>
       <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4">
         <v>-3</v>
       </c>
-      <c r="E13" s="4">
-        <v>3</v>
-      </c>
       <c r="F13" s="3">
-        <v>1.41</v>
+        <f t="shared" si="0"/>
+        <v>1.49</v>
       </c>
       <c r="G13" s="3">
-        <v>1.41</v>
+        <f t="shared" si="0"/>
+        <v>1.4900000000000002</v>
       </c>
       <c r="H13" s="3">
-        <v>1.0200000000000002</v>
+        <f t="shared" si="0"/>
+        <v>1.3399999999999999</v>
       </c>
       <c r="I13" s="4">
-        <v>1.03</v>
-      </c>
-      <c r="J13" s="12">
-        <v>6.1400000000000003E-2</v>
-      </c>
-      <c r="K13" s="12">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="L13" s="12">
-        <v>1.1000000000000001E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.33</v>
+      </c>
+      <c r="J13" s="14">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="K13" s="26">
+        <v>2.9700000000000001E-4</v>
+      </c>
+      <c r="L13" s="26">
+        <v>0.22800000000000001</v>
       </c>
       <c r="M13" s="15">
-        <v>2.41E-2</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="N13" s="12">
-        <v>1.5499999999999999E-3</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="O13" s="12">
-        <v>0.41799999999999998</v>
+        <v>2.6200000000000001E-2</v>
       </c>
       <c r="P13" s="12">
-        <v>0.41</v>
+        <v>8.5800000000000001E-2</v>
       </c>
       <c r="Q13" s="12">
-        <v>2.58E-2</v>
+        <v>0.32800000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -7483,46 +7227,50 @@
         <v>1</v>
       </c>
       <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4">
         <v>-3</v>
       </c>
-      <c r="E14" s="4">
-        <v>3</v>
-      </c>
       <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
         <v>1.88</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
         <v>1.88</v>
       </c>
-      <c r="H14" s="3">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="J14" s="12">
-        <v>9.3899999999999997E-2</v>
-      </c>
-      <c r="K14" s="12">
+      <c r="J14" s="14">
+        <v>8.9300000000000004E-2</v>
+      </c>
+      <c r="K14" s="26">
+        <v>9.5300000000000003E-3</v>
+      </c>
+      <c r="L14" s="26">
         <v>0.38400000000000001</v>
       </c>
-      <c r="L14" s="12">
-        <v>9.5200000000000007E-3</v>
-      </c>
       <c r="M14" s="15">
-        <v>8.9300000000000004E-2</v>
+        <v>8.3799999999999999E-2</v>
       </c>
       <c r="N14" s="12">
+        <v>1.18</v>
+      </c>
+      <c r="O14" s="12">
         <v>0.107</v>
       </c>
-      <c r="O14" s="12">
-        <v>1.18</v>
-      </c>
       <c r="P14" s="12">
-        <v>0.879</v>
+        <v>0.11</v>
       </c>
       <c r="Q14" s="12">
-        <v>0.11</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -7536,46 +7284,50 @@
         <v>1</v>
       </c>
       <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4">
         <v>-3</v>
       </c>
-      <c r="E15" s="4">
-        <v>3</v>
-      </c>
       <c r="F15" s="3">
-        <v>2.15</v>
+        <f t="shared" si="0"/>
+        <v>2.34</v>
       </c>
       <c r="G15" s="3">
-        <v>2.15</v>
+        <f t="shared" si="0"/>
+        <v>2.33</v>
       </c>
       <c r="H15" s="3">
-        <v>1.1000000000000001</v>
+        <f t="shared" si="0"/>
+        <v>1.7899999999999996</v>
       </c>
       <c r="I15" s="4">
-        <v>1.0999999999999999</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="K15" s="12">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="L15" s="12">
-        <v>3.1800000000000001E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.79</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0.155</v>
+      </c>
+      <c r="K15" s="26">
+        <v>2.66E-3</v>
+      </c>
+      <c r="L15" s="26">
+        <v>0.35699999999999998</v>
       </c>
       <c r="M15" s="15">
-        <v>8.8800000000000004E-2</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="N15" s="12">
-        <v>6.5199999999999998E-3</v>
+        <v>0.97</v>
       </c>
       <c r="O15" s="12">
-        <v>0.97199999999999998</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="P15" s="12">
-        <v>1.1499999999999999</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="Q15" s="12">
-        <v>0.10100000000000001</v>
+        <v>0.78700000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -7589,46 +7341,50 @@
         <v>1</v>
       </c>
       <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4">
         <v>-3</v>
       </c>
-      <c r="E16" s="4">
-        <v>3</v>
-      </c>
       <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3099999999999998</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
         <v>2.87</v>
       </c>
-      <c r="G16" s="3">
-        <v>2.8699999999999997</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1.3099999999999998</v>
-      </c>
       <c r="I16" s="4">
-        <v>1.3000000000000003</v>
-      </c>
-      <c r="J16" s="12">
+        <f t="shared" si="0"/>
+        <v>2.87</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.188</v>
+      </c>
+      <c r="K16" s="26">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="L16" s="26">
+        <v>0.48</v>
+      </c>
+      <c r="M16" s="15">
         <v>0.17199999999999999</v>
       </c>
-      <c r="K16" s="12">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="L16" s="12">
-        <v>4.5600000000000002E-2</v>
-      </c>
-      <c r="M16" s="15">
-        <v>0.188</v>
-      </c>
       <c r="N16" s="12">
+        <v>2.11</v>
+      </c>
+      <c r="O16" s="12">
         <v>0.28499999999999998</v>
       </c>
-      <c r="O16" s="12">
-        <v>2.11</v>
-      </c>
       <c r="P16" s="12">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="Q16" s="12">
         <v>1.87</v>
-      </c>
-      <c r="Q16" s="12">
-        <v>0.30499999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -7642,46 +7398,50 @@
         <v>1</v>
       </c>
       <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4">
         <v>-3</v>
       </c>
-      <c r="E17" s="4">
-        <v>3</v>
-      </c>
       <c r="F17" s="3">
-        <v>3.57</v>
+        <f t="shared" si="0"/>
+        <v>3.56</v>
       </c>
       <c r="G17" s="3">
-        <v>3.57</v>
+        <f t="shared" si="0"/>
+        <v>3.5600000000000005</v>
       </c>
       <c r="H17" s="3">
-        <v>1.2200000000000006</v>
+        <f t="shared" si="0"/>
+        <v>2.5900000000000003</v>
       </c>
       <c r="I17" s="4">
-        <v>1.2199999999999998</v>
-      </c>
-      <c r="J17" s="12">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999996</v>
+      </c>
+      <c r="J17" s="14">
         <v>0.28199999999999997</v>
       </c>
-      <c r="K17" s="12">
-        <v>0.438</v>
-      </c>
-      <c r="L17" s="12">
-        <v>5.6699999999999997E-3</v>
+      <c r="K17" s="26">
+        <v>4.47E-3</v>
+      </c>
+      <c r="L17" s="26">
+        <v>0.436</v>
       </c>
       <c r="M17" s="15">
-        <v>0.17399999999999999</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="N17" s="12">
-        <v>1.8499999999999999E-2</v>
+        <v>1.54</v>
       </c>
       <c r="O17" s="12">
-        <v>0.161</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="P17" s="12">
-        <v>2.57</v>
+        <v>1.02</v>
       </c>
       <c r="Q17" s="12">
-        <v>0.219</v>
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
@@ -7702,29 +7462,29 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -7783,28 +7543,28 @@
       <c r="E3" s="4">
         <v>-3</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="3">
         <v>2.14</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="3">
         <v>2.0499999999999998</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="3">
         <v>2.06</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="3">
         <v>1.98</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="3">
         <v>1.0900000000000001</v>
       </c>
-      <c r="K3" s="8">
-        <v>1</v>
-      </c>
-      <c r="L3" s="8">
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
         <v>1.06</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="3">
         <v>0.98199999999999998</v>
       </c>
     </row>
@@ -7824,29 +7584,29 @@
       <c r="E4" s="4">
         <v>-3</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="3">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="3">
+        <v>2.11</v>
+      </c>
+      <c r="H4" s="3">
         <v>2.13</v>
       </c>
-      <c r="H4" s="8">
-        <v>2.13</v>
-      </c>
-      <c r="I4" s="8">
-        <v>1.74</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
-        <v>1</v>
-      </c>
-      <c r="L4" s="8">
+      <c r="I4" s="3">
+        <v>3.02</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="L4" s="3">
         <v>1.1299999999999999</v>
       </c>
-      <c r="M4" s="8">
-        <v>0.73499999999999999</v>
+      <c r="M4" s="3">
+        <v>2.02</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -7854,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -7865,28 +7625,28 @@
       <c r="E5" s="4">
         <v>-3</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="3">
         <v>4.08</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="3">
         <v>2.81</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="3">
         <v>2.77</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="3">
         <v>2.16</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="3">
         <v>2.38</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="3">
         <v>1.1100000000000001</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="3">
         <v>1.7</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="3">
         <v>1.08</v>
       </c>
     </row>
@@ -7895,7 +7655,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -7906,28 +7666,28 @@
       <c r="E6" s="4">
         <v>-3</v>
       </c>
-      <c r="F6" s="8">
-        <v>2.98</v>
-      </c>
-      <c r="G6" s="8">
-        <v>4.01</v>
-      </c>
-      <c r="H6" s="8">
-        <v>4.07</v>
-      </c>
-      <c r="I6" s="8">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
+      <c r="F6" s="3">
+        <v>3.01</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.04</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4.04</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
         <v>1.03</v>
       </c>
-      <c r="L6" s="8">
-        <v>3.06</v>
-      </c>
-      <c r="M6" s="8">
+      <c r="L6" s="3">
+        <v>3.02</v>
+      </c>
+      <c r="M6" s="3">
         <v>1.04</v>
       </c>
     </row>
@@ -7936,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -7947,28 +7707,28 @@
       <c r="E7" s="4">
         <v>-3</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="3">
         <v>5.88</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="3">
         <v>3.96</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="3">
         <v>3.86</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="3">
         <v>2.4500000000000002</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="3">
         <v>3.22</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="3">
         <v>1.3</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="3">
         <v>2.59</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="3">
         <v>1.18</v>
       </c>
     </row>
@@ -7977,7 +7737,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -7988,57 +7748,57 @@
       <c r="E8" s="4">
         <v>-3</v>
       </c>
-      <c r="F8" s="8">
-        <v>5.2</v>
-      </c>
-      <c r="G8" s="8">
-        <v>6.24</v>
-      </c>
-      <c r="H8" s="8">
-        <v>6.39</v>
-      </c>
-      <c r="I8" s="8">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>1.04</v>
-      </c>
-      <c r="L8" s="8">
-        <v>5.34</v>
-      </c>
-      <c r="M8" s="8">
-        <v>1.23</v>
+      <c r="F8" s="3">
+        <v>5.27</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6.38</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="L8" s="3">
+        <v>5.14</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1.24</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="19" t="s">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -8109,25 +7869,29 @@
       <c r="E12" s="4">
         <v>-3</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="3">
+        <f t="shared" ref="F12:I17" si="0">F3-J3</f>
         <v>1.05</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
         <v>1.0499999999999998</v>
       </c>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="10">
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
         <v>0.998</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="24">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="25">
         <v>2.2499999999999998E-3</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="25">
         <v>2.2300000000000002E-3</v>
       </c>
       <c r="M12" s="13">
@@ -8162,41 +7926,45 @@
       <c r="E13" s="4">
         <v>-3</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
         <v>1.1200000000000001</v>
       </c>
-      <c r="G13" s="8">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1</v>
-      </c>
-      <c r="I13" s="11">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0.107</v>
-      </c>
-      <c r="K13" s="12">
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0.106</v>
+      </c>
+      <c r="K13" s="26">
+        <v>1.98E-3</v>
+      </c>
+      <c r="L13" s="26">
         <v>1.9400000000000001E-3</v>
       </c>
-      <c r="L13" s="12">
-        <v>1.9400000000000001E-3</v>
-      </c>
       <c r="M13" s="15">
-        <v>1.4300000000000001E-4</v>
+        <v>3.8500000000000001E-5</v>
       </c>
       <c r="N13" s="12">
         <v>2.1800000000000001E-3</v>
       </c>
       <c r="O13" s="12">
-        <v>2.0600000000000002E-3</v>
+        <v>2.0300000000000001E-3</v>
       </c>
       <c r="P13" s="12">
         <v>0.122</v>
       </c>
       <c r="Q13" s="12">
-        <v>2.0899999999999998E-3</v>
+        <v>1.98E-3</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -8204,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -8215,25 +7983,29 @@
       <c r="E14" s="4">
         <v>-3</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
         <v>1.7000000000000002</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
         <v>1.07</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
         <v>1.08</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="14">
         <v>0.34899999999999998</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="26">
         <v>6.2300000000000001E-2</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="26">
         <v>6.4500000000000002E-2</v>
       </c>
       <c r="M14" s="15">
@@ -8257,7 +8029,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -8268,41 +8040,45 @@
       <c r="E15" s="4">
         <v>-3</v>
       </c>
-      <c r="F15" s="8">
-        <v>2.98</v>
-      </c>
-      <c r="G15" s="8">
-        <v>2.9799999999999995</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1.0100000000000002</v>
-      </c>
-      <c r="I15" s="11">
-        <v>1.0099999999999998</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="K15" s="12">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="L15" s="12">
-        <v>1.09E-2</v>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>3.01</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>3.01</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.02</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
+        <v>1.02</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="K15" s="26">
+        <v>1.14E-2</v>
+      </c>
+      <c r="L15" s="26">
+        <v>1.15E-2</v>
       </c>
       <c r="M15" s="15">
-        <v>4.0800000000000003E-3</v>
+        <v>4.15E-3</v>
       </c>
       <c r="N15" s="12">
-        <v>3.32E-2</v>
+        <v>3.4799999999999998E-2</v>
       </c>
       <c r="O15" s="12">
-        <v>1.6199999999999999E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="P15" s="12">
         <v>1.98</v>
       </c>
       <c r="Q15" s="12">
-        <v>4.0800000000000003E-3</v>
+        <v>1.5900000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -8310,7 +8086,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -8321,25 +8097,29 @@
       <c r="E16" s="4">
         <v>-3</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
         <v>2.6599999999999997</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
         <v>2.66</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
         <v>1.27</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="4">
+        <f t="shared" si="0"/>
         <v>1.2700000000000002</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="14">
         <v>0.46600000000000003</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="26">
         <v>0.158</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="26">
         <v>0.17499999999999999</v>
       </c>
       <c r="M16" s="15">
@@ -8363,7 +8143,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -8374,41 +8154,45 @@
       <c r="E17" s="4">
         <v>-3</v>
       </c>
-      <c r="F17" s="8">
-        <v>5.2</v>
-      </c>
-      <c r="G17" s="8">
-        <v>5.2</v>
-      </c>
-      <c r="H17" s="8">
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="I17" s="11">
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="J17" s="12">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="K17" s="12">
-        <v>1.4E-2</v>
-      </c>
-      <c r="L17" s="12">
-        <v>1.2E-2</v>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>5.27</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>5.27</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0600000000000005</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0599999999999998</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="K17" s="26">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="L17" s="26">
+        <v>1.54E-2</v>
       </c>
       <c r="M17" s="15">
-        <v>3.6600000000000001E-2</v>
+        <v>3.78E-2</v>
       </c>
       <c r="N17" s="12">
-        <v>6.3899999999999998E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="O17" s="12">
-        <v>5.9400000000000001E-2</v>
+        <v>6.1199999999999997E-2</v>
       </c>
       <c r="P17" s="12">
-        <v>4.2</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="Q17" s="12">
-        <v>5.0999999999999997E-2</v>
+        <v>5.62E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Ivan\College\2018-2019\Indep Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D1BAF6-5B42-4B82-901E-35742438E0A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0338797E-1577-47FF-A1E0-8A17105F8797}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17910" yWindow="1455" windowWidth="17085" windowHeight="14535" firstSheet="6" activeTab="9" xr2:uid="{984E635D-4395-4027-B8D2-12147AC10169}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="17085" windowHeight="14535" firstSheet="10" activeTab="14" xr2:uid="{984E635D-4395-4027-B8D2-12147AC10169}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,11 @@
     <sheet name="Appendix 2" sheetId="8" r:id="rId8"/>
     <sheet name="Appendix 3" sheetId="9" r:id="rId9"/>
     <sheet name="Table 7" sheetId="10" r:id="rId10"/>
+    <sheet name="Table 8" sheetId="11" r:id="rId11"/>
+    <sheet name="Appendix 4" sheetId="12" r:id="rId12"/>
+    <sheet name="Table 9" sheetId="13" r:id="rId13"/>
+    <sheet name="Table 10" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet5" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="36">
   <si>
     <t>Parameters (utility fn)</t>
   </si>
@@ -124,6 +129,30 @@
   </si>
   <si>
     <t>Prices</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>y_A</t>
+  </si>
+  <si>
+    <t>y_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>lambda_A</t>
+  </si>
+  <si>
+    <t>gamma = 1</t>
+  </si>
+  <si>
+    <t>y_k = 1.5</t>
   </si>
 </sst>
 </file>
@@ -315,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -356,13 +385,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -384,6 +407,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -703,29 +753,29 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:I17"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20" t="s">
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1016,30 +1066,30 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18" t="s">
+      <c r="B10" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="18" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1453,30 +1503,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B665ED1-3209-4135-8CC2-C34D1132D3B0}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20" t="s">
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1767,30 +1817,30 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18" t="s">
+      <c r="B10" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="18" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -2195,6 +2245,3846 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:M10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA191E6B-EDEC-4166-A174-CAEB624AA7FA}">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2.42</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2.42</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2.42</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2.42</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2.35</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1.19</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.12</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2.02</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.19</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.49</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1.26</v>
+      </c>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1.29</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1.29</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.29</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1.29</v>
+      </c>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.36</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1.49</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1.49</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1.29</v>
+      </c>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" ref="F12:I13" si="0">F3-J3</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J12" s="12">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="K12" s="12">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="L12" s="12">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="M12" s="13">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4100000000000001</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.07</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="K13" s="12">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L13" s="12">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="M13" s="15">
+        <v>8.5900000000000004E-2</v>
+      </c>
+      <c r="N13" s="12">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0.185</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="3">
+        <f>F5-J5</f>
+        <v>0.75999999999999979</v>
+      </c>
+      <c r="G14" s="3">
+        <f>G5-K5</f>
+        <v>0.75999999999999979</v>
+      </c>
+      <c r="H14" s="3">
+        <f>H5-L5</f>
+        <v>0.75999999999999979</v>
+      </c>
+      <c r="I14" s="4">
+        <f>I5-M5</f>
+        <v>0.75999999999999979</v>
+      </c>
+      <c r="J14" s="12">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K14" s="12">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L14" s="12">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M14" s="15">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="P14" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="3">
+        <f>F6-J6</f>
+        <v>1.45</v>
+      </c>
+      <c r="G15" s="3">
+        <f>G6-K6</f>
+        <v>0.93000000000000016</v>
+      </c>
+      <c r="H15" s="3">
+        <f>H6-L6</f>
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="I15" s="4">
+        <f>I6-M6</f>
+        <v>0.76</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="K15" s="12">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="L15" s="12">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="M15" s="15">
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="N15" s="12">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="P15" s="12">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="3">
+        <f>F7-J7</f>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="G16" s="3">
+        <f>G7-K7</f>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="H16" s="3">
+        <f>H7-L7</f>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="I16" s="4">
+        <f>I7-M7</f>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.111</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0.111</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.111</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0.111</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="O16" s="12">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="P16" s="12">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>4.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="3">
+        <f>F8-J8</f>
+        <v>1.36</v>
+      </c>
+      <c r="G17" s="3">
+        <f>G8-K8</f>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="H17" s="3">
+        <f>H8-L8</f>
+        <v>0.11999999999999988</v>
+      </c>
+      <c r="I17" s="4">
+        <f>I8-M8</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.188</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="L17" s="12">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="M17" s="15">
+        <v>0.115</v>
+      </c>
+      <c r="N17" s="12">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="P17" s="12">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57581AE7-0A6A-4C5A-8A75-3AEC1F173644}">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1.29</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.26</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.29</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1.26</v>
+      </c>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.47</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2.13</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1.18</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.12</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2.02</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.19</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.49</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1.26</v>
+      </c>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.42</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2.12</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1.56</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.21</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.43</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" ref="F12:I13" si="0">F3-J3</f>
+        <v>1.1099999999999999</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1099999999999999</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+      <c r="J12" s="3">
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="K12" s="3">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="L12" s="3">
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="M12" s="5">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.47</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.7799999999999998</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="K13" s="3">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="L13" s="3">
+        <v>6.2899999999999998E-2</v>
+      </c>
+      <c r="M13" s="4">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="N13" s="3">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.377</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="3">
+        <f>F5-J5</f>
+        <v>0.75999999999999979</v>
+      </c>
+      <c r="G14" s="3">
+        <f>G5-K5</f>
+        <v>0.75999999999999979</v>
+      </c>
+      <c r="H14" s="3">
+        <f>H5-L5</f>
+        <v>0.75999999999999979</v>
+      </c>
+      <c r="I14" s="4">
+        <f>I5-M5</f>
+        <v>0.75999999999999979</v>
+      </c>
+      <c r="J14" s="12">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K14" s="12">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L14" s="12">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M14" s="15">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="P14" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="3">
+        <f>F6-J6</f>
+        <v>1.45</v>
+      </c>
+      <c r="G15" s="3">
+        <f>G6-K6</f>
+        <v>0.93000000000000016</v>
+      </c>
+      <c r="H15" s="3">
+        <f>H6-L6</f>
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="I15" s="4">
+        <f>I6-M6</f>
+        <v>0.76</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="K15" s="12">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="L15" s="12">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="M15" s="15">
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="N15" s="12">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="P15" s="12">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="3">
+        <f>F7-J7</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="G16" s="3">
+        <f>G7-K7</f>
+        <v>0.73</v>
+      </c>
+      <c r="H16" s="3">
+        <f>H7-L7</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="I16" s="4">
+        <f>I7-M7</f>
+        <v>0.73</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.115</v>
+      </c>
+      <c r="K16" s="3">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.115</v>
+      </c>
+      <c r="M16" s="4">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="3">
+        <f>F8-J8</f>
+        <v>1.42</v>
+      </c>
+      <c r="G17" s="3">
+        <f>G8-K8</f>
+        <v>0.91000000000000014</v>
+      </c>
+      <c r="H17" s="3">
+        <f>H8-L8</f>
+        <v>0.13000000000000012</v>
+      </c>
+      <c r="I17" s="4">
+        <f>I8-M8</f>
+        <v>0.73999999999999977</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.191</v>
+      </c>
+      <c r="K17" s="3">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="L17" s="3">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="M17" s="4">
+        <v>9.64E-2</v>
+      </c>
+      <c r="N17" s="3">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.216</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>7.8100000000000003E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD79A31-FAF4-41E2-B779-C6204B9B3BAE}">
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>0</v>
+      </c>
+      <c r="B3" s="33">
+        <v>1</v>
+      </c>
+      <c r="C3" s="34">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.38</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2.38</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2.38</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2.38</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1.52</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1.52</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.52</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.52</v>
+      </c>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="33">
+        <v>1</v>
+      </c>
+      <c r="C4" s="34">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2.39</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1.91</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="33">
+        <v>1</v>
+      </c>
+      <c r="C5" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="33">
+        <v>1</v>
+      </c>
+      <c r="C6" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.12</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2.02</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.19</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.49</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.26</v>
+      </c>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="33">
+        <v>1</v>
+      </c>
+      <c r="C7" s="34">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="33">
+        <v>1</v>
+      </c>
+      <c r="C8" s="34">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.84</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.79</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.21</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="31">
+        <v>1</v>
+      </c>
+      <c r="P11" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>0</v>
+      </c>
+      <c r="B12" s="33">
+        <v>1</v>
+      </c>
+      <c r="C12" s="34">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" ref="E12:H13" si="0">E3-I3</f>
+        <v>0.85999999999999988</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.85999999999999988</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.85999999999999988</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.85999999999999988</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0.502</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0.502</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="33">
+        <v>1</v>
+      </c>
+      <c r="C13" s="34">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1999999999999997</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.314</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="K13" s="3">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0.156</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>0</v>
+      </c>
+      <c r="B14" s="33">
+        <v>1</v>
+      </c>
+      <c r="C14" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="3">
+        <f>E5-I5</f>
+        <v>0.75999999999999979</v>
+      </c>
+      <c r="F14" s="3">
+        <f>F5-J5</f>
+        <v>0.75999999999999979</v>
+      </c>
+      <c r="G14" s="3">
+        <f>G5-K5</f>
+        <v>0.75999999999999979</v>
+      </c>
+      <c r="H14" s="4">
+        <f>H5-L5</f>
+        <v>0.75999999999999979</v>
+      </c>
+      <c r="I14" s="12">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J14" s="12">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K14" s="12">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L14" s="15">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M14" s="12">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="P14" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="33">
+        <v>1</v>
+      </c>
+      <c r="C15" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E15" s="3">
+        <f>E6-I6</f>
+        <v>1.45</v>
+      </c>
+      <c r="F15" s="3">
+        <f>F6-J6</f>
+        <v>0.93000000000000016</v>
+      </c>
+      <c r="G15" s="3">
+        <f>G6-K6</f>
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="H15" s="4">
+        <f>H6-L6</f>
+        <v>0.76</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="J15" s="12">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="K15" s="12">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="L15" s="15">
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="M15" s="12">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="N15" s="12">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="P15" s="12">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>0</v>
+      </c>
+      <c r="B16" s="33">
+        <v>1</v>
+      </c>
+      <c r="C16" s="34">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <f>E7-I7</f>
+        <v>0.7</v>
+      </c>
+      <c r="F16" s="3">
+        <f>F7-J7</f>
+        <v>0.7</v>
+      </c>
+      <c r="G16" s="3">
+        <f>G7-K7</f>
+        <v>0.7</v>
+      </c>
+      <c r="H16" s="4">
+        <f>H7-L7</f>
+        <v>0.7</v>
+      </c>
+      <c r="I16" s="3">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="J16" s="3">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="K16" s="3">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="L16" s="4">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="M16" s="12">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="N16" s="12">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="O16" s="12">
+        <v>5.16E-2</v>
+      </c>
+      <c r="P16" s="12">
+        <v>5.16E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="33">
+        <v>1</v>
+      </c>
+      <c r="C17" s="34">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <f>E8-I8</f>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F17" s="3">
+        <f>F8-J8</f>
+        <v>0.76</v>
+      </c>
+      <c r="G17" s="3">
+        <f>G8-K8</f>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="H17" s="4">
+        <f>H8-L8</f>
+        <v>0.71</v>
+      </c>
+      <c r="I17" s="3">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="L17" s="4">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="M17" s="12">
+        <v>2.86E-2</v>
+      </c>
+      <c r="N17" s="12">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0.122</v>
+      </c>
+      <c r="P17" s="12">
+        <v>3.9300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="M10:P10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664BDA80-BD97-4D2E-BA10-8A281F610506}">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>0</v>
+      </c>
+      <c r="B3" s="33">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="34">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="33">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="34">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.42</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2.12</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.56</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1.21</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1.43</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="33">
+        <v>1</v>
+      </c>
+      <c r="C5" s="34">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2.41</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.41</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.74</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1.62</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1.74</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.62</v>
+      </c>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="33">
+        <v>1</v>
+      </c>
+      <c r="C6" s="34">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.69</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.44</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.65</v>
+      </c>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="33">
+        <v>1</v>
+      </c>
+      <c r="C7" s="34">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.77</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2.27</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.21</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2.64</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1.92</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.76</v>
+      </c>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="33">
+        <v>1</v>
+      </c>
+      <c r="C8" s="34">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1.34</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="31">
+        <v>1</v>
+      </c>
+      <c r="P11" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>0</v>
+      </c>
+      <c r="B12" s="33">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="34">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" ref="E12:H13" si="0">E3-I3</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.73</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.73</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0.115</v>
+      </c>
+      <c r="J12" s="12">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0.115</v>
+      </c>
+      <c r="L12" s="15">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="33">
+        <v>-1</v>
+      </c>
+      <c r="C13" s="34">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.42</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.91000000000000014</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13000000000000012</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.73999999999999977</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.191</v>
+      </c>
+      <c r="J13" s="12">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="K13" s="12">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="L13" s="15">
+        <v>9.64E-2</v>
+      </c>
+      <c r="M13" s="12">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0.216</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="P13" s="12">
+        <v>7.8100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>0</v>
+      </c>
+      <c r="B14" s="33">
+        <v>1</v>
+      </c>
+      <c r="C14" s="34">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <f>E5-I5</f>
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="F14" s="3">
+        <f>F5-J5</f>
+        <v>0.79</v>
+      </c>
+      <c r="G14" s="3">
+        <f>G5-K5</f>
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="H14" s="4">
+        <f>H5-L5</f>
+        <v>0.79</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="M14" s="12">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0.184</v>
+      </c>
+      <c r="P14" s="12">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="33">
+        <v>1</v>
+      </c>
+      <c r="C15" s="34">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <f>E6-I6</f>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F15" s="3">
+        <f>F6-J6</f>
+        <v>1.25</v>
+      </c>
+      <c r="G15" s="3">
+        <f>G6-K6</f>
+        <v>0.14000000000000012</v>
+      </c>
+      <c r="H15" s="4">
+        <f>H6-L6</f>
+        <v>0.8400000000000003</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="K15" s="12">
+        <v>7.51E-2</v>
+      </c>
+      <c r="L15" s="15">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="M15" s="12">
+        <v>0.153</v>
+      </c>
+      <c r="N15" s="12">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="P15" s="12">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>0</v>
+      </c>
+      <c r="B16" s="33">
+        <v>1</v>
+      </c>
+      <c r="C16" s="34">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="3">
+        <f>E7-I7</f>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="F16" s="3">
+        <f>F7-J7</f>
+        <v>0.74</v>
+      </c>
+      <c r="G16" s="3">
+        <f>G7-K7</f>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="H16" s="4">
+        <f>H7-L7</f>
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.158</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.161</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0.61</v>
+      </c>
+      <c r="O16" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="P16" s="12">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="33">
+        <v>1</v>
+      </c>
+      <c r="C17" s="34">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="3">
+        <f>E8-I8</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F17" s="3">
+        <f>F8-J8</f>
+        <v>1.2099999999999997</v>
+      </c>
+      <c r="G17" s="3">
+        <f>G8-K8</f>
+        <v>0.39000000000000012</v>
+      </c>
+      <c r="H17" s="4">
+        <f>H8-L8</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0.111</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.128</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="P17" s="12">
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="M10:P10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1731507D-E101-4633-8828-9D1C271D8321}">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>0</v>
+      </c>
+      <c r="B3" s="33">
+        <v>5</v>
+      </c>
+      <c r="C3" s="34">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2.11</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2.11</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2.23</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2.23</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="33">
+        <v>5</v>
+      </c>
+      <c r="C4" s="34">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.08</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.95</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3.15</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3.93</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="33">
+        <v>5</v>
+      </c>
+      <c r="C5" s="34">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.98</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1.98</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1.98</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="33">
+        <v>5</v>
+      </c>
+      <c r="C6" s="34">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3.04</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3.69</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3.53</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.84</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2.96</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="33">
+        <v>5</v>
+      </c>
+      <c r="C7" s="34">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.42</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1.42</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2.27</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="33">
+        <v>5</v>
+      </c>
+      <c r="C8" s="34">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2.65</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4.18</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4.16</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1.21</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2.58</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>0</v>
+      </c>
+      <c r="B12" s="33">
+        <v>5</v>
+      </c>
+      <c r="C12" s="34">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-2</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" ref="E12:H17" si="0">E3-I3</f>
+        <v>1.5100000000000002</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5100000000000002</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.73999999999999977</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.73999999999999977</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0.158</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0.158</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="33">
+        <v>5</v>
+      </c>
+      <c r="C13" s="34">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>-2</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>4.08</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>2.91</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000027</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.69</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="K13" s="12">
+        <v>5.0600000000000003E-3</v>
+      </c>
+      <c r="L13" s="15">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="M13" s="12">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="O13" s="12">
+        <v>3.06</v>
+      </c>
+      <c r="P13" s="12">
+        <v>9.3899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>0</v>
+      </c>
+      <c r="B14" s="33">
+        <v>5</v>
+      </c>
+      <c r="C14" s="34">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99000000000000021</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99000000000000021</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99000000000000021</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99000000000000021</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.247</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.247</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0.247</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0.247</v>
+      </c>
+      <c r="M14" s="12">
+        <v>0.98</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0.98</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="P14" s="12">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="33">
+        <v>5</v>
+      </c>
+      <c r="C15" s="34">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>3.04</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.73</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.94999999999999973</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0.123</v>
+      </c>
+      <c r="L15" s="15">
+        <v>0.245</v>
+      </c>
+      <c r="M15" s="12">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="N15" s="12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="O15" s="12">
+        <v>1.69</v>
+      </c>
+      <c r="P15" s="12">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>0</v>
+      </c>
+      <c r="B16" s="33">
+        <v>5</v>
+      </c>
+      <c r="C16" s="34">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.74000000000000021</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.74000000000000021</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5299999999999998</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5299999999999998</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="O16" s="12">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="P16" s="12">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="33">
+        <v>5</v>
+      </c>
+      <c r="C17" s="34">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>2.52</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>1.44</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5999999999999996</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>1.67</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="N17" s="12">
+        <v>1.05</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="P17" s="12">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="M10:P10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2212,22 +6102,22 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20" t="s">
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
@@ -2518,30 +6408,30 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18" t="s">
+      <c r="B10" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="18" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -2963,22 +6853,22 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20" t="s">
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -3160,28 +7050,28 @@
       <c r="E6" s="4">
         <v>-4</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>3.13</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="19">
         <v>4.38</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="19">
         <v>4.4400000000000004</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="19">
         <v>2.2799999999999998</v>
       </c>
-      <c r="J6" s="21">
-        <v>0</v>
-      </c>
-      <c r="K6" s="21">
+      <c r="J6" s="19">
+        <v>0</v>
+      </c>
+      <c r="K6" s="19">
         <v>1.25</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="19">
         <v>3.24</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="19">
         <v>1.08</v>
       </c>
     </row>
@@ -3269,30 +7159,30 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18" t="s">
+      <c r="B10" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="18" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -3550,28 +7440,28 @@
         <f t="shared" si="0"/>
         <v>1.1999999999999997</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="20">
         <v>0.53</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="20">
         <v>2.7699999999999999E-3</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="20">
         <v>0.14299999999999999</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="21">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="20">
         <v>0.46300000000000002</v>
       </c>
-      <c r="O15" s="22">
+      <c r="O15" s="20">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="P15" s="22">
+      <c r="P15" s="20">
         <v>1.67</v>
       </c>
-      <c r="Q15" s="22">
+      <c r="Q15" s="20">
         <v>0.19800000000000001</v>
       </c>
     </row>
@@ -3707,29 +7597,29 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:I17"/>
+      <selection activeCell="H19" sqref="H19:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20" t="s">
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -4020,30 +7910,30 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18" t="s">
+      <c r="B10" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="18" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -4465,22 +8355,22 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20" t="s">
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -4771,30 +8661,30 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18" t="s">
+      <c r="B10" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="18" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -4881,13 +8771,13 @@
         <f t="shared" si="0"/>
         <v>1.0099999999999998</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="22">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="23">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="23">
         <v>8.03E-4</v>
       </c>
       <c r="M12" s="13">
@@ -4941,10 +8831,10 @@
       <c r="J13" s="14">
         <v>0.1</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="24">
         <v>3.4299999999999997E-2</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="24">
         <v>7.0299999999999996E-4</v>
       </c>
       <c r="M13" s="15">
@@ -4998,10 +8888,10 @@
       <c r="J14" s="14">
         <v>0.28199999999999997</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="24">
         <v>0.28199999999999997</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="24">
         <v>2.69E-2</v>
       </c>
       <c r="M14" s="15">
@@ -5055,10 +8945,10 @@
       <c r="J15" s="14">
         <v>0.52600000000000002</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="24">
         <v>0.15</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="24">
         <v>3.6800000000000001E-3</v>
       </c>
       <c r="M15" s="15">
@@ -5112,10 +9002,10 @@
       <c r="J16" s="14">
         <v>0.36099999999999999</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="24">
         <v>0.36099999999999999</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="24">
         <v>9.3100000000000002E-2</v>
       </c>
       <c r="M16" s="15">
@@ -5169,10 +9059,10 @@
       <c r="J17" s="14">
         <v>0.627</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="24">
         <v>0.17100000000000001</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="24">
         <v>5.45E-3</v>
       </c>
       <c r="M17" s="15">
@@ -5216,22 +9106,22 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20" t="s">
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -5522,30 +9412,30 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18" t="s">
+      <c r="B10" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="18" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -5632,13 +9522,13 @@
         <f t="shared" si="0"/>
         <v>2.0500000000000003</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="22">
         <v>1.41E-2</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="23">
         <v>0.113</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="23">
         <v>0.104</v>
       </c>
       <c r="M12" s="13">
@@ -5692,10 +9582,10 @@
       <c r="J13" s="14">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="24">
         <v>0.10199999999999999</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="24">
         <v>9.5799999999999996E-2</v>
       </c>
       <c r="M13" s="15">
@@ -5749,10 +9639,10 @@
       <c r="J14" s="14">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="24">
         <v>0.184</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="24">
         <v>0.16800000000000001</v>
       </c>
       <c r="M14" s="15">
@@ -5806,10 +9696,10 @@
       <c r="J15" s="14">
         <v>9.1700000000000004E-2</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="24">
         <v>0.16200000000000001</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="24">
         <v>0.14899999999999999</v>
       </c>
       <c r="M15" s="15">
@@ -5863,10 +9753,10 @@
       <c r="J16" s="14">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="24">
         <v>0.20399999999999999</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="24">
         <v>0.20100000000000001</v>
       </c>
       <c r="M16" s="15">
@@ -5920,10 +9810,10 @@
       <c r="J17" s="14">
         <v>0.13700000000000001</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="24">
         <v>0.182</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="24">
         <v>0.17599999999999999</v>
       </c>
       <c r="M17" s="15">
@@ -5967,22 +9857,22 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20" t="s">
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -6170,7 +10060,7 @@
       <c r="G6" s="3">
         <v>4.42</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="25">
         <v>3.16</v>
       </c>
       <c r="I6" s="3">
@@ -6273,30 +10163,30 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18" t="s">
+      <c r="B10" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="18" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -6383,13 +10273,13 @@
         <f t="shared" si="0"/>
         <v>1.03</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="22">
         <v>2.4E-2</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="23">
         <v>0.23799999999999999</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="23">
         <v>1.6800000000000001E-3</v>
       </c>
       <c r="M12" s="13">
@@ -6443,10 +10333,10 @@
       <c r="J13" s="14">
         <v>6.1400000000000003E-2</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="24">
         <v>0.22900000000000001</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="24">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="M13" s="15">
@@ -6500,10 +10390,10 @@
       <c r="J14" s="14">
         <v>9.3899999999999997E-2</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="24">
         <v>0.38400000000000001</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="24">
         <v>9.5200000000000007E-3</v>
       </c>
       <c r="M14" s="15">
@@ -6557,10 +10447,10 @@
       <c r="J15" s="14">
         <v>0.17299999999999999</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="24">
         <v>0.36099999999999999</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="24">
         <v>3.1700000000000001E-3</v>
       </c>
       <c r="M15" s="15">
@@ -6614,10 +10504,10 @@
       <c r="J16" s="14">
         <v>0.17199999999999999</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="24">
         <v>0.47899999999999998</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="24">
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="M16" s="15">
@@ -6671,10 +10561,10 @@
       <c r="J17" s="14">
         <v>0.28100000000000003</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="24">
         <v>0.436</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="24">
         <v>6.0499999999999998E-3</v>
       </c>
       <c r="M17" s="15">
@@ -6718,22 +10608,22 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20" t="s">
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -6839,7 +10729,7 @@
       <c r="G4" s="3">
         <v>3.75</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="25">
         <v>3.11</v>
       </c>
       <c r="I4" s="3">
@@ -7024,30 +10914,30 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18" t="s">
+      <c r="B10" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="18" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -7134,13 +11024,13 @@
         <f t="shared" si="0"/>
         <v>1.35</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="22">
         <v>2.41E-2</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="23">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="23">
         <v>0.23699999999999999</v>
       </c>
       <c r="M12" s="13">
@@ -7194,10 +11084,10 @@
       <c r="J13" s="14">
         <v>5.7299999999999997E-2</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="24">
         <v>2.9700000000000001E-4</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="24">
         <v>0.22800000000000001</v>
       </c>
       <c r="M13" s="15">
@@ -7251,10 +11141,10 @@
       <c r="J14" s="14">
         <v>8.9300000000000004E-2</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="24">
         <v>9.5300000000000003E-3</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="24">
         <v>0.38400000000000001</v>
       </c>
       <c r="M14" s="15">
@@ -7308,10 +11198,10 @@
       <c r="J15" s="14">
         <v>0.155</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="24">
         <v>2.66E-3</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="24">
         <v>0.35699999999999998</v>
       </c>
       <c r="M15" s="15">
@@ -7365,10 +11255,10 @@
       <c r="J16" s="14">
         <v>0.188</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="24">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="24">
         <v>0.48</v>
       </c>
       <c r="M16" s="15">
@@ -7422,10 +11312,10 @@
       <c r="J17" s="14">
         <v>0.28199999999999997</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="24">
         <v>4.47E-3</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="24">
         <v>0.436</v>
       </c>
       <c r="M17" s="15">
@@ -7469,22 +11359,22 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20" t="s">
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -7775,30 +11665,30 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18" t="s">
+      <c r="B10" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="18" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -7885,13 +11775,13 @@
         <f t="shared" si="0"/>
         <v>0.998</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="22">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="23">
         <v>2.2499999999999998E-3</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="23">
         <v>2.2300000000000002E-3</v>
       </c>
       <c r="M12" s="13">
@@ -7945,10 +11835,10 @@
       <c r="J13" s="14">
         <v>0.106</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="24">
         <v>1.98E-3</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="24">
         <v>1.9400000000000001E-3</v>
       </c>
       <c r="M13" s="15">
@@ -8002,10 +11892,10 @@
       <c r="J14" s="14">
         <v>0.34899999999999998</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="24">
         <v>6.2300000000000001E-2</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="24">
         <v>6.4500000000000002E-2</v>
       </c>
       <c r="M14" s="15">
@@ -8059,10 +11949,10 @@
       <c r="J15" s="14">
         <v>0.64500000000000002</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="24">
         <v>1.14E-2</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="24">
         <v>1.15E-2</v>
       </c>
       <c r="M15" s="15">
@@ -8116,10 +12006,10 @@
       <c r="J16" s="14">
         <v>0.46600000000000003</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="24">
         <v>0.158</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="24">
         <v>0.17499999999999999</v>
       </c>
       <c r="M16" s="15">
@@ -8173,10 +12063,10 @@
       <c r="J17" s="14">
         <v>0.78200000000000003</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="24">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="24">
         <v>1.54E-2</v>
       </c>
       <c r="M17" s="15">
